--- a/Tefas Funds/data/tefas_1ay_test_processed.xlsx
+++ b/Tefas Funds/data/tefas_1ay_test_processed.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Documents\GitHub\Portfolio\Tefas Funds\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E41D6F3A-E26C-4EB0-A4A7-C5DB634DDCA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3396F95A-03B9-42B0-8FF2-8E4A9975D308}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="45" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sayfa1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1262" uniqueCount="38">
   <si>
     <t>tarih</t>
   </si>
@@ -122,13 +123,37 @@
   <si>
     <t>YAY</t>
   </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>number of shares outstanding</t>
+  </si>
+  <si>
+    <t>asset under management</t>
+  </si>
+  <si>
+    <t>number of investors</t>
+  </si>
+  <si>
+    <t>fund name</t>
+  </si>
+  <si>
+    <t>fund category</t>
+  </si>
+  <si>
+    <t>fund code</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -184,7 +209,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -489,8 +514,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M162"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5138,4 +5163,8976 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2716D41-8F33-47AB-82C2-2144FFC38A2C}">
+  <dimension ref="A1:M252"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M234" sqref="M234"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="39.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="13" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>45482</v>
+      </c>
+      <c r="B2">
+        <v>2.294959</v>
+      </c>
+      <c r="C2">
+        <v>4516958961</v>
+      </c>
+      <c r="D2">
+        <v>10366237354.42</v>
+      </c>
+      <c r="E2">
+        <v>13413</v>
+      </c>
+      <c r="F2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>45483</v>
+      </c>
+      <c r="B3">
+        <v>2.2981929999999999</v>
+      </c>
+      <c r="C3">
+        <v>4680127091</v>
+      </c>
+      <c r="D3">
+        <v>10755836398.75</v>
+      </c>
+      <c r="E3">
+        <v>13442</v>
+      </c>
+      <c r="F3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>45484</v>
+      </c>
+      <c r="B4">
+        <v>2.3014160000000001</v>
+      </c>
+      <c r="C4">
+        <v>4693569647</v>
+      </c>
+      <c r="D4">
+        <v>10801855769.690001</v>
+      </c>
+      <c r="E4">
+        <v>13506</v>
+      </c>
+      <c r="F4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>45485</v>
+      </c>
+      <c r="B5">
+        <v>2.3045260000000001</v>
+      </c>
+      <c r="C5">
+        <v>4857287773</v>
+      </c>
+      <c r="D5">
+        <v>11193746662.860001</v>
+      </c>
+      <c r="E5">
+        <v>13637</v>
+      </c>
+      <c r="F5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>45489</v>
+      </c>
+      <c r="B6">
+        <v>2.3170350000000002</v>
+      </c>
+      <c r="C6">
+        <v>5013452321</v>
+      </c>
+      <c r="D6">
+        <v>11616345682.219999</v>
+      </c>
+      <c r="E6">
+        <v>13700</v>
+      </c>
+      <c r="F6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H6" t="s">
+        <v>23</v>
+      </c>
+      <c r="I6">
+        <v>9.6193439621361509E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>45490</v>
+      </c>
+      <c r="B7">
+        <v>2.320106</v>
+      </c>
+      <c r="C7">
+        <v>5137448230</v>
+      </c>
+      <c r="D7">
+        <v>11919425092.85</v>
+      </c>
+      <c r="E7">
+        <v>13720</v>
+      </c>
+      <c r="F7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H7" t="s">
+        <v>23</v>
+      </c>
+      <c r="I7">
+        <v>9.5348824054377612E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>45491</v>
+      </c>
+      <c r="B8">
+        <v>2.3231649999999999</v>
+      </c>
+      <c r="C8">
+        <v>4881221721</v>
+      </c>
+      <c r="D8">
+        <v>11339881071.889999</v>
+      </c>
+      <c r="E8">
+        <v>13753</v>
+      </c>
+      <c r="F8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H8" t="s">
+        <v>23</v>
+      </c>
+      <c r="I8">
+        <v>9.45026887794298E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>45492</v>
+      </c>
+      <c r="B9">
+        <v>2.3262330000000002</v>
+      </c>
+      <c r="C9">
+        <v>4797421398</v>
+      </c>
+      <c r="D9">
+        <v>11159920319.17</v>
+      </c>
+      <c r="E9">
+        <v>13835</v>
+      </c>
+      <c r="F9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G9" t="s">
+        <v>22</v>
+      </c>
+      <c r="H9" t="s">
+        <v>23</v>
+      </c>
+      <c r="I9">
+        <v>9.4192905612695554E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>45495</v>
+      </c>
+      <c r="B10">
+        <v>2.3356889999999999</v>
+      </c>
+      <c r="C10">
+        <v>4916220024</v>
+      </c>
+      <c r="D10">
+        <v>11482760642.92</v>
+      </c>
+      <c r="E10">
+        <v>13714</v>
+      </c>
+      <c r="F10" t="s">
+        <v>21</v>
+      </c>
+      <c r="G10" t="s">
+        <v>22</v>
+      </c>
+      <c r="H10" t="s">
+        <v>23</v>
+      </c>
+      <c r="I10">
+        <v>1.3522520466247689E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>45496</v>
+      </c>
+      <c r="B11">
+        <v>2.3388460000000002</v>
+      </c>
+      <c r="C11">
+        <v>4974465001</v>
+      </c>
+      <c r="D11">
+        <v>11634508863.35</v>
+      </c>
+      <c r="E11">
+        <v>13730</v>
+      </c>
+      <c r="F11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G11" t="s">
+        <v>22</v>
+      </c>
+      <c r="H11" t="s">
+        <v>23</v>
+      </c>
+      <c r="I11">
+        <v>9.4133234931712551E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>45497</v>
+      </c>
+      <c r="B12">
+        <v>2.3420719999999999</v>
+      </c>
+      <c r="C12">
+        <v>4973017707</v>
+      </c>
+      <c r="D12">
+        <v>11647164139.379999</v>
+      </c>
+      <c r="E12">
+        <v>13723</v>
+      </c>
+      <c r="F12" t="s">
+        <v>21</v>
+      </c>
+      <c r="G12" t="s">
+        <v>22</v>
+      </c>
+      <c r="H12" t="s">
+        <v>23</v>
+      </c>
+      <c r="I12">
+        <v>9.467670873658296E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>45498</v>
+      </c>
+      <c r="B13">
+        <v>2.3453010000000001</v>
+      </c>
+      <c r="C13">
+        <v>5060910174</v>
+      </c>
+      <c r="D13">
+        <v>11869357891.440001</v>
+      </c>
+      <c r="E13">
+        <v>13721</v>
+      </c>
+      <c r="F13" t="s">
+        <v>21</v>
+      </c>
+      <c r="G13" t="s">
+        <v>22</v>
+      </c>
+      <c r="H13" t="s">
+        <v>23</v>
+      </c>
+      <c r="I13">
+        <v>9.5283804637209535E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>45499</v>
+      </c>
+      <c r="B14">
+        <v>2.348411</v>
+      </c>
+      <c r="C14">
+        <v>5193598192</v>
+      </c>
+      <c r="D14">
+        <v>12196704529.620001</v>
+      </c>
+      <c r="E14">
+        <v>13815</v>
+      </c>
+      <c r="F14" t="s">
+        <v>21</v>
+      </c>
+      <c r="G14" t="s">
+        <v>22</v>
+      </c>
+      <c r="H14" t="s">
+        <v>23</v>
+      </c>
+      <c r="I14">
+        <v>9.533868705327464E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>45502</v>
+      </c>
+      <c r="B15">
+        <v>2.357742</v>
+      </c>
+      <c r="C15">
+        <v>5677070462</v>
+      </c>
+      <c r="D15">
+        <v>13385065944.379999</v>
+      </c>
+      <c r="E15">
+        <v>13823</v>
+      </c>
+      <c r="F15" t="s">
+        <v>21</v>
+      </c>
+      <c r="G15" t="s">
+        <v>22</v>
+      </c>
+      <c r="H15" t="s">
+        <v>23</v>
+      </c>
+      <c r="I15">
+        <v>9.4417535896260674E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>45503</v>
+      </c>
+      <c r="B16">
+        <v>2.3609110000000002</v>
+      </c>
+      <c r="C16">
+        <v>6008058535</v>
+      </c>
+      <c r="D16">
+        <v>14184489520.049999</v>
+      </c>
+      <c r="E16">
+        <v>13992</v>
+      </c>
+      <c r="F16" t="s">
+        <v>21</v>
+      </c>
+      <c r="G16" t="s">
+        <v>22</v>
+      </c>
+      <c r="H16" t="s">
+        <v>23</v>
+      </c>
+      <c r="I16">
+        <v>9.4341397424200224E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>45504</v>
+      </c>
+      <c r="B17">
+        <v>2.363991</v>
+      </c>
+      <c r="C17">
+        <v>6084270858</v>
+      </c>
+      <c r="D17">
+        <v>14383159291.09</v>
+      </c>
+      <c r="E17">
+        <v>14257</v>
+      </c>
+      <c r="F17" t="s">
+        <v>21</v>
+      </c>
+      <c r="G17" t="s">
+        <v>22</v>
+      </c>
+      <c r="H17" t="s">
+        <v>23</v>
+      </c>
+      <c r="I17">
+        <v>9.3588070733947593E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>45505</v>
+      </c>
+      <c r="B18">
+        <v>2.3670589999999998</v>
+      </c>
+      <c r="C18">
+        <v>6215692802</v>
+      </c>
+      <c r="D18">
+        <v>14712908543.030001</v>
+      </c>
+      <c r="E18">
+        <v>14499</v>
+      </c>
+      <c r="F18" t="s">
+        <v>21</v>
+      </c>
+      <c r="G18" t="s">
+        <v>22</v>
+      </c>
+      <c r="H18" t="s">
+        <v>23</v>
+      </c>
+      <c r="I18">
+        <v>9.2772740044879676E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>45506</v>
+      </c>
+      <c r="B19">
+        <v>2.3701940000000001</v>
+      </c>
+      <c r="C19">
+        <v>5674412830</v>
+      </c>
+      <c r="D19">
+        <v>13449461668.700001</v>
+      </c>
+      <c r="E19">
+        <v>14770</v>
+      </c>
+      <c r="F19" t="s">
+        <v>21</v>
+      </c>
+      <c r="G19" t="s">
+        <v>22</v>
+      </c>
+      <c r="H19" t="s">
+        <v>23</v>
+      </c>
+      <c r="I19">
+        <v>9.2756336092787439E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>45509</v>
+      </c>
+      <c r="B20">
+        <v>2.379991</v>
+      </c>
+      <c r="C20">
+        <v>5898432409</v>
+      </c>
+      <c r="D20">
+        <v>14038215632.129999</v>
+      </c>
+      <c r="E20">
+        <v>14836</v>
+      </c>
+      <c r="F20" t="s">
+        <v>21</v>
+      </c>
+      <c r="G20" t="s">
+        <v>22</v>
+      </c>
+      <c r="H20" t="s">
+        <v>23</v>
+      </c>
+      <c r="I20">
+        <v>9.436571092171997E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <v>45510</v>
+      </c>
+      <c r="B21">
+        <v>2.383305</v>
+      </c>
+      <c r="C21">
+        <v>5569449733</v>
+      </c>
+      <c r="D21">
+        <v>13273694818.25</v>
+      </c>
+      <c r="E21">
+        <v>15003</v>
+      </c>
+      <c r="F21" t="s">
+        <v>21</v>
+      </c>
+      <c r="G21" t="s">
+        <v>22</v>
+      </c>
+      <c r="H21" t="s">
+        <v>23</v>
+      </c>
+      <c r="I21">
+        <v>9.4853215559587145E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <v>45511</v>
+      </c>
+      <c r="B22">
+        <v>2.3866939999999999</v>
+      </c>
+      <c r="C22">
+        <v>5875302803</v>
+      </c>
+      <c r="D22">
+        <v>14022551310.6</v>
+      </c>
+      <c r="E22">
+        <v>15175</v>
+      </c>
+      <c r="F22" t="s">
+        <v>21</v>
+      </c>
+      <c r="G22" t="s">
+        <v>22</v>
+      </c>
+      <c r="H22" t="s">
+        <v>23</v>
+      </c>
+      <c r="I22">
+        <v>9.6036744640737304E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <v>45512</v>
+      </c>
+      <c r="B23">
+        <v>2.3900960000000002</v>
+      </c>
+      <c r="C23">
+        <v>5924225529</v>
+      </c>
+      <c r="D23">
+        <v>14159465307.6</v>
+      </c>
+      <c r="E23">
+        <v>15464</v>
+      </c>
+      <c r="F23" t="s">
+        <v>21</v>
+      </c>
+      <c r="G23" t="s">
+        <v>22</v>
+      </c>
+      <c r="H23" t="s">
+        <v>23</v>
+      </c>
+      <c r="I23">
+        <v>9.7323302883454144E-3</v>
+      </c>
+      <c r="J23">
+        <v>4.14547710874138E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
+        <v>45513</v>
+      </c>
+      <c r="B24">
+        <v>2.3935050000000002</v>
+      </c>
+      <c r="C24">
+        <v>6032708781</v>
+      </c>
+      <c r="D24">
+        <v>14439318797.98</v>
+      </c>
+      <c r="E24">
+        <v>15780</v>
+      </c>
+      <c r="F24" t="s">
+        <v>21</v>
+      </c>
+      <c r="G24" t="s">
+        <v>22</v>
+      </c>
+      <c r="H24" t="s">
+        <v>23</v>
+      </c>
+      <c r="I24">
+        <v>9.8350599149268358E-3</v>
+      </c>
+      <c r="J24">
+        <v>4.1472583025011563E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
+        <v>45516</v>
+      </c>
+      <c r="B25">
+        <v>2.4036249999999999</v>
+      </c>
+      <c r="C25">
+        <v>6120996155</v>
+      </c>
+      <c r="D25">
+        <v>14712580627.16</v>
+      </c>
+      <c r="E25">
+        <v>15900</v>
+      </c>
+      <c r="F25" t="s">
+        <v>21</v>
+      </c>
+      <c r="G25" t="s">
+        <v>22</v>
+      </c>
+      <c r="H25" t="s">
+        <v>23</v>
+      </c>
+      <c r="I25">
+        <v>9.9302896523558726E-3</v>
+      </c>
+      <c r="J25">
+        <v>4.3001901475617998E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
+        <v>45517</v>
+      </c>
+      <c r="B26">
+        <v>2.406949</v>
+      </c>
+      <c r="C26">
+        <v>6097485945</v>
+      </c>
+      <c r="D26">
+        <v>14676335249.66</v>
+      </c>
+      <c r="E26">
+        <v>16058</v>
+      </c>
+      <c r="F26" t="s">
+        <v>21</v>
+      </c>
+      <c r="G26" t="s">
+        <v>22</v>
+      </c>
+      <c r="H26" t="s">
+        <v>23</v>
+      </c>
+      <c r="I26">
+        <v>9.9206773786821856E-3</v>
+      </c>
+      <c r="J26">
+        <v>4.4444280515819612E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
+        <v>45518</v>
+      </c>
+      <c r="B27">
+        <v>2.410196</v>
+      </c>
+      <c r="C27">
+        <v>6132567880</v>
+      </c>
+      <c r="D27">
+        <v>14780693418.59</v>
+      </c>
+      <c r="E27">
+        <v>16138</v>
+      </c>
+      <c r="F27" t="s">
+        <v>21</v>
+      </c>
+      <c r="G27" t="s">
+        <v>22</v>
+      </c>
+      <c r="H27" t="s">
+        <v>23</v>
+      </c>
+      <c r="I27">
+        <v>9.8470939299299953E-3</v>
+      </c>
+      <c r="J27">
+        <v>4.5853247045162471E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="2">
+        <v>45519</v>
+      </c>
+      <c r="B28">
+        <v>2.4134250000000002</v>
+      </c>
+      <c r="C28">
+        <v>6151686764</v>
+      </c>
+      <c r="D28">
+        <v>14846635176.59</v>
+      </c>
+      <c r="E28">
+        <v>16521</v>
+      </c>
+      <c r="F28" t="s">
+        <v>21</v>
+      </c>
+      <c r="G28" t="s">
+        <v>22</v>
+      </c>
+      <c r="H28" t="s">
+        <v>23</v>
+      </c>
+      <c r="I28">
+        <v>9.7606958046874137E-3</v>
+      </c>
+      <c r="J28">
+        <v>4.1600580051660778E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="2">
+        <v>45520</v>
+      </c>
+      <c r="B29">
+        <v>2.4167049999999999</v>
+      </c>
+      <c r="C29">
+        <v>6210209938</v>
+      </c>
+      <c r="D29">
+        <v>15008245141.73</v>
+      </c>
+      <c r="E29">
+        <v>16765</v>
+      </c>
+      <c r="F29" t="s">
+        <v>21</v>
+      </c>
+      <c r="G29" t="s">
+        <v>22</v>
+      </c>
+      <c r="H29" t="s">
+        <v>23</v>
+      </c>
+      <c r="I29">
+        <v>9.6928980720740743E-3</v>
+      </c>
+      <c r="J29">
+        <v>4.1635597683898913E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
+        <v>45523</v>
+      </c>
+      <c r="B30">
+        <v>2.4264779999999999</v>
+      </c>
+      <c r="C30">
+        <v>6246096500</v>
+      </c>
+      <c r="D30">
+        <v>15156015638.469999</v>
+      </c>
+      <c r="E30">
+        <v>17028</v>
+      </c>
+      <c r="F30" t="s">
+        <v>21</v>
+      </c>
+      <c r="G30" t="s">
+        <v>22</v>
+      </c>
+      <c r="H30" t="s">
+        <v>23</v>
+      </c>
+      <c r="I30">
+        <v>9.5077227104893858E-3</v>
+      </c>
+      <c r="J30">
+        <v>4.3093275695082811E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" s="2">
+        <v>45524</v>
+      </c>
+      <c r="B31">
+        <v>2.4297110000000002</v>
+      </c>
+      <c r="C31">
+        <v>6274065446</v>
+      </c>
+      <c r="D31">
+        <v>15244167683.34</v>
+      </c>
+      <c r="E31">
+        <v>17102</v>
+      </c>
+      <c r="F31" t="s">
+        <v>21</v>
+      </c>
+      <c r="G31" t="s">
+        <v>22</v>
+      </c>
+      <c r="H31" t="s">
+        <v>23</v>
+      </c>
+      <c r="I31">
+        <v>9.4567853328011431E-3</v>
+      </c>
+      <c r="J31">
+        <v>4.4483076286855112E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" s="2">
+        <v>45525</v>
+      </c>
+      <c r="B32">
+        <v>2.432957</v>
+      </c>
+      <c r="C32">
+        <v>6276416550</v>
+      </c>
+      <c r="D32">
+        <v>15270250477.549999</v>
+      </c>
+      <c r="E32">
+        <v>17213</v>
+      </c>
+      <c r="F32" t="s">
+        <v>21</v>
+      </c>
+      <c r="G32" t="s">
+        <v>22</v>
+      </c>
+      <c r="H32" t="s">
+        <v>23</v>
+      </c>
+      <c r="I32">
+        <v>9.4436303105640551E-3</v>
+      </c>
+      <c r="J32">
+        <v>4.1644242876513138E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" s="2">
+        <v>45526</v>
+      </c>
+      <c r="B33">
+        <v>2.436248</v>
+      </c>
+      <c r="C33">
+        <v>6346942582</v>
+      </c>
+      <c r="D33">
+        <v>15462723148.370001</v>
+      </c>
+      <c r="E33">
+        <v>17289</v>
+      </c>
+      <c r="F33" t="s">
+        <v>21</v>
+      </c>
+      <c r="G33" t="s">
+        <v>22</v>
+      </c>
+      <c r="H33" t="s">
+        <v>23</v>
+      </c>
+      <c r="I33">
+        <v>9.4566850016055692E-3</v>
+      </c>
+      <c r="J33">
+        <v>4.1645324232548742E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" s="2">
+        <v>45527</v>
+      </c>
+      <c r="B34">
+        <v>2.4395709999999999</v>
+      </c>
+      <c r="C34">
+        <v>6225602820</v>
+      </c>
+      <c r="D34">
+        <v>15187798590.219999</v>
+      </c>
+      <c r="E34">
+        <v>17410</v>
+      </c>
+      <c r="F34" t="s">
+        <v>21</v>
+      </c>
+      <c r="G34" t="s">
+        <v>22</v>
+      </c>
+      <c r="H34" t="s">
+        <v>23</v>
+      </c>
+      <c r="I34">
+        <v>9.4616430222140835E-3</v>
+      </c>
+      <c r="J34">
+        <v>4.1629377747567142E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" s="2">
+        <v>45530</v>
+      </c>
+      <c r="B35">
+        <v>2.4495580000000001</v>
+      </c>
+      <c r="C35">
+        <v>6202175772</v>
+      </c>
+      <c r="D35">
+        <v>15192588479.9</v>
+      </c>
+      <c r="E35">
+        <v>17468</v>
+      </c>
+      <c r="F35" t="s">
+        <v>21</v>
+      </c>
+      <c r="G35" t="s">
+        <v>22</v>
+      </c>
+      <c r="H35" t="s">
+        <v>23</v>
+      </c>
+      <c r="I35">
+        <v>9.5117285217505287E-3</v>
+      </c>
+      <c r="J35">
+        <v>4.3070399516949909E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" s="2">
+        <v>45531</v>
+      </c>
+      <c r="B36">
+        <v>2.4528569999999998</v>
+      </c>
+      <c r="C36">
+        <v>6147037937</v>
+      </c>
+      <c r="D36">
+        <v>15077803809.02</v>
+      </c>
+      <c r="E36">
+        <v>17555</v>
+      </c>
+      <c r="F36" t="s">
+        <v>21</v>
+      </c>
+      <c r="G36" t="s">
+        <v>22</v>
+      </c>
+      <c r="H36" t="s">
+        <v>23</v>
+      </c>
+      <c r="I36">
+        <v>9.5262358362784294E-3</v>
+      </c>
+      <c r="J36">
+        <v>4.4475179174343848E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37" s="2">
+        <v>45532</v>
+      </c>
+      <c r="B37">
+        <v>2.456178</v>
+      </c>
+      <c r="C37">
+        <v>6154073787</v>
+      </c>
+      <c r="D37">
+        <v>15115499419.16</v>
+      </c>
+      <c r="E37">
+        <v>17585</v>
+      </c>
+      <c r="F37" t="s">
+        <v>21</v>
+      </c>
+      <c r="G37" t="s">
+        <v>22</v>
+      </c>
+      <c r="H37" t="s">
+        <v>23</v>
+      </c>
+      <c r="I37">
+        <v>9.5443528184016024E-3</v>
+      </c>
+      <c r="J37">
+        <v>4.1750115152548561E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38" s="2">
+        <v>45533</v>
+      </c>
+      <c r="B38">
+        <v>2.4594909999999999</v>
+      </c>
+      <c r="C38">
+        <v>6132255374</v>
+      </c>
+      <c r="D38">
+        <v>15082228374.870001</v>
+      </c>
+      <c r="E38">
+        <v>17818</v>
+      </c>
+      <c r="F38" t="s">
+        <v>21</v>
+      </c>
+      <c r="G38" t="s">
+        <v>22</v>
+      </c>
+      <c r="H38" t="s">
+        <v>23</v>
+      </c>
+      <c r="I38">
+        <v>9.5404901307256651E-3</v>
+      </c>
+      <c r="J38">
+        <v>4.175506827661013E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39" s="2">
+        <v>45537</v>
+      </c>
+      <c r="B39">
+        <v>2.4733879999999999</v>
+      </c>
+      <c r="C39">
+        <v>6052134444</v>
+      </c>
+      <c r="D39">
+        <v>14969278884.540001</v>
+      </c>
+      <c r="E39">
+        <v>17897</v>
+      </c>
+      <c r="F39" t="s">
+        <v>21</v>
+      </c>
+      <c r="G39" t="s">
+        <v>22</v>
+      </c>
+      <c r="H39" t="s">
+        <v>23</v>
+      </c>
+      <c r="I39">
+        <v>9.7282856743949875E-3</v>
+      </c>
+      <c r="J39">
+        <v>4.3538208264808587E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40" s="2">
+        <v>45538</v>
+      </c>
+      <c r="B40">
+        <v>2.476925</v>
+      </c>
+      <c r="C40">
+        <v>6224318555</v>
+      </c>
+      <c r="D40">
+        <v>15417172599.4</v>
+      </c>
+      <c r="E40">
+        <v>18157</v>
+      </c>
+      <c r="F40" t="s">
+        <v>21</v>
+      </c>
+      <c r="G40" t="s">
+        <v>22</v>
+      </c>
+      <c r="H40" t="s">
+        <v>23</v>
+      </c>
+      <c r="I40">
+        <v>9.8122312063035899E-3</v>
+      </c>
+      <c r="J40">
+        <v>4.5030491174983922E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41" s="2">
+        <v>45539</v>
+      </c>
+      <c r="B41">
+        <v>2.480464</v>
+      </c>
+      <c r="C41">
+        <v>6475817548</v>
+      </c>
+      <c r="D41">
+        <v>16063034950.690001</v>
+      </c>
+      <c r="E41">
+        <v>18382</v>
+      </c>
+      <c r="F41" t="s">
+        <v>21</v>
+      </c>
+      <c r="G41" t="s">
+        <v>22</v>
+      </c>
+      <c r="H41" t="s">
+        <v>23</v>
+      </c>
+      <c r="I41">
+        <v>9.8877198639513164E-3</v>
+      </c>
+      <c r="J41">
+        <v>4.2215705857711283E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42" s="2">
+        <v>45540</v>
+      </c>
+      <c r="B42">
+        <v>2.4840100000000001</v>
+      </c>
+      <c r="C42">
+        <v>6537540224</v>
+      </c>
+      <c r="D42">
+        <v>16239317467.99</v>
+      </c>
+      <c r="E42">
+        <v>18632</v>
+      </c>
+      <c r="F42" t="s">
+        <v>21</v>
+      </c>
+      <c r="G42" t="s">
+        <v>22</v>
+      </c>
+      <c r="H42" t="s">
+        <v>23</v>
+      </c>
+      <c r="I42">
+        <v>9.9691358903122307E-3</v>
+      </c>
+      <c r="J42">
+        <v>4.22543484782687E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43" s="2">
+        <v>45541</v>
+      </c>
+      <c r="B43">
+        <v>2.4875600000000002</v>
+      </c>
+      <c r="C43">
+        <v>6739627872</v>
+      </c>
+      <c r="D43">
+        <v>16765231671.73</v>
+      </c>
+      <c r="E43">
+        <v>18904</v>
+      </c>
+      <c r="F43" t="s">
+        <v>21</v>
+      </c>
+      <c r="G43" t="s">
+        <v>22</v>
+      </c>
+      <c r="H43" t="s">
+        <v>23</v>
+      </c>
+      <c r="I43">
+        <v>1.1412523973456381E-2</v>
+      </c>
+      <c r="J43">
+        <v>4.2261806498864241E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A44" s="2">
+        <v>45544</v>
+      </c>
+      <c r="B44">
+        <v>2.4982220000000002</v>
+      </c>
+      <c r="C44">
+        <v>6890069414</v>
+      </c>
+      <c r="D44">
+        <v>17212921782.5</v>
+      </c>
+      <c r="E44">
+        <v>19159</v>
+      </c>
+      <c r="F44" t="s">
+        <v>21</v>
+      </c>
+      <c r="G44" t="s">
+        <v>22</v>
+      </c>
+      <c r="H44" t="s">
+        <v>23</v>
+      </c>
+      <c r="I44">
+        <v>1.0040478889685071E-2</v>
+      </c>
+      <c r="J44">
+        <v>4.3750483078163649E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A45" s="2">
+        <v>45545</v>
+      </c>
+      <c r="B45">
+        <v>2.5017680000000002</v>
+      </c>
+      <c r="C45">
+        <v>6938074443</v>
+      </c>
+      <c r="D45">
+        <v>17357454288.98</v>
+      </c>
+      <c r="E45">
+        <v>19366</v>
+      </c>
+      <c r="F45" t="s">
+        <v>21</v>
+      </c>
+      <c r="G45" t="s">
+        <v>22</v>
+      </c>
+      <c r="H45" t="s">
+        <v>23</v>
+      </c>
+      <c r="I45">
+        <v>1.0029774821603389E-2</v>
+      </c>
+      <c r="J45">
+        <v>4.5231992412800397E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A46" s="2">
+        <v>45546</v>
+      </c>
+      <c r="B46">
+        <v>2.5053000000000001</v>
+      </c>
+      <c r="C46">
+        <v>6879749563</v>
+      </c>
+      <c r="D46">
+        <v>17235839939.59</v>
+      </c>
+      <c r="E46">
+        <v>19509</v>
+      </c>
+      <c r="F46" t="s">
+        <v>21</v>
+      </c>
+      <c r="G46" t="s">
+        <v>22</v>
+      </c>
+      <c r="H46" t="s">
+        <v>23</v>
+      </c>
+      <c r="I46">
+        <v>1.0012642795864E-2</v>
+      </c>
+      <c r="J46">
+        <v>4.2300691663633039E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A47" s="2">
+        <v>45547</v>
+      </c>
+      <c r="B47">
+        <v>2.5088020000000002</v>
+      </c>
+      <c r="C47">
+        <v>6877623809</v>
+      </c>
+      <c r="D47">
+        <v>17254597614.450001</v>
+      </c>
+      <c r="E47">
+        <v>19628</v>
+      </c>
+      <c r="F47" t="s">
+        <v>21</v>
+      </c>
+      <c r="G47" t="s">
+        <v>22</v>
+      </c>
+      <c r="H47" t="s">
+        <v>23</v>
+      </c>
+      <c r="I47">
+        <v>9.9806361488077311E-3</v>
+      </c>
+      <c r="J47">
+        <v>4.2316226891388357E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A48" s="2">
+        <v>45548</v>
+      </c>
+      <c r="B48">
+        <v>2.5122429999999998</v>
+      </c>
+      <c r="C48">
+        <v>6931776488</v>
+      </c>
+      <c r="D48">
+        <v>17414303572.900002</v>
+      </c>
+      <c r="E48">
+        <v>19869</v>
+      </c>
+      <c r="F48" t="s">
+        <v>21</v>
+      </c>
+      <c r="G48" t="s">
+        <v>22</v>
+      </c>
+      <c r="H48" t="s">
+        <v>23</v>
+      </c>
+      <c r="I48">
+        <v>9.922574731865641E-3</v>
+      </c>
+      <c r="J48">
+        <v>4.2339710131457993E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A49" s="2">
+        <v>45551</v>
+      </c>
+      <c r="B49">
+        <v>2.5222229999999999</v>
+      </c>
+      <c r="C49">
+        <v>6918823907</v>
+      </c>
+      <c r="D49">
+        <v>17450813715.84</v>
+      </c>
+      <c r="E49">
+        <v>20215</v>
+      </c>
+      <c r="F49" t="s">
+        <v>21</v>
+      </c>
+      <c r="G49" t="s">
+        <v>22</v>
+      </c>
+      <c r="H49" t="s">
+        <v>23</v>
+      </c>
+      <c r="I49">
+        <v>9.6072326638705352E-3</v>
+      </c>
+      <c r="J49">
+        <v>4.3661928121140108E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A50" s="2">
+        <v>45552</v>
+      </c>
+      <c r="B50">
+        <v>2.5254819999999998</v>
+      </c>
+      <c r="C50">
+        <v>6911132810</v>
+      </c>
+      <c r="D50">
+        <v>17453944683.57</v>
+      </c>
+      <c r="E50">
+        <v>20447</v>
+      </c>
+      <c r="F50" t="s">
+        <v>21</v>
+      </c>
+      <c r="G50" t="s">
+        <v>22</v>
+      </c>
+      <c r="H50" t="s">
+        <v>23</v>
+      </c>
+      <c r="I50">
+        <v>9.4788965243777223E-3</v>
+      </c>
+      <c r="J50">
+        <v>4.5010458454796787E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A51" s="2">
+        <v>45553</v>
+      </c>
+      <c r="B51">
+        <v>2.5287090000000001</v>
+      </c>
+      <c r="C51">
+        <v>6844757060</v>
+      </c>
+      <c r="D51">
+        <v>17308397945.389999</v>
+      </c>
+      <c r="E51">
+        <v>20474</v>
+      </c>
+      <c r="F51" t="s">
+        <v>21</v>
+      </c>
+      <c r="G51" t="s">
+        <v>22</v>
+      </c>
+      <c r="H51" t="s">
+        <v>23</v>
+      </c>
+      <c r="I51">
+        <v>9.3437911627349823E-3</v>
+      </c>
+      <c r="J51">
+        <v>4.2131434943980528E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A52" s="2">
+        <v>45554</v>
+      </c>
+      <c r="B52">
+        <v>2.5319259999999999</v>
+      </c>
+      <c r="C52">
+        <v>6776041515</v>
+      </c>
+      <c r="D52">
+        <v>17156437161.280001</v>
+      </c>
+      <c r="E52">
+        <v>20477</v>
+      </c>
+      <c r="F52" t="s">
+        <v>21</v>
+      </c>
+      <c r="G52" t="s">
+        <v>22</v>
+      </c>
+      <c r="H52" t="s">
+        <v>23</v>
+      </c>
+      <c r="I52">
+        <v>9.2171482643905733E-3</v>
+      </c>
+      <c r="J52">
+        <v>4.2068789251067162E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A53" s="2">
+        <v>45555</v>
+      </c>
+      <c r="B53">
+        <v>2.5351710000000001</v>
+      </c>
+      <c r="C53">
+        <v>6709023995</v>
+      </c>
+      <c r="D53">
+        <v>17008523316.98</v>
+      </c>
+      <c r="E53">
+        <v>20458</v>
+      </c>
+      <c r="F53" t="s">
+        <v>21</v>
+      </c>
+      <c r="G53" t="s">
+        <v>22</v>
+      </c>
+      <c r="H53" t="s">
+        <v>23</v>
+      </c>
+      <c r="I53">
+        <v>9.1265056764016084E-3</v>
+      </c>
+      <c r="J53">
+        <v>4.2012250935795407E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A54" s="2">
+        <v>45558</v>
+      </c>
+      <c r="B54">
+        <v>2.5452240000000002</v>
+      </c>
+      <c r="C54">
+        <v>6492410797</v>
+      </c>
+      <c r="D54">
+        <v>16524637534.27</v>
+      </c>
+      <c r="E54">
+        <v>20434</v>
+      </c>
+      <c r="F54" t="s">
+        <v>21</v>
+      </c>
+      <c r="G54" t="s">
+        <v>22</v>
+      </c>
+      <c r="H54" t="s">
+        <v>23</v>
+      </c>
+      <c r="I54">
+        <v>9.1193363949184647E-3</v>
+      </c>
+      <c r="J54">
+        <v>4.3308024238687848E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A55" s="2">
+        <v>45559</v>
+      </c>
+      <c r="B55">
+        <v>2.5487169999999999</v>
+      </c>
+      <c r="C55">
+        <v>6438652473</v>
+      </c>
+      <c r="D55">
+        <v>16410303898.299999</v>
+      </c>
+      <c r="E55">
+        <v>20541</v>
+      </c>
+      <c r="F55" t="s">
+        <v>21</v>
+      </c>
+      <c r="G55" t="s">
+        <v>22</v>
+      </c>
+      <c r="H55" t="s">
+        <v>23</v>
+      </c>
+      <c r="I55">
+        <v>9.2002239572486211E-3</v>
+      </c>
+      <c r="J55">
+        <v>4.4739833355946557E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A56" s="2">
+        <v>45560</v>
+      </c>
+      <c r="B56">
+        <v>2.5521470000000002</v>
+      </c>
+      <c r="C56">
+        <v>6472902925</v>
+      </c>
+      <c r="D56">
+        <v>16519801372.74</v>
+      </c>
+      <c r="E56">
+        <v>20551</v>
+      </c>
+      <c r="F56" t="s">
+        <v>21</v>
+      </c>
+      <c r="G56" t="s">
+        <v>22</v>
+      </c>
+      <c r="H56" t="s">
+        <v>23</v>
+      </c>
+      <c r="I56">
+        <v>9.2687612532720287E-3</v>
+      </c>
+      <c r="J56">
+        <v>4.1880616829648387E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A57" s="2">
+        <v>45561</v>
+      </c>
+      <c r="B57">
+        <v>2.5554359999999998</v>
+      </c>
+      <c r="C57">
+        <v>6602785748</v>
+      </c>
+      <c r="D57">
+        <v>16872999701.530001</v>
+      </c>
+      <c r="E57">
+        <v>20545</v>
+      </c>
+      <c r="F57" t="s">
+        <v>21</v>
+      </c>
+      <c r="G57" t="s">
+        <v>22</v>
+      </c>
+      <c r="H57" t="s">
+        <v>23</v>
+      </c>
+      <c r="I57">
+        <v>9.2854214538655722E-3</v>
+      </c>
+      <c r="J57">
+        <v>4.1820212103681483E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A58" s="2">
+        <v>45562</v>
+      </c>
+      <c r="B58">
+        <v>2.558719</v>
+      </c>
+      <c r="C58">
+        <v>6631210571</v>
+      </c>
+      <c r="D58">
+        <v>16967407027.860001</v>
+      </c>
+      <c r="E58">
+        <v>20580</v>
+      </c>
+      <c r="F58" t="s">
+        <v>21</v>
+      </c>
+      <c r="G58" t="s">
+        <v>22</v>
+      </c>
+      <c r="H58" t="s">
+        <v>23</v>
+      </c>
+      <c r="I58">
+        <v>9.2885253105214893E-3</v>
+      </c>
+      <c r="J58">
+        <v>4.174819577408484E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A59" s="2">
+        <v>45565</v>
+      </c>
+      <c r="B59">
+        <v>2.5688420000000001</v>
+      </c>
+      <c r="C59">
+        <v>6602865497</v>
+      </c>
+      <c r="D59">
+        <v>16961717722.290001</v>
+      </c>
+      <c r="E59">
+        <v>20528</v>
+      </c>
+      <c r="F59" t="s">
+        <v>21</v>
+      </c>
+      <c r="G59" t="s">
+        <v>22</v>
+      </c>
+      <c r="H59" t="s">
+        <v>23</v>
+      </c>
+      <c r="I59">
+        <v>9.2793404431201765E-3</v>
+      </c>
+      <c r="J59">
+        <v>4.4460825430953088E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A60" s="2">
+        <v>45566</v>
+      </c>
+      <c r="B60">
+        <v>2.5723530000000001</v>
+      </c>
+      <c r="C60">
+        <v>6771681713</v>
+      </c>
+      <c r="D60">
+        <v>17419153108.799999</v>
+      </c>
+      <c r="E60">
+        <v>20830</v>
+      </c>
+      <c r="F60" t="s">
+        <v>21</v>
+      </c>
+      <c r="G60" t="s">
+        <v>22</v>
+      </c>
+      <c r="H60" t="s">
+        <v>23</v>
+      </c>
+      <c r="I60">
+        <v>9.2736855445310074E-3</v>
+      </c>
+      <c r="J60">
+        <v>4.5888356574592233E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A61" s="2">
+        <v>45567</v>
+      </c>
+      <c r="B61">
+        <v>2.5758049999999999</v>
+      </c>
+      <c r="C61">
+        <v>6825365509</v>
+      </c>
+      <c r="D61">
+        <v>17580812711.439999</v>
+      </c>
+      <c r="E61">
+        <v>20909</v>
+      </c>
+      <c r="F61" t="s">
+        <v>21</v>
+      </c>
+      <c r="G61" t="s">
+        <v>22</v>
+      </c>
+      <c r="H61" t="s">
+        <v>23</v>
+      </c>
+      <c r="I61">
+        <v>9.2698422152015514E-3</v>
+      </c>
+      <c r="J61">
+        <v>4.1407575358172632E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A62" s="2">
+        <v>45568</v>
+      </c>
+      <c r="B62">
+        <v>2.5792619999999999</v>
+      </c>
+      <c r="C62">
+        <v>6976315416</v>
+      </c>
+      <c r="D62">
+        <v>17993748728.060001</v>
+      </c>
+      <c r="E62">
+        <v>20935</v>
+      </c>
+      <c r="F62" t="s">
+        <v>21</v>
+      </c>
+      <c r="G62" t="s">
+        <v>22</v>
+      </c>
+      <c r="H62" t="s">
+        <v>23</v>
+      </c>
+      <c r="I62">
+        <v>9.3236535761411776E-3</v>
+      </c>
+      <c r="J62">
+        <v>4.131614804646877E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A63" s="2">
+        <v>45569</v>
+      </c>
+      <c r="B63">
+        <v>2.5827309999999999</v>
+      </c>
+      <c r="C63">
+        <v>6929797144</v>
+      </c>
+      <c r="D63">
+        <v>17897800593.650002</v>
+      </c>
+      <c r="E63">
+        <v>21038</v>
+      </c>
+      <c r="F63" t="s">
+        <v>21</v>
+      </c>
+      <c r="G63" t="s">
+        <v>22</v>
+      </c>
+      <c r="H63" t="s">
+        <v>23</v>
+      </c>
+      <c r="I63">
+        <v>9.3843833574533964E-3</v>
+      </c>
+      <c r="J63">
+        <v>4.122897973927464E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A64" s="2">
+        <v>45572</v>
+      </c>
+      <c r="B64">
+        <v>2.5932059999999999</v>
+      </c>
+      <c r="C64">
+        <v>6946637206</v>
+      </c>
+      <c r="D64">
+        <v>18014060301.349998</v>
+      </c>
+      <c r="E64">
+        <v>21142</v>
+      </c>
+      <c r="F64" t="s">
+        <v>21</v>
+      </c>
+      <c r="G64" t="s">
+        <v>22</v>
+      </c>
+      <c r="H64" t="s">
+        <v>23</v>
+      </c>
+      <c r="I64">
+        <v>9.484429170809161E-3</v>
+      </c>
+      <c r="J64">
+        <v>4.2469729373361798E-2</v>
+      </c>
+      <c r="K64">
+        <v>0.12995744150549091</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A65" s="2">
+        <v>45573</v>
+      </c>
+      <c r="B65">
+        <v>2.5966809999999998</v>
+      </c>
+      <c r="C65">
+        <v>6920793071</v>
+      </c>
+      <c r="D65">
+        <v>17971088839.02</v>
+      </c>
+      <c r="E65">
+        <v>21317</v>
+      </c>
+      <c r="F65" t="s">
+        <v>21</v>
+      </c>
+      <c r="G65" t="s">
+        <v>22</v>
+      </c>
+      <c r="H65" t="s">
+        <v>23</v>
+      </c>
+      <c r="I65">
+        <v>9.4574889216214597E-3</v>
+      </c>
+      <c r="J65">
+        <v>4.3866680602678843E-2</v>
+      </c>
+      <c r="K65">
+        <v>0.1298794313619438</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A66" s="2">
+        <v>45574</v>
+      </c>
+      <c r="B66">
+        <v>2.6001850000000002</v>
+      </c>
+      <c r="C66">
+        <v>6934628987</v>
+      </c>
+      <c r="D66">
+        <v>18031317879.57</v>
+      </c>
+      <c r="E66">
+        <v>21413</v>
+      </c>
+      <c r="F66" t="s">
+        <v>21</v>
+      </c>
+      <c r="G66" t="s">
+        <v>22</v>
+      </c>
+      <c r="H66" t="s">
+        <v>23</v>
+      </c>
+      <c r="I66">
+        <v>9.4650022031947945E-3</v>
+      </c>
+      <c r="J66">
+        <v>4.0814227078298071E-2</v>
+      </c>
+      <c r="K66">
+        <v>0.12981964147290179</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A67" s="2">
+        <v>45575</v>
+      </c>
+      <c r="B67">
+        <v>2.603685</v>
+      </c>
+      <c r="C67">
+        <v>6963491660</v>
+      </c>
+      <c r="D67">
+        <v>18130735917.650002</v>
+      </c>
+      <c r="E67">
+        <v>21501</v>
+      </c>
+      <c r="F67" t="s">
+        <v>21</v>
+      </c>
+      <c r="G67" t="s">
+        <v>22</v>
+      </c>
+      <c r="H67" t="s">
+        <v>23</v>
+      </c>
+      <c r="I67">
+        <v>9.4689876406506279E-3</v>
+      </c>
+      <c r="J67">
+        <v>4.0737990093405951E-2</v>
+      </c>
+      <c r="K67">
+        <v>0.12981367968944579</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A68" s="2">
+        <v>45576</v>
+      </c>
+      <c r="B68">
+        <v>2.6071930000000001</v>
+      </c>
+      <c r="C68">
+        <v>6930092505</v>
+      </c>
+      <c r="D68">
+        <v>18068088327.759998</v>
+      </c>
+      <c r="E68">
+        <v>21662</v>
+      </c>
+      <c r="F68" t="s">
+        <v>21</v>
+      </c>
+      <c r="G68" t="s">
+        <v>22</v>
+      </c>
+      <c r="H68" t="s">
+        <v>23</v>
+      </c>
+      <c r="I68">
+        <v>9.4713696470907216E-3</v>
+      </c>
+      <c r="J68">
+        <v>4.0670977527641483E-2</v>
+      </c>
+      <c r="K68">
+        <v>0.13133590161273959</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A69" s="2">
+        <v>45579</v>
+      </c>
+      <c r="B69">
+        <v>2.6174849999999998</v>
+      </c>
+      <c r="C69">
+        <v>7082783445</v>
+      </c>
+      <c r="D69">
+        <v>18539079702.080002</v>
+      </c>
+      <c r="E69">
+        <v>21601</v>
+      </c>
+      <c r="F69" t="s">
+        <v>21</v>
+      </c>
+      <c r="G69" t="s">
+        <v>22</v>
+      </c>
+      <c r="H69" t="s">
+        <v>23</v>
+      </c>
+      <c r="I69">
+        <v>9.3625419654281838E-3</v>
+      </c>
+      <c r="J69">
+        <v>4.1891648220335309E-2</v>
+      </c>
+      <c r="K69">
+        <v>0.1296700308799823</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A70" s="2">
+        <v>45580</v>
+      </c>
+      <c r="B70">
+        <v>2.6209150000000001</v>
+      </c>
+      <c r="C70">
+        <v>7116347047</v>
+      </c>
+      <c r="D70">
+        <v>18651340103.619999</v>
+      </c>
+      <c r="E70">
+        <v>21814</v>
+      </c>
+      <c r="F70" t="s">
+        <v>21</v>
+      </c>
+      <c r="G70" t="s">
+        <v>22</v>
+      </c>
+      <c r="H70" t="s">
+        <v>23</v>
+      </c>
+      <c r="I70">
+        <v>9.3326827592608019E-3</v>
+      </c>
+      <c r="J70">
+        <v>4.3256962005665978E-2</v>
+      </c>
+      <c r="K70">
+        <v>0.1296531279174313</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A71" s="2">
+        <v>45581</v>
+      </c>
+      <c r="B71">
+        <v>2.6243590000000001</v>
+      </c>
+      <c r="C71">
+        <v>7085712579</v>
+      </c>
+      <c r="D71">
+        <v>18595452520.049999</v>
+      </c>
+      <c r="E71">
+        <v>21954</v>
+      </c>
+      <c r="F71" t="s">
+        <v>21</v>
+      </c>
+      <c r="G71" t="s">
+        <v>22</v>
+      </c>
+      <c r="H71" t="s">
+        <v>23</v>
+      </c>
+      <c r="I71">
+        <v>9.297030788193883E-3</v>
+      </c>
+      <c r="J71">
+        <v>4.0494436851935767E-2</v>
+      </c>
+      <c r="K71">
+        <v>0.12964813089040181</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A72" s="2">
+        <v>45582</v>
+      </c>
+      <c r="B72">
+        <v>2.6278090000000001</v>
+      </c>
+      <c r="C72">
+        <v>7014725374</v>
+      </c>
+      <c r="D72">
+        <v>18433360920.099998</v>
+      </c>
+      <c r="E72">
+        <v>22034</v>
+      </c>
+      <c r="F72" t="s">
+        <v>21</v>
+      </c>
+      <c r="G72" t="s">
+        <v>22</v>
+      </c>
+      <c r="H72" t="s">
+        <v>23</v>
+      </c>
+      <c r="I72">
+        <v>9.2653297153841851E-3</v>
+      </c>
+      <c r="J72">
+        <v>4.0517810065563882E-2</v>
+      </c>
+      <c r="K72">
+        <v>0.1296413557885214</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A73" s="2">
+        <v>45583</v>
+      </c>
+      <c r="B73">
+        <v>2.6312899999999999</v>
+      </c>
+      <c r="C73">
+        <v>6973347470</v>
+      </c>
+      <c r="D73">
+        <v>18348902755.84</v>
+      </c>
+      <c r="E73">
+        <v>22214</v>
+      </c>
+      <c r="F73" t="s">
+        <v>21</v>
+      </c>
+      <c r="G73" t="s">
+        <v>22</v>
+      </c>
+      <c r="H73" t="s">
+        <v>23</v>
+      </c>
+      <c r="I73">
+        <v>9.242507171505876E-3</v>
+      </c>
+      <c r="J73">
+        <v>4.0566549966801091E-2</v>
+      </c>
+      <c r="K73">
+        <v>0.1311377665092017</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A74" s="2">
+        <v>45586</v>
+      </c>
+      <c r="B74">
+        <v>2.641788</v>
+      </c>
+      <c r="C74">
+        <v>7014084232</v>
+      </c>
+      <c r="D74">
+        <v>18529721290.400002</v>
+      </c>
+      <c r="E74">
+        <v>22271</v>
+      </c>
+      <c r="F74" t="s">
+        <v>21</v>
+      </c>
+      <c r="G74" t="s">
+        <v>22</v>
+      </c>
+      <c r="H74" t="s">
+        <v>23</v>
+      </c>
+      <c r="I74">
+        <v>9.2848669619884916E-3</v>
+      </c>
+      <c r="J74">
+        <v>4.2055151309319923E-2</v>
+      </c>
+      <c r="K74">
+        <v>0.12952627064800321</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A75" s="2">
+        <v>45587</v>
+      </c>
+      <c r="B75">
+        <v>2.6453060000000002</v>
+      </c>
+      <c r="C75">
+        <v>7017932399</v>
+      </c>
+      <c r="D75">
+        <v>18564578358.369999</v>
+      </c>
+      <c r="E75">
+        <v>22360</v>
+      </c>
+      <c r="F75" t="s">
+        <v>21</v>
+      </c>
+      <c r="G75" t="s">
+        <v>22</v>
+      </c>
+      <c r="H75" t="s">
+        <v>23</v>
+      </c>
+      <c r="I75">
+        <v>9.3062918866120281E-3</v>
+      </c>
+      <c r="J75">
+        <v>4.3442828905821303E-2</v>
+      </c>
+      <c r="K75">
+        <v>0.12947253543016621</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A76" s="2">
+        <v>45588</v>
+      </c>
+      <c r="B76">
+        <v>2.6488309999999999</v>
+      </c>
+      <c r="C76">
+        <v>7098251040</v>
+      </c>
+      <c r="D76">
+        <v>18802069612.189999</v>
+      </c>
+      <c r="E76">
+        <v>22397</v>
+      </c>
+      <c r="F76" t="s">
+        <v>21</v>
+      </c>
+      <c r="G76" t="s">
+        <v>22</v>
+      </c>
+      <c r="H76" t="s">
+        <v>23</v>
+      </c>
+      <c r="I76">
+        <v>9.3249437291162973E-3</v>
+      </c>
+      <c r="J76">
+        <v>4.0706436840136639E-2</v>
+      </c>
+      <c r="K76">
+        <v>0.12942048803117381</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A77" s="2">
+        <v>45589</v>
+      </c>
+      <c r="B77">
+        <v>2.652355</v>
+      </c>
+      <c r="C77">
+        <v>7092739661</v>
+      </c>
+      <c r="D77">
+        <v>18812463931.779999</v>
+      </c>
+      <c r="E77">
+        <v>22444</v>
+      </c>
+      <c r="F77" t="s">
+        <v>21</v>
+      </c>
+      <c r="G77" t="s">
+        <v>22</v>
+      </c>
+      <c r="H77" t="s">
+        <v>23</v>
+      </c>
+      <c r="I77">
+        <v>9.3408615314125587E-3</v>
+      </c>
+      <c r="J77">
+        <v>4.0662811916740933E-2</v>
+      </c>
+      <c r="K77">
+        <v>0.12942538593116781</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A78" s="2">
+        <v>45590</v>
+      </c>
+      <c r="B78">
+        <v>2.6558250000000001</v>
+      </c>
+      <c r="C78">
+        <v>7062204339</v>
+      </c>
+      <c r="D78">
+        <v>18755980328.060001</v>
+      </c>
+      <c r="E78">
+        <v>22515</v>
+      </c>
+      <c r="F78" t="s">
+        <v>21</v>
+      </c>
+      <c r="G78" t="s">
+        <v>22</v>
+      </c>
+      <c r="H78" t="s">
+        <v>23</v>
+      </c>
+      <c r="I78">
+        <v>9.3243238107545423E-3</v>
+      </c>
+      <c r="J78">
+        <v>4.0623835539253861E-2</v>
+      </c>
+      <c r="K78">
+        <v>0.13090298078147319</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A79" s="2">
+        <v>45593</v>
+      </c>
+      <c r="B79">
+        <v>2.6663519999999998</v>
+      </c>
+      <c r="C79">
+        <v>6986523165</v>
+      </c>
+      <c r="D79">
+        <v>18628532688.98</v>
+      </c>
+      <c r="E79">
+        <v>22518</v>
+      </c>
+      <c r="F79" t="s">
+        <v>21</v>
+      </c>
+      <c r="G79" t="s">
+        <v>22</v>
+      </c>
+      <c r="H79" t="s">
+        <v>23</v>
+      </c>
+      <c r="I79">
+        <v>9.2982480047603122E-3</v>
+      </c>
+      <c r="J79">
+        <v>4.2065189651540491E-2</v>
+      </c>
+      <c r="K79">
+        <v>0.12937421190379461</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A80" s="2">
+        <v>45595</v>
+      </c>
+      <c r="B80">
+        <v>2.6733709999999999</v>
+      </c>
+      <c r="C80">
+        <v>6997484776</v>
+      </c>
+      <c r="D80">
+        <v>18706869754.18</v>
+      </c>
+      <c r="E80">
+        <v>22520</v>
+      </c>
+      <c r="F80" t="s">
+        <v>21</v>
+      </c>
+      <c r="G80" t="s">
+        <v>22</v>
+      </c>
+      <c r="H80" t="s">
+        <v>23</v>
+      </c>
+      <c r="I80">
+        <v>9.2644642108159481E-3</v>
+      </c>
+      <c r="J80">
+        <v>4.0691097389407238E-2</v>
+      </c>
+      <c r="K80">
+        <v>0.1294061533742927</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A81" s="2">
+        <v>45596</v>
+      </c>
+      <c r="B81">
+        <v>2.6767940000000001</v>
+      </c>
+      <c r="C81">
+        <v>7093390981</v>
+      </c>
+      <c r="D81">
+        <v>18987547399.09</v>
+      </c>
+      <c r="E81">
+        <v>22622</v>
+      </c>
+      <c r="F81" t="s">
+        <v>21</v>
+      </c>
+      <c r="G81" t="s">
+        <v>22</v>
+      </c>
+      <c r="H81" t="s">
+        <v>23</v>
+      </c>
+      <c r="I81">
+        <v>9.2140757930216921E-3</v>
+      </c>
+      <c r="J81">
+        <v>4.0601348259745151E-2</v>
+      </c>
+      <c r="K81">
+        <v>0.1293564999320731</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A82" s="2">
+        <v>45597</v>
+      </c>
+      <c r="B82">
+        <v>2.680275</v>
+      </c>
+      <c r="C82">
+        <v>7264722746</v>
+      </c>
+      <c r="D82">
+        <v>19471452783.32</v>
+      </c>
+      <c r="E82">
+        <v>22884</v>
+      </c>
+      <c r="F82" t="s">
+        <v>21</v>
+      </c>
+      <c r="G82" t="s">
+        <v>22</v>
+      </c>
+      <c r="H82" t="s">
+        <v>23</v>
+      </c>
+      <c r="I82">
+        <v>9.2061788709723036E-3</v>
+      </c>
+      <c r="J82">
+        <v>4.0558194428537808E-2</v>
+      </c>
+      <c r="K82">
+        <v>0.13082515608426989</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A83" s="2">
+        <v>45600</v>
+      </c>
+      <c r="B83">
+        <v>2.6908349999999999</v>
+      </c>
+      <c r="C83">
+        <v>7342134057</v>
+      </c>
+      <c r="D83">
+        <v>19756469685.970001</v>
+      </c>
+      <c r="E83">
+        <v>22948</v>
+      </c>
+      <c r="F83" t="s">
+        <v>21</v>
+      </c>
+      <c r="G83" t="s">
+        <v>22</v>
+      </c>
+      <c r="H83" t="s">
+        <v>23</v>
+      </c>
+      <c r="I83">
+        <v>9.1822085006030285E-3</v>
+      </c>
+      <c r="J83">
+        <v>4.1856468985736361E-2</v>
+      </c>
+      <c r="K83">
+        <v>0.12903510041727759</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A84" s="2">
+        <v>45601</v>
+      </c>
+      <c r="B84">
+        <v>2.6944180000000002</v>
+      </c>
+      <c r="C84">
+        <v>7294940192</v>
+      </c>
+      <c r="D84">
+        <v>19655620814.580002</v>
+      </c>
+      <c r="E84">
+        <v>23027</v>
+      </c>
+      <c r="F84" t="s">
+        <v>21</v>
+      </c>
+      <c r="G84" t="s">
+        <v>22</v>
+      </c>
+      <c r="H84" t="s">
+        <v>23</v>
+      </c>
+      <c r="I84">
+        <v>1.052599206706395E-2</v>
+      </c>
+      <c r="J84">
+        <v>4.3243760190279312E-2</v>
+      </c>
+      <c r="K84">
+        <v>0.12893316026269</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A85" s="2">
+        <v>45602</v>
+      </c>
+      <c r="B85">
+        <v>2.698048</v>
+      </c>
+      <c r="C85">
+        <v>7301871403</v>
+      </c>
+      <c r="D85">
+        <v>19700799220.32</v>
+      </c>
+      <c r="E85">
+        <v>23138</v>
+      </c>
+      <c r="F85" t="s">
+        <v>21</v>
+      </c>
+      <c r="G85" t="s">
+        <v>22</v>
+      </c>
+      <c r="H85" t="s">
+        <v>23</v>
+      </c>
+      <c r="I85">
+        <v>9.2306679469478237E-3</v>
+      </c>
+      <c r="J85">
+        <v>4.0429491525162398E-2</v>
+      </c>
+      <c r="K85">
+        <v>0.12884503383964471</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A86" s="2">
+        <v>45603</v>
+      </c>
+      <c r="B86">
+        <v>2.7016789999999999</v>
+      </c>
+      <c r="C86">
+        <v>7295915985</v>
+      </c>
+      <c r="D86">
+        <v>19711220629.360001</v>
+      </c>
+      <c r="E86">
+        <v>23151</v>
+      </c>
+      <c r="F86" t="s">
+        <v>21</v>
+      </c>
+      <c r="G86" t="s">
+        <v>22</v>
+      </c>
+      <c r="H86" t="s">
+        <v>23</v>
+      </c>
+      <c r="I86">
+        <v>9.2965689552502173E-3</v>
+      </c>
+      <c r="J86">
+        <v>4.0435463578314179E-2</v>
+      </c>
+      <c r="K86">
+        <v>0.12875427458893959</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A87" s="2">
+        <v>45604</v>
+      </c>
+      <c r="B87">
+        <v>2.7053029999999998</v>
+      </c>
+      <c r="C87">
+        <v>7401592168</v>
+      </c>
+      <c r="D87">
+        <v>20023548240.599998</v>
+      </c>
+      <c r="E87">
+        <v>23252</v>
+      </c>
+      <c r="F87" t="s">
+        <v>21</v>
+      </c>
+      <c r="G87" t="s">
+        <v>22</v>
+      </c>
+      <c r="H87" t="s">
+        <v>23</v>
+      </c>
+      <c r="I87">
+        <v>9.3378477954686456E-3</v>
+      </c>
+      <c r="J87">
+        <v>4.0427123454677139E-2</v>
+      </c>
+      <c r="K87">
+        <v>0.13026837211537029</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A88" s="2">
+        <v>45607</v>
+      </c>
+      <c r="B88">
+        <v>2.7161390000000001</v>
+      </c>
+      <c r="C88">
+        <v>7516822817</v>
+      </c>
+      <c r="D88">
+        <v>20416734055.080002</v>
+      </c>
+      <c r="E88">
+        <v>23166</v>
+      </c>
+      <c r="F88" t="s">
+        <v>21</v>
+      </c>
+      <c r="G88" t="s">
+        <v>22</v>
+      </c>
+      <c r="H88" t="s">
+        <v>23</v>
+      </c>
+      <c r="I88">
+        <v>9.403772434950497E-3</v>
+      </c>
+      <c r="J88">
+        <v>4.1786703170804802E-2</v>
+      </c>
+      <c r="K88">
+        <v>0.1284572294635242</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A89" s="2">
+        <v>45608</v>
+      </c>
+      <c r="B89">
+        <v>2.719757</v>
+      </c>
+      <c r="C89">
+        <v>7395031163</v>
+      </c>
+      <c r="D89">
+        <v>20112686073.259998</v>
+      </c>
+      <c r="E89">
+        <v>23167</v>
+      </c>
+      <c r="F89" t="s">
+        <v>21</v>
+      </c>
+      <c r="G89" t="s">
+        <v>22</v>
+      </c>
+      <c r="H89" t="s">
+        <v>23</v>
+      </c>
+      <c r="I89">
+        <v>9.4042572459061002E-3</v>
+      </c>
+      <c r="J89">
+        <v>4.3174402508751708E-2</v>
+      </c>
+      <c r="K89">
+        <v>0.12843810212945339</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A90" s="2">
+        <v>45609</v>
+      </c>
+      <c r="B90">
+        <v>2.7233719999999999</v>
+      </c>
+      <c r="C90">
+        <v>7551382947</v>
+      </c>
+      <c r="D90">
+        <v>20565224604.709999</v>
+      </c>
+      <c r="E90">
+        <v>23174</v>
+      </c>
+      <c r="F90" t="s">
+        <v>21</v>
+      </c>
+      <c r="G90" t="s">
+        <v>22</v>
+      </c>
+      <c r="H90" t="s">
+        <v>23</v>
+      </c>
+      <c r="I90">
+        <v>9.3860450221789904E-3</v>
+      </c>
+      <c r="J90">
+        <v>4.0453717977371413E-2</v>
+      </c>
+      <c r="K90">
+        <v>0.12842619928110441</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A91" s="2">
+        <v>45610</v>
+      </c>
+      <c r="B91">
+        <v>2.726963</v>
+      </c>
+      <c r="C91">
+        <v>7574039257</v>
+      </c>
+      <c r="D91">
+        <v>20654122772.040001</v>
+      </c>
+      <c r="E91">
+        <v>23070</v>
+      </c>
+      <c r="F91" t="s">
+        <v>21</v>
+      </c>
+      <c r="G91" t="s">
+        <v>22</v>
+      </c>
+      <c r="H91" t="s">
+        <v>23</v>
+      </c>
+      <c r="I91">
+        <v>9.35862476630267E-3</v>
+      </c>
+      <c r="J91">
+        <v>4.0462204993294337E-2</v>
+      </c>
+      <c r="K91">
+        <v>0.12838058430797311</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A92" s="2">
+        <v>45611</v>
+      </c>
+      <c r="B92">
+        <v>2.7305969999999999</v>
+      </c>
+      <c r="C92">
+        <v>7582706195</v>
+      </c>
+      <c r="D92">
+        <v>20705317769.720001</v>
+      </c>
+      <c r="E92">
+        <v>23320</v>
+      </c>
+      <c r="F92" t="s">
+        <v>21</v>
+      </c>
+      <c r="G92" t="s">
+        <v>22</v>
+      </c>
+      <c r="H92" t="s">
+        <v>23</v>
+      </c>
+      <c r="I92">
+        <v>9.3497844788550388E-3</v>
+      </c>
+      <c r="J92">
+        <v>4.0481504245417632E-2</v>
+      </c>
+      <c r="K92">
+        <v>0.12988428459410639</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A93" s="2">
+        <v>45614</v>
+      </c>
+      <c r="B93">
+        <v>2.7414489999999998</v>
+      </c>
+      <c r="C93">
+        <v>7527297927</v>
+      </c>
+      <c r="D93">
+        <v>20635701834.549999</v>
+      </c>
+      <c r="E93">
+        <v>23365</v>
+      </c>
+      <c r="F93" t="s">
+        <v>21</v>
+      </c>
+      <c r="G93" t="s">
+        <v>22</v>
+      </c>
+      <c r="H93" t="s">
+        <v>23</v>
+      </c>
+      <c r="I93">
+        <v>9.3183743541842556E-3</v>
+      </c>
+      <c r="J93">
+        <v>4.1865016778842357E-2</v>
+      </c>
+      <c r="K93">
+        <v>0.12830250182017511</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A94" s="2">
+        <v>45615</v>
+      </c>
+      <c r="B94">
+        <v>2.7450800000000002</v>
+      </c>
+      <c r="C94">
+        <v>7499036922</v>
+      </c>
+      <c r="D94">
+        <v>20585454296.049999</v>
+      </c>
+      <c r="E94">
+        <v>23469</v>
+      </c>
+      <c r="F94" t="s">
+        <v>21</v>
+      </c>
+      <c r="G94" t="s">
+        <v>22</v>
+      </c>
+      <c r="H94" t="s">
+        <v>23</v>
+      </c>
+      <c r="I94">
+        <v>9.3107582773019892E-3</v>
+      </c>
+      <c r="J94">
+        <v>4.3244948295322987E-2</v>
+      </c>
+      <c r="K94">
+        <v>0.12828956697549529</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A95" s="2">
+        <v>45616</v>
+      </c>
+      <c r="B95">
+        <v>2.7487170000000001</v>
+      </c>
+      <c r="C95">
+        <v>7508788001</v>
+      </c>
+      <c r="D95">
+        <v>20639536668.860001</v>
+      </c>
+      <c r="E95">
+        <v>23491</v>
+      </c>
+      <c r="F95" t="s">
+        <v>21</v>
+      </c>
+      <c r="G95" t="s">
+        <v>22</v>
+      </c>
+      <c r="H95" t="s">
+        <v>23</v>
+      </c>
+      <c r="I95">
+        <v>9.3064774110918069E-3</v>
+      </c>
+      <c r="J95">
+        <v>4.0475995802842668E-2</v>
+      </c>
+      <c r="K95">
+        <v>0.12825828897550659</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A96" s="2">
+        <v>45617</v>
+      </c>
+      <c r="B96">
+        <v>2.7523680000000001</v>
+      </c>
+      <c r="C96">
+        <v>7494654485</v>
+      </c>
+      <c r="D96">
+        <v>20628050415.139999</v>
+      </c>
+      <c r="E96">
+        <v>23487</v>
+      </c>
+      <c r="F96" t="s">
+        <v>21</v>
+      </c>
+      <c r="G96" t="s">
+        <v>22</v>
+      </c>
+      <c r="H96" t="s">
+        <v>23</v>
+      </c>
+      <c r="I96">
+        <v>9.3162246792495296E-3</v>
+      </c>
+      <c r="J96">
+        <v>4.0472444397736902E-2</v>
+      </c>
+      <c r="K96">
+        <v>0.12821803505616369</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A97" s="2">
+        <v>45618</v>
+      </c>
+      <c r="B97">
+        <v>2.75603</v>
+      </c>
+      <c r="C97">
+        <v>7447630831</v>
+      </c>
+      <c r="D97">
+        <v>20525892392.75</v>
+      </c>
+      <c r="E97">
+        <v>23526</v>
+      </c>
+      <c r="F97" t="s">
+        <v>21</v>
+      </c>
+      <c r="G97" t="s">
+        <v>22</v>
+      </c>
+      <c r="H97" t="s">
+        <v>23</v>
+      </c>
+      <c r="I97">
+        <v>9.3140804007330047E-3</v>
+      </c>
+      <c r="J97">
+        <v>4.0470305580084132E-2</v>
+      </c>
+      <c r="K97">
+        <v>0.12971911864831981</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A98" s="2">
+        <v>45621</v>
+      </c>
+      <c r="B98">
+        <v>2.7670539999999999</v>
+      </c>
+      <c r="C98">
+        <v>7376137356</v>
+      </c>
+      <c r="D98">
+        <v>20410167788.080002</v>
+      </c>
+      <c r="E98">
+        <v>23306</v>
+      </c>
+      <c r="F98" t="s">
+        <v>21</v>
+      </c>
+      <c r="G98" t="s">
+        <v>22</v>
+      </c>
+      <c r="H98" t="s">
+        <v>23</v>
+      </c>
+      <c r="I98">
+        <v>9.3399512447613908E-3</v>
+      </c>
+      <c r="J98">
+        <v>4.1881148042510308E-2</v>
+      </c>
+      <c r="K98">
+        <v>0.12809429983076881</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A99" s="2">
+        <v>45622</v>
+      </c>
+      <c r="B99">
+        <v>2.770734</v>
+      </c>
+      <c r="C99">
+        <v>7350166909</v>
+      </c>
+      <c r="D99">
+        <v>20365360776.150002</v>
+      </c>
+      <c r="E99">
+        <v>23316</v>
+      </c>
+      <c r="F99" t="s">
+        <v>21</v>
+      </c>
+      <c r="G99" t="s">
+        <v>22</v>
+      </c>
+      <c r="H99" t="s">
+        <v>23</v>
+      </c>
+      <c r="I99">
+        <v>9.3454471272238493E-3</v>
+      </c>
+      <c r="J99">
+        <v>4.3266781508570773E-2</v>
+      </c>
+      <c r="K99">
+        <v>0.12806726548320199</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A100" s="2">
+        <v>45623</v>
+      </c>
+      <c r="B100">
+        <v>2.774419</v>
+      </c>
+      <c r="C100">
+        <v>7322848474</v>
+      </c>
+      <c r="D100">
+        <v>20316652651.099998</v>
+      </c>
+      <c r="E100">
+        <v>23304</v>
+      </c>
+      <c r="F100" t="s">
+        <v>21</v>
+      </c>
+      <c r="G100" t="s">
+        <v>22</v>
+      </c>
+      <c r="H100" t="s">
+        <v>23</v>
+      </c>
+      <c r="I100">
+        <v>9.3505442721093512E-3</v>
+      </c>
+      <c r="J100">
+        <v>4.0529907529088582E-2</v>
+      </c>
+      <c r="K100">
+        <v>0.12804600626715049</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A101" s="2">
+        <v>45624</v>
+      </c>
+      <c r="B101">
+        <v>2.7781060000000002</v>
+      </c>
+      <c r="C101">
+        <v>7297108114</v>
+      </c>
+      <c r="D101">
+        <v>20272141280.93</v>
+      </c>
+      <c r="E101">
+        <v>23217</v>
+      </c>
+      <c r="F101" t="s">
+        <v>21</v>
+      </c>
+      <c r="G101" t="s">
+        <v>22</v>
+      </c>
+      <c r="H101" t="s">
+        <v>23</v>
+      </c>
+      <c r="I101">
+        <v>9.3512204763317452E-3</v>
+      </c>
+      <c r="J101">
+        <v>4.1912695698092417E-2</v>
+      </c>
+      <c r="K101">
+        <v>0.12954509693265809</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A102" s="2">
+        <v>45625</v>
+      </c>
+      <c r="B102">
+        <v>2.7818160000000001</v>
+      </c>
+      <c r="C102">
+        <v>7249924372</v>
+      </c>
+      <c r="D102">
+        <v>20167953930.060001</v>
+      </c>
+      <c r="E102">
+        <v>23274</v>
+      </c>
+      <c r="F102" t="s">
+        <v>21</v>
+      </c>
+      <c r="G102" t="s">
+        <v>22</v>
+      </c>
+      <c r="H102" t="s">
+        <v>23</v>
+      </c>
+      <c r="I102">
+        <v>9.3562116522680761E-3</v>
+      </c>
+      <c r="J102">
+        <v>4.0564889796440573E-2</v>
+      </c>
+      <c r="K102">
+        <v>0.13105353912659171</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A103" s="2">
+        <v>45628</v>
+      </c>
+      <c r="B103">
+        <v>2.7930109999999999</v>
+      </c>
+      <c r="C103">
+        <v>7277739849</v>
+      </c>
+      <c r="D103">
+        <v>20326810480.189999</v>
+      </c>
+      <c r="E103">
+        <v>23296</v>
+      </c>
+      <c r="F103" t="s">
+        <v>21</v>
+      </c>
+      <c r="G103" t="s">
+        <v>22</v>
+      </c>
+      <c r="H103" t="s">
+        <v>23</v>
+      </c>
+      <c r="I103">
+        <v>9.380734889886444E-3</v>
+      </c>
+      <c r="J103">
+        <v>4.2061355644476661E-2</v>
+      </c>
+      <c r="K103">
+        <v>0.12761226117060451</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A104" s="2">
+        <v>45629</v>
+      </c>
+      <c r="B104">
+        <v>2.796751</v>
+      </c>
+      <c r="C104">
+        <v>7252792537</v>
+      </c>
+      <c r="D104">
+        <v>20284253520.779999</v>
+      </c>
+      <c r="E104">
+        <v>23455</v>
+      </c>
+      <c r="F104" t="s">
+        <v>21</v>
+      </c>
+      <c r="G104" t="s">
+        <v>22</v>
+      </c>
+      <c r="H104" t="s">
+        <v>23</v>
+      </c>
+      <c r="I104">
+        <v>9.3899306104447966E-3</v>
+      </c>
+      <c r="J104">
+        <v>4.3456734849968807E-2</v>
+      </c>
+      <c r="K104">
+        <v>0.12751122370653231</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A105" s="2">
+        <v>45630</v>
+      </c>
+      <c r="B105">
+        <v>2.8004929999999999</v>
+      </c>
+      <c r="C105">
+        <v>7297347487</v>
+      </c>
+      <c r="D105">
+        <v>20436169817.049999</v>
+      </c>
+      <c r="E105">
+        <v>23454</v>
+      </c>
+      <c r="F105" t="s">
+        <v>21</v>
+      </c>
+      <c r="G105" t="s">
+        <v>22</v>
+      </c>
+      <c r="H105" t="s">
+        <v>23</v>
+      </c>
+      <c r="I105">
+        <v>9.3980036901419872E-3</v>
+      </c>
+      <c r="J105">
+        <v>4.0752405851715252E-2</v>
+      </c>
+      <c r="K105">
+        <v>0.12740810222181051</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A106" s="2">
+        <v>45631</v>
+      </c>
+      <c r="B106">
+        <v>2.8042389999999999</v>
+      </c>
+      <c r="C106">
+        <v>7277180456</v>
+      </c>
+      <c r="D106">
+        <v>20406951358.939999</v>
+      </c>
+      <c r="E106">
+        <v>23543</v>
+      </c>
+      <c r="F106" t="s">
+        <v>21</v>
+      </c>
+      <c r="G106" t="s">
+        <v>22</v>
+      </c>
+      <c r="H106" t="s">
+        <v>23</v>
+      </c>
+      <c r="I106">
+        <v>9.4067684962344522E-3</v>
+      </c>
+      <c r="J106">
+        <v>4.0758709301971667E-2</v>
+      </c>
+      <c r="K106">
+        <v>0.1273050700284615</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A107" s="2">
+        <v>45632</v>
+      </c>
+      <c r="B107">
+        <v>2.807982</v>
+      </c>
+      <c r="C107">
+        <v>7239756140</v>
+      </c>
+      <c r="D107">
+        <v>20329103165.369999</v>
+      </c>
+      <c r="E107">
+        <v>23674</v>
+      </c>
+      <c r="F107" t="s">
+        <v>21</v>
+      </c>
+      <c r="G107" t="s">
+        <v>22</v>
+      </c>
+      <c r="H107" t="s">
+        <v>23</v>
+      </c>
+      <c r="I107">
+        <v>9.4060858086946197E-3</v>
+      </c>
+      <c r="J107">
+        <v>4.0745753967312608E-2</v>
+      </c>
+      <c r="K107">
+        <v>0.1288097573525864</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A108" s="2">
+        <v>45635</v>
+      </c>
+      <c r="B108">
+        <v>2.81935</v>
+      </c>
+      <c r="C108">
+        <v>7291706030</v>
+      </c>
+      <c r="D108">
+        <v>20557873276.009998</v>
+      </c>
+      <c r="E108">
+        <v>23557</v>
+      </c>
+      <c r="F108" t="s">
+        <v>21</v>
+      </c>
+      <c r="G108" t="s">
+        <v>22</v>
+      </c>
+      <c r="H108" t="s">
+        <v>23</v>
+      </c>
+      <c r="I108">
+        <v>9.4303244777769191E-3</v>
+      </c>
+      <c r="J108">
+        <v>4.2156830491815622E-2</v>
+      </c>
+      <c r="K108">
+        <v>0.12694302589208889</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A109" s="2">
+        <v>45636</v>
+      </c>
+      <c r="B109">
+        <v>2.8231760000000001</v>
+      </c>
+      <c r="C109">
+        <v>7246838999</v>
+      </c>
+      <c r="D109">
+        <v>20459104932.73</v>
+      </c>
+      <c r="E109">
+        <v>23573</v>
+      </c>
+      <c r="F109" t="s">
+        <v>21</v>
+      </c>
+      <c r="G109" t="s">
+        <v>22</v>
+      </c>
+      <c r="H109" t="s">
+        <v>23</v>
+      </c>
+      <c r="I109">
+        <v>9.4484635922182925E-3</v>
+      </c>
+      <c r="J109">
+        <v>4.3571089818774673E-2</v>
+      </c>
+      <c r="K109">
+        <v>0.12688141140781539</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A110" s="2">
+        <v>45637</v>
+      </c>
+      <c r="B110">
+        <v>2.826972</v>
+      </c>
+      <c r="C110">
+        <v>7273458757</v>
+      </c>
+      <c r="D110">
+        <v>20561864661.25</v>
+      </c>
+      <c r="E110">
+        <v>23509</v>
+      </c>
+      <c r="F110" t="s">
+        <v>21</v>
+      </c>
+      <c r="G110" t="s">
+        <v>22</v>
+      </c>
+      <c r="H110" t="s">
+        <v>23</v>
+      </c>
+      <c r="I110">
+        <v>9.4551209376350087E-3</v>
+      </c>
+      <c r="J110">
+        <v>4.0805349063505192E-2</v>
+      </c>
+      <c r="K110">
+        <v>0.12682148690889111</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A111" s="2">
+        <v>45638</v>
+      </c>
+      <c r="B111">
+        <v>2.8308260000000001</v>
+      </c>
+      <c r="C111">
+        <v>7135222586</v>
+      </c>
+      <c r="D111">
+        <v>20198574625.400002</v>
+      </c>
+      <c r="E111">
+        <v>23560</v>
+      </c>
+      <c r="F111" t="s">
+        <v>21</v>
+      </c>
+      <c r="G111" t="s">
+        <v>22</v>
+      </c>
+      <c r="H111" t="s">
+        <v>23</v>
+      </c>
+      <c r="I111">
+        <v>9.4810035806507376E-3</v>
+      </c>
+      <c r="J111">
+        <v>4.0837839556989941E-2</v>
+      </c>
+      <c r="K111">
+        <v>0.12681217541455991</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A112" s="2">
+        <v>45639</v>
+      </c>
+      <c r="B112">
+        <v>2.8346640000000001</v>
+      </c>
+      <c r="C112">
+        <v>7270413549</v>
+      </c>
+      <c r="D112">
+        <v>20609180134.009998</v>
+      </c>
+      <c r="E112">
+        <v>23727</v>
+      </c>
+      <c r="F112" t="s">
+        <v>21</v>
+      </c>
+      <c r="G112" t="s">
+        <v>22</v>
+      </c>
+      <c r="H112" t="s">
+        <v>23</v>
+      </c>
+      <c r="I112">
+        <v>9.5021976636602279E-3</v>
+      </c>
+      <c r="J112">
+        <v>4.0865515250946283E-2</v>
+      </c>
+      <c r="K112">
+        <v>0.1283398938717315</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A113" s="2">
+        <v>45642</v>
+      </c>
+      <c r="B113">
+        <v>2.8460350000000001</v>
+      </c>
+      <c r="C113">
+        <v>7286575600</v>
+      </c>
+      <c r="D113">
+        <v>20737846397.200001</v>
+      </c>
+      <c r="E113">
+        <v>24085</v>
+      </c>
+      <c r="F113" t="s">
+        <v>21</v>
+      </c>
+      <c r="G113" t="s">
+        <v>22</v>
+      </c>
+      <c r="H113" t="s">
+        <v>23</v>
+      </c>
+      <c r="I113">
+        <v>9.4649475943036077E-3</v>
+      </c>
+      <c r="J113">
+        <v>4.2275736771116401E-2</v>
+      </c>
+      <c r="K113">
+        <v>0.126927453848414</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A114" s="2">
+        <v>45643</v>
+      </c>
+      <c r="B114">
+        <v>2.8498600000000001</v>
+      </c>
+      <c r="C114">
+        <v>7282007057</v>
+      </c>
+      <c r="D114">
+        <v>20752700019.849998</v>
+      </c>
+      <c r="E114">
+        <v>24221</v>
+      </c>
+      <c r="F114" t="s">
+        <v>21</v>
+      </c>
+      <c r="G114" t="s">
+        <v>22</v>
+      </c>
+      <c r="H114" t="s">
+        <v>23</v>
+      </c>
+      <c r="I114">
+        <v>9.4517663794251305E-3</v>
+      </c>
+      <c r="J114">
+        <v>4.3676529345048072E-2</v>
+      </c>
+      <c r="K114">
+        <v>0.12700196028882729</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A115" s="2">
+        <v>45644</v>
+      </c>
+      <c r="B115">
+        <v>2.85365</v>
+      </c>
+      <c r="C115">
+        <v>7290569781</v>
+      </c>
+      <c r="D115">
+        <v>20804737332.490002</v>
+      </c>
+      <c r="E115">
+        <v>24314</v>
+      </c>
+      <c r="F115" t="s">
+        <v>21</v>
+      </c>
+      <c r="G115" t="s">
+        <v>22</v>
+      </c>
+      <c r="H115" t="s">
+        <v>23</v>
+      </c>
+      <c r="I115">
+        <v>9.4369523292059387E-3</v>
+      </c>
+      <c r="J115">
+        <v>4.0927626229778642E-2</v>
+      </c>
+      <c r="K115">
+        <v>0.12706690479895541</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A116" s="2">
+        <v>45645</v>
+      </c>
+      <c r="B116">
+        <v>2.857456</v>
+      </c>
+      <c r="C116">
+        <v>7272261063</v>
+      </c>
+      <c r="D116">
+        <v>20780163921.709999</v>
+      </c>
+      <c r="E116">
+        <v>24359</v>
+      </c>
+      <c r="F116" t="s">
+        <v>21</v>
+      </c>
+      <c r="G116" t="s">
+        <v>22</v>
+      </c>
+      <c r="H116" t="s">
+        <v>23</v>
+      </c>
+      <c r="I116">
+        <v>9.4071483022977187E-3</v>
+      </c>
+      <c r="J116">
+        <v>4.09372404447228E-2</v>
+      </c>
+      <c r="K116">
+        <v>0.1271255469552153</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A117" s="2">
+        <v>45646</v>
+      </c>
+      <c r="B117">
+        <v>2.8612989999999998</v>
+      </c>
+      <c r="C117">
+        <v>7297238596</v>
+      </c>
+      <c r="D117">
+        <v>20879580968.27</v>
+      </c>
+      <c r="E117">
+        <v>24454</v>
+      </c>
+      <c r="F117" t="s">
+        <v>21</v>
+      </c>
+      <c r="G117" t="s">
+        <v>22</v>
+      </c>
+      <c r="H117" t="s">
+        <v>23</v>
+      </c>
+      <c r="I117">
+        <v>9.3961753491771383E-3</v>
+      </c>
+      <c r="J117">
+        <v>4.0958017867972478E-2</v>
+      </c>
+      <c r="K117">
+        <v>0.1286414210323483</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A118" s="2">
+        <v>45649</v>
+      </c>
+      <c r="B118">
+        <v>2.8727659999999999</v>
+      </c>
+      <c r="C118">
+        <v>7344307611</v>
+      </c>
+      <c r="D118">
+        <v>21098480376.709999</v>
+      </c>
+      <c r="E118">
+        <v>24610</v>
+      </c>
+      <c r="F118" t="s">
+        <v>21</v>
+      </c>
+      <c r="G118" t="s">
+        <v>22</v>
+      </c>
+      <c r="H118" t="s">
+        <v>23</v>
+      </c>
+      <c r="I118">
+        <v>9.3923651676806053E-3</v>
+      </c>
+      <c r="J118">
+        <v>4.2356578121428352E-2</v>
+      </c>
+      <c r="K118">
+        <v>0.127142009097126</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A119" s="2">
+        <v>45650</v>
+      </c>
+      <c r="B119">
+        <v>2.8766120000000002</v>
+      </c>
+      <c r="C119">
+        <v>7354521175</v>
+      </c>
+      <c r="D119">
+        <v>21156104088.98</v>
+      </c>
+      <c r="E119">
+        <v>24689</v>
+      </c>
+      <c r="F119" t="s">
+        <v>21</v>
+      </c>
+      <c r="G119" t="s">
+        <v>22</v>
+      </c>
+      <c r="H119" t="s">
+        <v>23</v>
+      </c>
+      <c r="I119">
+        <v>9.3871277887336291E-3</v>
+      </c>
+      <c r="J119">
+        <v>4.3752063656781637E-2</v>
+      </c>
+      <c r="K119">
+        <v>0.12713413451497901</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A120" s="2">
+        <v>45651</v>
+      </c>
+      <c r="B120">
+        <v>2.8804669999999999</v>
+      </c>
+      <c r="C120">
+        <v>7344172219</v>
+      </c>
+      <c r="D120">
+        <v>21154642135.790001</v>
+      </c>
+      <c r="E120">
+        <v>24716</v>
+      </c>
+      <c r="F120" t="s">
+        <v>21</v>
+      </c>
+      <c r="G120" t="s">
+        <v>22</v>
+      </c>
+      <c r="H120" t="s">
+        <v>23</v>
+      </c>
+      <c r="I120">
+        <v>9.3974383684052309E-3</v>
+      </c>
+      <c r="J120">
+        <v>4.0986912434668683E-2</v>
+      </c>
+      <c r="K120">
+        <v>0.12719199385153851</v>
+      </c>
+    </row>
+    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A121" s="2">
+        <v>45652</v>
+      </c>
+      <c r="B121">
+        <v>2.8843200000000002</v>
+      </c>
+      <c r="C121">
+        <v>7277377692</v>
+      </c>
+      <c r="D121">
+        <v>20990286201.389999</v>
+      </c>
+      <c r="E121">
+        <v>24805</v>
+      </c>
+      <c r="F121" t="s">
+        <v>21</v>
+      </c>
+      <c r="G121" t="s">
+        <v>22</v>
+      </c>
+      <c r="H121" t="s">
+        <v>23</v>
+      </c>
+      <c r="I121">
+        <v>9.4013696098909083E-3</v>
+      </c>
+      <c r="J121">
+        <v>4.0994913261251487E-2</v>
+      </c>
+      <c r="K121">
+        <v>0.12725156611570099</v>
+      </c>
+    </row>
+    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A122" s="2">
+        <v>45653</v>
+      </c>
+      <c r="B122">
+        <v>2.888204</v>
+      </c>
+      <c r="C122">
+        <v>7209270085</v>
+      </c>
+      <c r="D122">
+        <v>20821841339.349998</v>
+      </c>
+      <c r="E122">
+        <v>24818</v>
+      </c>
+      <c r="F122" t="s">
+        <v>21</v>
+      </c>
+      <c r="G122" t="s">
+        <v>22</v>
+      </c>
+      <c r="H122" t="s">
+        <v>23</v>
+      </c>
+      <c r="I122">
+        <v>9.4030718215747378E-3</v>
+      </c>
+      <c r="J122">
+        <v>4.1012190300023121E-2</v>
+      </c>
+      <c r="K122">
+        <v>0.12876951318218219</v>
+      </c>
+    </row>
+    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A123" s="2">
+        <v>45656</v>
+      </c>
+      <c r="B123">
+        <v>2.8993669999999998</v>
+      </c>
+      <c r="C123">
+        <v>7228349307</v>
+      </c>
+      <c r="D123">
+        <v>20957639821.959999</v>
+      </c>
+      <c r="E123">
+        <v>24801</v>
+      </c>
+      <c r="F123" t="s">
+        <v>21</v>
+      </c>
+      <c r="G123" t="s">
+        <v>22</v>
+      </c>
+      <c r="H123" t="s">
+        <v>23</v>
+      </c>
+      <c r="I123">
+        <v>9.2597169417905079E-3</v>
+      </c>
+      <c r="J123">
+        <v>4.2256928567525609E-2</v>
+      </c>
+      <c r="K123">
+        <v>0.12712640916701551</v>
+      </c>
+    </row>
+    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A124" s="2">
+        <v>45657</v>
+      </c>
+      <c r="B124">
+        <v>2.9031549999999999</v>
+      </c>
+      <c r="C124">
+        <v>7139494129</v>
+      </c>
+      <c r="D124">
+        <v>20727057750.279999</v>
+      </c>
+      <c r="E124">
+        <v>25005</v>
+      </c>
+      <c r="F124" t="s">
+        <v>21</v>
+      </c>
+      <c r="G124" t="s">
+        <v>22</v>
+      </c>
+      <c r="H124" t="s">
+        <v>23</v>
+      </c>
+      <c r="I124">
+        <v>9.2271741896368109E-3</v>
+      </c>
+      <c r="J124">
+        <v>4.361862898193114E-2</v>
+      </c>
+      <c r="K124">
+        <v>0.1270864836429777</v>
+      </c>
+    </row>
+    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A125" s="2">
+        <v>45659</v>
+      </c>
+      <c r="B125">
+        <v>2.9108550000000002</v>
+      </c>
+      <c r="C125">
+        <v>7120238135</v>
+      </c>
+      <c r="D125">
+        <v>20725981847.990002</v>
+      </c>
+      <c r="E125">
+        <v>25339</v>
+      </c>
+      <c r="F125" t="s">
+        <v>21</v>
+      </c>
+      <c r="G125" t="s">
+        <v>22</v>
+      </c>
+      <c r="H125" t="s">
+        <v>23</v>
+      </c>
+      <c r="I125">
+        <v>9.1997420535863128E-3</v>
+      </c>
+      <c r="J125">
+        <v>4.0798769715287619E-2</v>
+      </c>
+      <c r="K125">
+        <v>0.12704536399648281</v>
+      </c>
+    </row>
+    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A126" s="2">
+        <v>45660</v>
+      </c>
+      <c r="B126">
+        <v>2.9146100000000001</v>
+      </c>
+      <c r="C126">
+        <v>7357790256</v>
+      </c>
+      <c r="D126">
+        <v>21445086808.540001</v>
+      </c>
+      <c r="E126">
+        <v>25624</v>
+      </c>
+      <c r="F126" t="s">
+        <v>21</v>
+      </c>
+      <c r="G126" t="s">
+        <v>22</v>
+      </c>
+      <c r="H126" t="s">
+        <v>23</v>
+      </c>
+      <c r="I126">
+        <v>9.1427059861421967E-3</v>
+      </c>
+      <c r="J126">
+        <v>4.074889671211479E-2</v>
+      </c>
+      <c r="K126">
+        <v>0.12849925137383661</v>
+      </c>
+    </row>
+    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A127" s="2">
+        <v>45663</v>
+      </c>
+      <c r="B127">
+        <v>2.92591</v>
+      </c>
+      <c r="C127">
+        <v>7390002630</v>
+      </c>
+      <c r="D127">
+        <v>21622479644.98</v>
+      </c>
+      <c r="E127">
+        <v>25700</v>
+      </c>
+      <c r="F127" t="s">
+        <v>21</v>
+      </c>
+      <c r="G127" t="s">
+        <v>22</v>
+      </c>
+      <c r="H127" t="s">
+        <v>23</v>
+      </c>
+      <c r="I127">
+        <v>9.1547568831404913E-3</v>
+      </c>
+      <c r="J127">
+        <v>4.1997420211383092E-2</v>
+      </c>
+      <c r="K127">
+        <v>0.12678838871621129</v>
+      </c>
+      <c r="L127">
+        <v>0.27313502390791378</v>
+      </c>
+    </row>
+    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A128" s="2">
+        <v>45664</v>
+      </c>
+      <c r="B128">
+        <v>2.929837</v>
+      </c>
+      <c r="C128">
+        <v>7372081675</v>
+      </c>
+      <c r="D128">
+        <v>21598998126.110001</v>
+      </c>
+      <c r="E128">
+        <v>25797</v>
+      </c>
+      <c r="F128" t="s">
+        <v>21</v>
+      </c>
+      <c r="G128" t="s">
+        <v>22</v>
+      </c>
+      <c r="H128" t="s">
+        <v>23</v>
+      </c>
+      <c r="I128">
+        <v>9.1906908174037572E-3</v>
+      </c>
+      <c r="J128">
+        <v>4.3395933449715818E-2</v>
+      </c>
+      <c r="K128">
+        <v>0.12678020986968219</v>
+      </c>
+      <c r="L128">
+        <v>0.27305841273372572</v>
+      </c>
+    </row>
+    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A129" s="2">
+        <v>45665</v>
+      </c>
+      <c r="B129">
+        <v>2.9336709999999999</v>
+      </c>
+      <c r="C129">
+        <v>7334045713</v>
+      </c>
+      <c r="D129">
+        <v>21515676337.84</v>
+      </c>
+      <c r="E129">
+        <v>25782</v>
+      </c>
+      <c r="F129" t="s">
+        <v>21</v>
+      </c>
+      <c r="G129" t="s">
+        <v>22</v>
+      </c>
+      <c r="H129" t="s">
+        <v>23</v>
+      </c>
+      <c r="I129">
+        <v>1.051132302615598E-2</v>
+      </c>
+      <c r="J129">
+        <v>4.0548708035539997E-2</v>
+      </c>
+      <c r="K129">
+        <v>0.12673806547258981</v>
+      </c>
+      <c r="L129">
+        <v>0.27300407979775437</v>
+      </c>
+    </row>
+    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A130" s="2">
+        <v>45666</v>
+      </c>
+      <c r="B130">
+        <v>2.9374319999999998</v>
+      </c>
+      <c r="C130">
+        <v>7323669034</v>
+      </c>
+      <c r="D130">
+        <v>21512780935.259998</v>
+      </c>
+      <c r="E130">
+        <v>25829</v>
+      </c>
+      <c r="F130" t="s">
+        <v>21</v>
+      </c>
+      <c r="G130" t="s">
+        <v>22</v>
+      </c>
+      <c r="H130" t="s">
+        <v>23</v>
+      </c>
+      <c r="I130">
+        <v>9.1303070747252857E-3</v>
+      </c>
+      <c r="J130">
+        <v>4.0470732253320207E-2</v>
+      </c>
+      <c r="K130">
+        <v>0.1266645775744257</v>
+      </c>
+      <c r="L130">
+        <v>0.27463608568529918</v>
+      </c>
+    </row>
+    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A131" s="2">
+        <v>45667</v>
+      </c>
+      <c r="B131">
+        <v>2.9411969999999998</v>
+      </c>
+      <c r="C131">
+        <v>7052849013</v>
+      </c>
+      <c r="D131">
+        <v>20743817757.209999</v>
+      </c>
+      <c r="E131">
+        <v>25928</v>
+      </c>
+      <c r="F131" t="s">
+        <v>21</v>
+      </c>
+      <c r="G131" t="s">
+        <v>22</v>
+      </c>
+      <c r="H131" t="s">
+        <v>23</v>
+      </c>
+      <c r="I131">
+        <v>9.1219751527646942E-3</v>
+      </c>
+      <c r="J131">
+        <v>4.0405423187778178E-2</v>
+      </c>
+      <c r="K131">
+        <v>0.12810865938961921</v>
+      </c>
+      <c r="L131">
+        <v>0.27626982728769378</v>
+      </c>
+    </row>
+    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A132" s="2">
+        <v>45670</v>
+      </c>
+      <c r="B132">
+        <v>2.9523929999999998</v>
+      </c>
+      <c r="C132">
+        <v>7087552391</v>
+      </c>
+      <c r="D132">
+        <v>20925238419.98</v>
+      </c>
+      <c r="E132">
+        <v>25854</v>
+      </c>
+      <c r="F132" t="s">
+        <v>21</v>
+      </c>
+      <c r="G132" t="s">
+        <v>22</v>
+      </c>
+      <c r="H132" t="s">
+        <v>23</v>
+      </c>
+      <c r="I132">
+        <v>9.0512011647658763E-3</v>
+      </c>
+      <c r="J132">
+        <v>4.1531906427004987E-2</v>
+      </c>
+      <c r="K132">
+        <v>0.12647415120291949</v>
+      </c>
+      <c r="L132">
+        <v>0.27252504842451158</v>
+      </c>
+    </row>
+    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A133" s="2">
+        <v>45671</v>
+      </c>
+      <c r="B133">
+        <v>2.9561120000000001</v>
+      </c>
+      <c r="C133">
+        <v>6990476575</v>
+      </c>
+      <c r="D133">
+        <v>20664634993.860001</v>
+      </c>
+      <c r="E133">
+        <v>25930</v>
+      </c>
+      <c r="F133" t="s">
+        <v>21</v>
+      </c>
+      <c r="G133" t="s">
+        <v>22</v>
+      </c>
+      <c r="H133" t="s">
+        <v>23</v>
+      </c>
+      <c r="I133">
+        <v>8.9680756984091836E-3</v>
+      </c>
+      <c r="J133">
+        <v>4.2843878498474597E-2</v>
+      </c>
+      <c r="K133">
+        <v>0.1264129640799905</v>
+      </c>
+      <c r="L133">
+        <v>0.2724502994836786</v>
+      </c>
+    </row>
+    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A134" s="2">
+        <v>45672</v>
+      </c>
+      <c r="B134">
+        <v>2.9598390000000001</v>
+      </c>
+      <c r="C134">
+        <v>7038378330</v>
+      </c>
+      <c r="D134">
+        <v>20832467067.959999</v>
+      </c>
+      <c r="E134">
+        <v>26222</v>
+      </c>
+      <c r="F134" t="s">
+        <v>21</v>
+      </c>
+      <c r="G134" t="s">
+        <v>22</v>
+      </c>
+      <c r="H134" t="s">
+        <v>23</v>
+      </c>
+      <c r="I134">
+        <v>8.9198822908227449E-3</v>
+      </c>
+      <c r="J134">
+        <v>3.9986858910730172E-2</v>
+      </c>
+      <c r="K134">
+        <v>0.1263524099354254</v>
+      </c>
+      <c r="L134">
+        <v>0.2723742634551225</v>
+      </c>
+    </row>
+    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A135" s="2">
+        <v>45673</v>
+      </c>
+      <c r="B135">
+        <v>2.9636830000000001</v>
+      </c>
+      <c r="C135">
+        <v>7091740061</v>
+      </c>
+      <c r="D135">
+        <v>21017672023.860001</v>
+      </c>
+      <c r="E135">
+        <v>26450</v>
+      </c>
+      <c r="F135" t="s">
+        <v>21</v>
+      </c>
+      <c r="G135" t="s">
+        <v>22</v>
+      </c>
+      <c r="H135" t="s">
+        <v>23</v>
+      </c>
+      <c r="I135">
+        <v>8.9367175138013177E-3</v>
+      </c>
+      <c r="J135">
+        <v>3.9939856694714893E-2</v>
+      </c>
+      <c r="K135">
+        <v>0.1263232102884897</v>
+      </c>
+      <c r="L135">
+        <v>0.27402672045319609</v>
+      </c>
+    </row>
+    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A136" s="2">
+        <v>45674</v>
+      </c>
+      <c r="B136">
+        <v>2.9676269999999998</v>
+      </c>
+      <c r="C136">
+        <v>7239387324</v>
+      </c>
+      <c r="D136">
+        <v>21483800761.880001</v>
+      </c>
+      <c r="E136">
+        <v>26639</v>
+      </c>
+      <c r="F136" t="s">
+        <v>21</v>
+      </c>
+      <c r="G136" t="s">
+        <v>22</v>
+      </c>
+      <c r="H136" t="s">
+        <v>23</v>
+      </c>
+      <c r="I136">
+        <v>8.9861372767618963E-3</v>
+      </c>
+      <c r="J136">
+        <v>3.994077760061665E-2</v>
+      </c>
+      <c r="K136">
+        <v>0.12782209486601631</v>
+      </c>
+      <c r="L136">
+        <v>0.27572216540647448</v>
+      </c>
+    </row>
+    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A137" s="2">
+        <v>45677</v>
+      </c>
+      <c r="B137">
+        <v>2.9790830000000001</v>
+      </c>
+      <c r="C137">
+        <v>7303540526</v>
+      </c>
+      <c r="D137">
+        <v>21757850310.919998</v>
+      </c>
+      <c r="E137">
+        <v>26555</v>
+      </c>
+      <c r="F137" t="s">
+        <v>21</v>
+      </c>
+      <c r="G137" t="s">
+        <v>22</v>
+      </c>
+      <c r="H137" t="s">
+        <v>23</v>
+      </c>
+      <c r="I137">
+        <v>9.0401244007827231E-3</v>
+      </c>
+      <c r="J137">
+        <v>4.1164520030937179E-2</v>
+      </c>
+      <c r="K137">
+        <v>0.12617708499508179</v>
+      </c>
+      <c r="L137">
+        <v>0.27198608753274889</v>
+      </c>
+    </row>
+    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A138" s="2">
+        <v>45678</v>
+      </c>
+      <c r="B138">
+        <v>2.9833159999999999</v>
+      </c>
+      <c r="C138">
+        <v>7260445774</v>
+      </c>
+      <c r="D138">
+        <v>21660205119.41</v>
+      </c>
+      <c r="E138">
+        <v>26595</v>
+      </c>
+      <c r="F138" t="s">
+        <v>21</v>
+      </c>
+      <c r="G138" t="s">
+        <v>22</v>
+      </c>
+      <c r="H138" t="s">
+        <v>23</v>
+      </c>
+      <c r="I138">
+        <v>9.202628317194872E-3</v>
+      </c>
+      <c r="J138">
+        <v>4.26439180246454E-2</v>
+      </c>
+      <c r="K138">
+        <v>0.12627645931356121</v>
+      </c>
+      <c r="L138">
+        <v>0.27203970833594487</v>
+      </c>
+    </row>
+    <row r="139" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A139" s="2">
+        <v>45679</v>
+      </c>
+      <c r="B139">
+        <v>2.9871639999999999</v>
+      </c>
+      <c r="C139">
+        <v>7243396157</v>
+      </c>
+      <c r="D139">
+        <v>21637214771.889999</v>
+      </c>
+      <c r="E139">
+        <v>26531</v>
+      </c>
+      <c r="F139" t="s">
+        <v>21</v>
+      </c>
+      <c r="G139" t="s">
+        <v>22</v>
+      </c>
+      <c r="H139" t="s">
+        <v>23</v>
+      </c>
+      <c r="I139">
+        <v>9.2319210605711355E-3</v>
+      </c>
+      <c r="J139">
+        <v>3.9821551772751367E-2</v>
+      </c>
+      <c r="K139">
+        <v>0.1262308401401773</v>
+      </c>
+      <c r="L139">
+        <v>0.27199370127290318</v>
+      </c>
+    </row>
+    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A140" s="2">
+        <v>45680</v>
+      </c>
+      <c r="B140">
+        <v>2.9909919999999999</v>
+      </c>
+      <c r="C140">
+        <v>7192291989</v>
+      </c>
+      <c r="D140">
+        <v>21512085844.849998</v>
+      </c>
+      <c r="E140">
+        <v>26443</v>
+      </c>
+      <c r="F140" t="s">
+        <v>21</v>
+      </c>
+      <c r="G140" t="s">
+        <v>22</v>
+      </c>
+      <c r="H140" t="s">
+        <v>23</v>
+      </c>
+      <c r="I140">
+        <v>9.2145482495933351E-3</v>
+      </c>
+      <c r="J140">
+        <v>3.9762053415615117E-2</v>
+      </c>
+      <c r="K140">
+        <v>0.12620070976062039</v>
+      </c>
+      <c r="L140">
+        <v>0.27362373962649622</v>
+      </c>
+    </row>
+    <row r="141" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A141" s="2">
+        <v>45681</v>
+      </c>
+      <c r="B141">
+        <v>2.9950399999999999</v>
+      </c>
+      <c r="C141">
+        <v>7167530856</v>
+      </c>
+      <c r="D141">
+        <v>21467041115.290001</v>
+      </c>
+      <c r="E141">
+        <v>26500</v>
+      </c>
+      <c r="F141" t="s">
+        <v>21</v>
+      </c>
+      <c r="G141" t="s">
+        <v>22</v>
+      </c>
+      <c r="H141" t="s">
+        <v>23</v>
+      </c>
+      <c r="I141">
+        <v>9.237346876814323E-3</v>
+      </c>
+      <c r="J141">
+        <v>3.9775841903413538E-2</v>
+      </c>
+      <c r="K141">
+        <v>0.12772490657328711</v>
+      </c>
+      <c r="L141">
+        <v>0.27534745834523838</v>
+      </c>
+    </row>
+    <row r="142" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A142" s="2">
+        <v>45684</v>
+      </c>
+      <c r="B142">
+        <v>3.0065369999999998</v>
+      </c>
+      <c r="C142">
+        <v>7247181262</v>
+      </c>
+      <c r="D142">
+        <v>21788916964.240002</v>
+      </c>
+      <c r="E142">
+        <v>26295</v>
+      </c>
+      <c r="F142" t="s">
+        <v>21</v>
+      </c>
+      <c r="G142" t="s">
+        <v>22</v>
+      </c>
+      <c r="H142" t="s">
+        <v>23</v>
+      </c>
+      <c r="I142">
+        <v>9.2155874811139515E-3</v>
+      </c>
+      <c r="J142">
+        <v>4.0971136387872857E-2</v>
+      </c>
+      <c r="K142">
+        <v>0.12758442996273561</v>
+      </c>
+      <c r="L142">
+        <v>0.27180560332082471</v>
+      </c>
+    </row>
+    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A143" s="2">
+        <v>45685</v>
+      </c>
+      <c r="B143">
+        <v>3.0105819999999999</v>
+      </c>
+      <c r="C143">
+        <v>7130398670</v>
+      </c>
+      <c r="D143">
+        <v>21466648488.25</v>
+      </c>
+      <c r="E143">
+        <v>26158</v>
+      </c>
+      <c r="F143" t="s">
+        <v>21</v>
+      </c>
+      <c r="G143" t="s">
+        <v>22</v>
+      </c>
+      <c r="H143" t="s">
+        <v>23</v>
+      </c>
+      <c r="I143">
+        <v>9.1394944417553248E-3</v>
+      </c>
+      <c r="J143">
+        <v>4.2371660727566367E-2</v>
+      </c>
+      <c r="K143">
+        <v>0.1261370008128315</v>
+      </c>
+      <c r="L143">
+        <v>0.27186605826048282</v>
+      </c>
+    </row>
+    <row r="144" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A144" s="2">
+        <v>45686</v>
+      </c>
+      <c r="B144">
+        <v>3.0144839999999999</v>
+      </c>
+      <c r="C144">
+        <v>7074625019</v>
+      </c>
+      <c r="D144">
+        <v>21326346471.34</v>
+      </c>
+      <c r="E144">
+        <v>26067</v>
+      </c>
+      <c r="F144" t="s">
+        <v>21</v>
+      </c>
+      <c r="G144" t="s">
+        <v>22</v>
+      </c>
+      <c r="H144" t="s">
+        <v>23</v>
+      </c>
+      <c r="I144">
+        <v>9.1457984898051237E-3</v>
+      </c>
+      <c r="J144">
+        <v>3.9704183706305678E-2</v>
+      </c>
+      <c r="K144">
+        <v>0.12615464619242259</v>
+      </c>
+      <c r="L144">
+        <v>0.27183006960611639</v>
+      </c>
+    </row>
+    <row r="145" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A145" s="2">
+        <v>45687</v>
+      </c>
+      <c r="B145">
+        <v>3.0194200000000002</v>
+      </c>
+      <c r="C145">
+        <v>7014750310</v>
+      </c>
+      <c r="D145">
+        <v>21180477285.759998</v>
+      </c>
+      <c r="E145">
+        <v>26067</v>
+      </c>
+      <c r="F145" t="s">
+        <v>21</v>
+      </c>
+      <c r="G145" t="s">
+        <v>22</v>
+      </c>
+      <c r="H145" t="s">
+        <v>23</v>
+      </c>
+      <c r="I145">
+        <v>9.5045389623242826E-3</v>
+      </c>
+      <c r="J145">
+        <v>4.0047810054923083E-2</v>
+      </c>
+      <c r="K145">
+        <v>0.12653365792689189</v>
+      </c>
+      <c r="L145">
+        <v>0.27391259955936098</v>
+      </c>
+    </row>
+    <row r="146" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A146" s="2">
+        <v>45688</v>
+      </c>
+      <c r="B146">
+        <v>3.0240670000000001</v>
+      </c>
+      <c r="C146">
+        <v>7057120948</v>
+      </c>
+      <c r="D146">
+        <v>21341205736.259998</v>
+      </c>
+      <c r="E146">
+        <v>25972</v>
+      </c>
+      <c r="F146" t="s">
+        <v>21</v>
+      </c>
+      <c r="G146" t="s">
+        <v>22</v>
+      </c>
+      <c r="H146" t="s">
+        <v>23</v>
+      </c>
+      <c r="I146">
+        <v>9.6916902612318445E-3</v>
+      </c>
+      <c r="J146">
+        <v>4.164848242687702E-2</v>
+      </c>
+      <c r="K146">
+        <v>0.12826743524451789</v>
+      </c>
+      <c r="L146">
+        <v>0.27587319856518078</v>
+      </c>
+    </row>
+    <row r="147" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A147" s="2">
+        <v>45691</v>
+      </c>
+      <c r="B147">
+        <v>3.034735</v>
+      </c>
+      <c r="C147">
+        <v>7113553658</v>
+      </c>
+      <c r="D147">
+        <v>21587749095.700001</v>
+      </c>
+      <c r="E147">
+        <v>26091</v>
+      </c>
+      <c r="F147" t="s">
+        <v>21</v>
+      </c>
+      <c r="G147" t="s">
+        <v>22</v>
+      </c>
+      <c r="H147" t="s">
+        <v>23</v>
+      </c>
+      <c r="I147">
+        <v>9.3788967173862314E-3</v>
+      </c>
+      <c r="J147">
+        <v>4.1214776591036228E-2</v>
+      </c>
+      <c r="K147">
+        <v>0.1263044561014659</v>
+      </c>
+      <c r="L147">
+        <v>0.27152244904457801</v>
+      </c>
+    </row>
+    <row r="148" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A148" s="2">
+        <v>45692</v>
+      </c>
+      <c r="B148">
+        <v>3.0379749999999999</v>
+      </c>
+      <c r="C148">
+        <v>7135732447</v>
+      </c>
+      <c r="D148">
+        <v>21678177630.060001</v>
+      </c>
+      <c r="E148">
+        <v>26246</v>
+      </c>
+      <c r="F148" t="s">
+        <v>21</v>
+      </c>
+      <c r="G148" t="s">
+        <v>22</v>
+      </c>
+      <c r="H148" t="s">
+        <v>23</v>
+      </c>
+      <c r="I148">
+        <v>9.0989051286429756E-3</v>
+      </c>
+      <c r="J148">
+        <v>4.2326417599610089E-2</v>
+      </c>
+      <c r="K148">
+        <v>0.1259899749744999</v>
+      </c>
+      <c r="L148">
+        <v>0.27106819140319027</v>
+      </c>
+    </row>
+    <row r="149" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A149" s="2">
+        <v>45693</v>
+      </c>
+      <c r="B149">
+        <v>3.041048</v>
+      </c>
+      <c r="C149">
+        <v>7111687277</v>
+      </c>
+      <c r="D149">
+        <v>21626983331.580002</v>
+      </c>
+      <c r="E149">
+        <v>26329</v>
+      </c>
+      <c r="F149" t="s">
+        <v>21</v>
+      </c>
+      <c r="G149" t="s">
+        <v>22</v>
+      </c>
+      <c r="H149" t="s">
+        <v>23</v>
+      </c>
+      <c r="I149">
+        <v>8.8121217428920318E-3</v>
+      </c>
+      <c r="J149">
+        <v>3.9351176215262962E-2</v>
+      </c>
+      <c r="K149">
+        <v>0.1256141088560114</v>
+      </c>
+      <c r="L149">
+        <v>0.27054173690884281</v>
+      </c>
+    </row>
+    <row r="150" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A150" s="2">
+        <v>45694</v>
+      </c>
+      <c r="B150">
+        <v>3.0441020000000001</v>
+      </c>
+      <c r="C150">
+        <v>7122261038</v>
+      </c>
+      <c r="D150">
+        <v>21680889495.720001</v>
+      </c>
+      <c r="E150">
+        <v>26278</v>
+      </c>
+      <c r="F150" t="s">
+        <v>21</v>
+      </c>
+      <c r="G150" t="s">
+        <v>22</v>
+      </c>
+      <c r="H150" t="s">
+        <v>23</v>
+      </c>
+      <c r="I150">
+        <v>8.1744176033806681E-3</v>
+      </c>
+      <c r="J150">
+        <v>3.9000463165698378E-2</v>
+      </c>
+      <c r="K150">
+        <v>0.125235140019436</v>
+      </c>
+      <c r="L150">
+        <v>0.2718176899567788</v>
+      </c>
+    </row>
+    <row r="151" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A151" s="2">
+        <v>45695</v>
+      </c>
+      <c r="B151">
+        <v>3.0467379999999999</v>
+      </c>
+      <c r="C151">
+        <v>7133949517</v>
+      </c>
+      <c r="D151">
+        <v>21735276086.82</v>
+      </c>
+      <c r="E151">
+        <v>26289</v>
+      </c>
+      <c r="F151" t="s">
+        <v>21</v>
+      </c>
+      <c r="G151" t="s">
+        <v>22</v>
+      </c>
+      <c r="H151" t="s">
+        <v>23</v>
+      </c>
+      <c r="I151">
+        <v>7.4968577085097188E-3</v>
+      </c>
+      <c r="J151">
+        <v>3.8541131572013443E-2</v>
+      </c>
+      <c r="K151">
+        <v>0.1262095225562534</v>
+      </c>
+      <c r="L151">
+        <v>0.27291900372048522</v>
+      </c>
+    </row>
+    <row r="152" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A152" s="2">
+        <v>45698</v>
+      </c>
+      <c r="B152">
+        <v>3.0578120000000002</v>
+      </c>
+      <c r="C152">
+        <v>7058528659</v>
+      </c>
+      <c r="D152">
+        <v>21583652065.470001</v>
+      </c>
+      <c r="E152">
+        <v>26283</v>
+      </c>
+      <c r="F152" t="s">
+        <v>21</v>
+      </c>
+      <c r="G152" t="s">
+        <v>22</v>
+      </c>
+      <c r="H152" t="s">
+        <v>23</v>
+      </c>
+      <c r="I152">
+        <v>7.6042883480766932E-3</v>
+      </c>
+      <c r="J152">
+        <v>3.9648823251213772E-2</v>
+      </c>
+      <c r="K152">
+        <v>0.1242960308586394</v>
+      </c>
+      <c r="L152">
+        <v>0.26869847929380031</v>
+      </c>
+    </row>
+    <row r="153" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A153" s="2">
+        <v>45699</v>
+      </c>
+      <c r="B153">
+        <v>3.0612189999999999</v>
+      </c>
+      <c r="C153">
+        <v>7070654077</v>
+      </c>
+      <c r="D153">
+        <v>21644823264.689999</v>
+      </c>
+      <c r="E153">
+        <v>26256</v>
+      </c>
+      <c r="F153" t="s">
+        <v>21</v>
+      </c>
+      <c r="G153" t="s">
+        <v>22</v>
+      </c>
+      <c r="H153" t="s">
+        <v>23</v>
+      </c>
+      <c r="I153">
+        <v>7.6511492030053594E-3</v>
+      </c>
+      <c r="J153">
+        <v>4.0807195165777799E-2</v>
+      </c>
+      <c r="K153">
+        <v>0.1240546645849336</v>
+      </c>
+      <c r="L153">
+        <v>0.26841273294177359</v>
+      </c>
+    </row>
+    <row r="154" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A154" s="2">
+        <v>45700</v>
+      </c>
+      <c r="B154">
+        <v>3.0638969999999999</v>
+      </c>
+      <c r="C154">
+        <v>7087644347</v>
+      </c>
+      <c r="D154">
+        <v>21715812374.209999</v>
+      </c>
+      <c r="E154">
+        <v>26305</v>
+      </c>
+      <c r="F154" t="s">
+        <v>21</v>
+      </c>
+      <c r="G154" t="s">
+        <v>22</v>
+      </c>
+      <c r="H154" t="s">
+        <v>23</v>
+      </c>
+      <c r="I154">
+        <v>7.5135282310572196E-3</v>
+      </c>
+      <c r="J154">
+        <v>3.7767329755896251E-2</v>
+      </c>
+      <c r="K154">
+        <v>0.1235564985663538</v>
+      </c>
+      <c r="L154">
+        <v>0.26779933835532249</v>
+      </c>
+    </row>
+    <row r="155" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A155" s="2">
+        <v>45701</v>
+      </c>
+      <c r="B155">
+        <v>3.0674730000000001</v>
+      </c>
+      <c r="C155">
+        <v>7060962951</v>
+      </c>
+      <c r="D155">
+        <v>21659311267.27</v>
+      </c>
+      <c r="E155">
+        <v>26282</v>
+      </c>
+      <c r="F155" t="s">
+        <v>21</v>
+      </c>
+      <c r="G155" t="s">
+        <v>22</v>
+      </c>
+      <c r="H155" t="s">
+        <v>23</v>
+      </c>
+      <c r="I155">
+        <v>7.6774694146253264E-3</v>
+      </c>
+      <c r="J155">
+        <v>3.7671441406820882E-2</v>
+      </c>
+      <c r="K155">
+        <v>0.1233708233034754</v>
+      </c>
+      <c r="L155">
+        <v>0.26927903902213979</v>
+      </c>
+    </row>
+    <row r="156" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A156" s="2">
+        <v>45702</v>
+      </c>
+      <c r="B156">
+        <v>3.071278</v>
+      </c>
+      <c r="C156">
+        <v>7063415460</v>
+      </c>
+      <c r="D156">
+        <v>21693712210.73</v>
+      </c>
+      <c r="E156">
+        <v>26324</v>
+      </c>
+      <c r="F156" t="s">
+        <v>21</v>
+      </c>
+      <c r="G156" t="s">
+        <v>22</v>
+      </c>
+      <c r="H156" t="s">
+        <v>23</v>
+      </c>
+      <c r="I156">
+        <v>8.0545160102378777E-3</v>
+      </c>
+      <c r="J156">
+        <v>3.7650358685050067E-2</v>
+      </c>
+      <c r="K156">
+        <v>0.1247642914717917</v>
+      </c>
+      <c r="L156">
+        <v>0.27085349680660231</v>
+      </c>
+    </row>
+    <row r="157" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A157" s="2">
+        <v>45705</v>
+      </c>
+      <c r="B157">
+        <v>3.0825740000000001</v>
+      </c>
+      <c r="C157">
+        <v>7219147224</v>
+      </c>
+      <c r="D157">
+        <v>22253554157.549999</v>
+      </c>
+      <c r="E157">
+        <v>26343</v>
+      </c>
+      <c r="F157" t="s">
+        <v>21</v>
+      </c>
+      <c r="G157" t="s">
+        <v>22</v>
+      </c>
+      <c r="H157" t="s">
+        <v>23</v>
+      </c>
+      <c r="I157">
+        <v>8.0979471596029917E-3</v>
+      </c>
+      <c r="J157">
+        <v>3.8733641390916063E-2</v>
+      </c>
+      <c r="K157">
+        <v>0.1229450507817622</v>
+      </c>
+      <c r="L157">
+        <v>0.26700718508382998</v>
+      </c>
+    </row>
+    <row r="158" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A158" s="2">
+        <v>45706</v>
+      </c>
+      <c r="B158">
+        <v>3.085947</v>
+      </c>
+      <c r="C158">
+        <v>7071281037</v>
+      </c>
+      <c r="D158">
+        <v>21821596574.860001</v>
+      </c>
+      <c r="E158">
+        <v>26428</v>
+      </c>
+      <c r="F158" t="s">
+        <v>21</v>
+      </c>
+      <c r="G158" t="s">
+        <v>22</v>
+      </c>
+      <c r="H158" t="s">
+        <v>23</v>
+      </c>
+      <c r="I158">
+        <v>8.0778278195712261E-3</v>
+      </c>
+      <c r="J158">
+        <v>3.9870239757220149E-2</v>
+      </c>
+      <c r="K158">
+        <v>0.1226863296585279</v>
+      </c>
+      <c r="L158">
+        <v>0.26668015735672229</v>
+      </c>
+    </row>
+    <row r="159" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A159" s="2">
+        <v>45707</v>
+      </c>
+      <c r="B159">
+        <v>3.0896979999999998</v>
+      </c>
+      <c r="C159">
+        <v>6912447111</v>
+      </c>
+      <c r="D159">
+        <v>21357371110.18</v>
+      </c>
+      <c r="E159">
+        <v>26510</v>
+      </c>
+      <c r="F159" t="s">
+        <v>21</v>
+      </c>
+      <c r="G159" t="s">
+        <v>22</v>
+      </c>
+      <c r="H159" t="s">
+        <v>23</v>
+      </c>
+      <c r="I159">
+        <v>8.420974987083385E-3</v>
+      </c>
+      <c r="J159">
+        <v>3.713055326085235E-2</v>
+      </c>
+      <c r="K159">
+        <v>0.12255991931311511</v>
+      </c>
+      <c r="L159">
+        <v>0.26649234640024821</v>
+      </c>
+    </row>
+    <row r="160" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A160" s="2">
+        <v>45708</v>
+      </c>
+      <c r="B160">
+        <v>3.0935160000000002</v>
+      </c>
+      <c r="C160">
+        <v>6883343135</v>
+      </c>
+      <c r="D160">
+        <v>21293732477.740002</v>
+      </c>
+      <c r="E160">
+        <v>26554</v>
+      </c>
+      <c r="F160" t="s">
+        <v>21</v>
+      </c>
+      <c r="G160" t="s">
+        <v>22</v>
+      </c>
+      <c r="H160" t="s">
+        <v>23</v>
+      </c>
+      <c r="I160">
+        <v>8.4900502791711574E-3</v>
+      </c>
+      <c r="J160">
+        <v>3.6938762102304963E-2</v>
+      </c>
+      <c r="K160">
+        <v>0.1224536743068836</v>
+      </c>
+      <c r="L160">
+        <v>0.26805737566154048</v>
+      </c>
+    </row>
+    <row r="161" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A161" s="2">
+        <v>45709</v>
+      </c>
+      <c r="B161">
+        <v>3.0969410000000002</v>
+      </c>
+      <c r="C161">
+        <v>6874326606</v>
+      </c>
+      <c r="D161">
+        <v>21289385171.75</v>
+      </c>
+      <c r="E161">
+        <v>26566</v>
+      </c>
+      <c r="F161" t="s">
+        <v>21</v>
+      </c>
+      <c r="G161" t="s">
+        <v>22</v>
+      </c>
+      <c r="H161" t="s">
+        <v>23</v>
+      </c>
+      <c r="I161">
+        <v>8.3558049776022436E-3</v>
+      </c>
+      <c r="J161">
+        <v>3.6749572504221513E-2</v>
+      </c>
+      <c r="K161">
+        <v>0.1236964038852988</v>
+      </c>
+      <c r="L161">
+        <v>0.26946131102558613</v>
+      </c>
+    </row>
+    <row r="162" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A162" s="2">
+        <v>45712</v>
+      </c>
+      <c r="B162">
+        <v>3.1085919999999998</v>
+      </c>
+      <c r="C162">
+        <v>6832998023</v>
+      </c>
+      <c r="D162">
+        <v>21241001868.110001</v>
+      </c>
+      <c r="E162">
+        <v>26629</v>
+      </c>
+      <c r="F162" t="s">
+        <v>21</v>
+      </c>
+      <c r="G162" t="s">
+        <v>22</v>
+      </c>
+      <c r="H162" t="s">
+        <v>23</v>
+      </c>
+      <c r="I162">
+        <v>8.4403488772692992E-3</v>
+      </c>
+      <c r="J162">
+        <v>3.7913350072119163E-2</v>
+      </c>
+      <c r="K162">
+        <v>0.12193808572024591</v>
+      </c>
+      <c r="L162">
+        <v>0.265621628399896</v>
+      </c>
+    </row>
+    <row r="163" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A163" s="2">
+        <v>45713</v>
+      </c>
+      <c r="B163">
+        <v>3.11212</v>
+      </c>
+      <c r="C163">
+        <v>6862094453</v>
+      </c>
+      <c r="D163">
+        <v>21355660974.720001</v>
+      </c>
+      <c r="E163">
+        <v>26590</v>
+      </c>
+      <c r="F163" t="s">
+        <v>21</v>
+      </c>
+      <c r="G163" t="s">
+        <v>22</v>
+      </c>
+      <c r="H163" t="s">
+        <v>23</v>
+      </c>
+      <c r="I163">
+        <v>8.4813511055115143E-3</v>
+      </c>
+      <c r="J163">
+        <v>3.9091297612051878E-2</v>
+      </c>
+      <c r="K163">
+        <v>0.1217195383970482</v>
+      </c>
+      <c r="L163">
+        <v>0.26535124544062172</v>
+      </c>
+    </row>
+    <row r="164" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A164" s="2">
+        <v>45714</v>
+      </c>
+      <c r="B164">
+        <v>3.11599</v>
+      </c>
+      <c r="C164">
+        <v>6838098201</v>
+      </c>
+      <c r="D164">
+        <v>21307443449.110001</v>
+      </c>
+      <c r="E164">
+        <v>26646</v>
+      </c>
+      <c r="F164" t="s">
+        <v>21</v>
+      </c>
+      <c r="G164" t="s">
+        <v>22</v>
+      </c>
+      <c r="H164" t="s">
+        <v>23</v>
+      </c>
+      <c r="I164">
+        <v>8.5095695436900876E-3</v>
+      </c>
+      <c r="J164">
+        <v>3.6405006823465147E-2</v>
+      </c>
+      <c r="K164">
+        <v>0.121623868923648</v>
+      </c>
+      <c r="L164">
+        <v>0.26692474174534492</v>
+      </c>
+    </row>
+    <row r="165" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A165" s="2">
+        <v>45715</v>
+      </c>
+      <c r="B165">
+        <v>3.1191409999999999</v>
+      </c>
+      <c r="C165">
+        <v>6843930087</v>
+      </c>
+      <c r="D165">
+        <v>21347183944.5</v>
+      </c>
+      <c r="E165">
+        <v>26671</v>
+      </c>
+      <c r="F165" t="s">
+        <v>21</v>
+      </c>
+      <c r="G165" t="s">
+        <v>22</v>
+      </c>
+      <c r="H165" t="s">
+        <v>23</v>
+      </c>
+      <c r="I165">
+        <v>8.2834548132286745E-3</v>
+      </c>
+      <c r="J165">
+        <v>3.6059140724285177E-2</v>
+      </c>
+      <c r="K165">
+        <v>0.12126071602147651</v>
+      </c>
+      <c r="L165">
+        <v>0.26820590113970733</v>
+      </c>
+    </row>
+    <row r="166" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A166" s="2">
+        <v>45716</v>
+      </c>
+      <c r="B166">
+        <v>3.1227999999999998</v>
+      </c>
+      <c r="C166">
+        <v>7039690663</v>
+      </c>
+      <c r="D166">
+        <v>21983548928.110001</v>
+      </c>
+      <c r="E166">
+        <v>26648</v>
+      </c>
+      <c r="F166" t="s">
+        <v>21</v>
+      </c>
+      <c r="G166" t="s">
+        <v>22</v>
+      </c>
+      <c r="H166" t="s">
+        <v>23</v>
+      </c>
+      <c r="I166">
+        <v>8.3498523220169041E-3</v>
+      </c>
+      <c r="J166">
+        <v>3.5931854340576892E-2</v>
+      </c>
+      <c r="K166">
+        <v>0.1225760438504917</v>
+      </c>
+      <c r="L166">
+        <v>0.2696936073358267</v>
+      </c>
+    </row>
+    <row r="167" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A167" s="2">
+        <v>45719</v>
+      </c>
+      <c r="B167">
+        <v>3.1343049999999999</v>
+      </c>
+      <c r="C167">
+        <v>6957698522</v>
+      </c>
+      <c r="D167">
+        <v>21807549672.93</v>
+      </c>
+      <c r="E167">
+        <v>26725</v>
+      </c>
+      <c r="F167" t="s">
+        <v>21</v>
+      </c>
+      <c r="G167" t="s">
+        <v>22</v>
+      </c>
+      <c r="H167" t="s">
+        <v>23</v>
+      </c>
+      <c r="I167">
+        <v>8.2715904821217823E-3</v>
+      </c>
+      <c r="J167">
+        <v>3.6453557411261002E-2</v>
+      </c>
+      <c r="K167">
+        <v>0.1206950493626353</v>
+      </c>
+      <c r="L167">
+        <v>0.2635962465087176</v>
+      </c>
+    </row>
+    <row r="168" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A168" s="2">
+        <v>45720</v>
+      </c>
+      <c r="B168">
+        <v>3.1378469999999998</v>
+      </c>
+      <c r="C168">
+        <v>6966808772</v>
+      </c>
+      <c r="D168">
+        <v>21860777019.52</v>
+      </c>
+      <c r="E168">
+        <v>26818</v>
+      </c>
+      <c r="F168" t="s">
+        <v>21</v>
+      </c>
+      <c r="G168" t="s">
+        <v>22</v>
+      </c>
+      <c r="H168" t="s">
+        <v>23</v>
+      </c>
+      <c r="I168">
+        <v>8.2667120805108851E-3</v>
+      </c>
+      <c r="J168">
+        <v>3.7624827756792323E-2</v>
+      </c>
+      <c r="K168">
+        <v>0.1204623614485021</v>
+      </c>
+      <c r="L168">
+        <v>0.26321834453162413</v>
+      </c>
+    </row>
+    <row r="169" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A169" s="2">
+        <v>45721</v>
+      </c>
+      <c r="B169">
+        <v>3.141556</v>
+      </c>
+      <c r="C169">
+        <v>6978156449</v>
+      </c>
+      <c r="D169">
+        <v>21922265964.93</v>
+      </c>
+      <c r="E169">
+        <v>26903</v>
+      </c>
+      <c r="F169" t="s">
+        <v>21</v>
+      </c>
+      <c r="G169" t="s">
+        <v>22</v>
+      </c>
+      <c r="H169" t="s">
+        <v>23</v>
+      </c>
+      <c r="I169">
+        <v>8.2047760101926492E-3</v>
+      </c>
+      <c r="J169">
+        <v>3.5199449045798081E-2</v>
+      </c>
+      <c r="K169">
+        <v>0.12028824932539629</v>
+      </c>
+      <c r="L169">
+        <v>0.26290662335782861</v>
+      </c>
+    </row>
+    <row r="170" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A170" s="2">
+        <v>45722</v>
+      </c>
+      <c r="B170">
+        <v>3.1453500000000001</v>
+      </c>
+      <c r="C170">
+        <v>6943501612</v>
+      </c>
+      <c r="D170">
+        <v>21839743502.75</v>
+      </c>
+      <c r="E170">
+        <v>26911</v>
+      </c>
+      <c r="F170" t="s">
+        <v>21</v>
+      </c>
+      <c r="G170" t="s">
+        <v>22</v>
+      </c>
+      <c r="H170" t="s">
+        <v>23</v>
+      </c>
+      <c r="I170">
+        <v>8.4026339303033826E-3</v>
+      </c>
+      <c r="J170">
+        <v>3.5344267151638853E-2</v>
+      </c>
+      <c r="K170">
+        <v>0.12014606931241011</v>
+      </c>
+      <c r="L170">
+        <v>0.26443181269999522</v>
+      </c>
+    </row>
+    <row r="171" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A171" s="2">
+        <v>45723</v>
+      </c>
+      <c r="B171">
+        <v>3.1491549999999999</v>
+      </c>
+      <c r="C171">
+        <v>6918834523</v>
+      </c>
+      <c r="D171">
+        <v>21788485284.68</v>
+      </c>
+      <c r="E171">
+        <v>26937</v>
+      </c>
+      <c r="F171" t="s">
+        <v>21</v>
+      </c>
+      <c r="G171" t="s">
+        <v>22</v>
+      </c>
+      <c r="H171" t="s">
+        <v>23</v>
+      </c>
+      <c r="I171">
+        <v>8.4395414371718491E-3</v>
+      </c>
+      <c r="J171">
+        <v>3.5549258018946039E-2</v>
+      </c>
+      <c r="K171">
+        <v>0.1215011349787856</v>
+      </c>
+      <c r="L171">
+        <v>0.26596142404605311</v>
+      </c>
+    </row>
+    <row r="172" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A172" s="2">
+        <v>45726</v>
+      </c>
+      <c r="B172">
+        <v>3.1601849999999998</v>
+      </c>
+      <c r="C172">
+        <v>6943554899</v>
+      </c>
+      <c r="D172">
+        <v>21942917425.970001</v>
+      </c>
+      <c r="E172">
+        <v>26969</v>
+      </c>
+      <c r="F172" t="s">
+        <v>21</v>
+      </c>
+      <c r="G172" t="s">
+        <v>22</v>
+      </c>
+      <c r="H172" t="s">
+        <v>23</v>
+      </c>
+      <c r="I172">
+        <v>8.2570139153654853E-3</v>
+      </c>
+      <c r="J172">
+        <v>3.7235561443090807E-2</v>
+      </c>
+      <c r="K172">
+        <v>0.1193722955989991</v>
+      </c>
+      <c r="L172">
+        <v>0.26139983235540631</v>
+      </c>
+    </row>
+    <row r="173" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A173" s="2">
+        <v>45727</v>
+      </c>
+      <c r="B173">
+        <v>3.1639789999999999</v>
+      </c>
+      <c r="C173">
+        <v>6938179017</v>
+      </c>
+      <c r="D173">
+        <v>21952251819.240002</v>
+      </c>
+      <c r="E173">
+        <v>26924</v>
+      </c>
+      <c r="F173" t="s">
+        <v>21</v>
+      </c>
+      <c r="G173" t="s">
+        <v>22</v>
+      </c>
+      <c r="H173" t="s">
+        <v>23</v>
+      </c>
+      <c r="I173">
+        <v>8.3280032455375075E-3</v>
+      </c>
+      <c r="J173">
+        <v>3.8480827691780517E-2</v>
+      </c>
+      <c r="K173">
+        <v>0.1192112974589066</v>
+      </c>
+      <c r="L173">
+        <v>0.2611513383678743</v>
+      </c>
+    </row>
+    <row r="174" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A174" s="2">
+        <v>45728</v>
+      </c>
+      <c r="B174">
+        <v>3.1671490000000002</v>
+      </c>
+      <c r="C174">
+        <v>6946114920</v>
+      </c>
+      <c r="D174">
+        <v>21999384088.759998</v>
+      </c>
+      <c r="E174">
+        <v>26932</v>
+      </c>
+      <c r="F174" t="s">
+        <v>21</v>
+      </c>
+      <c r="G174" t="s">
+        <v>22</v>
+      </c>
+      <c r="H174" t="s">
+        <v>23</v>
+      </c>
+      <c r="I174">
+        <v>8.1465999651129106E-3</v>
+      </c>
+      <c r="J174">
+        <v>3.5756612898373057E-2</v>
+      </c>
+      <c r="K174">
+        <v>0.1188073728304035</v>
+      </c>
+      <c r="L174">
+        <v>0.2606857696488758</v>
+      </c>
+    </row>
+    <row r="175" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A175" s="2">
+        <v>45729</v>
+      </c>
+      <c r="B175">
+        <v>3.1705559999999999</v>
+      </c>
+      <c r="C175">
+        <v>6938547416</v>
+      </c>
+      <c r="D175">
+        <v>21999053936.639999</v>
+      </c>
+      <c r="E175">
+        <v>26938</v>
+      </c>
+      <c r="F175" t="s">
+        <v>21</v>
+      </c>
+      <c r="G175" t="s">
+        <v>22</v>
+      </c>
+      <c r="H175" t="s">
+        <v>23</v>
+      </c>
+      <c r="I175">
+        <v>8.0137345605417742E-3</v>
+      </c>
+      <c r="J175">
+        <v>3.5716817385492483E-2</v>
+      </c>
+      <c r="K175">
+        <v>0.1184944670691128</v>
+      </c>
+      <c r="L175">
+        <v>0.26204192826888167</v>
+      </c>
+    </row>
+    <row r="176" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A176" s="2">
+        <v>45730</v>
+      </c>
+      <c r="B176">
+        <v>3.173505</v>
+      </c>
+      <c r="C176">
+        <v>6919159474</v>
+      </c>
+      <c r="D176">
+        <v>21957987013.900002</v>
+      </c>
+      <c r="E176">
+        <v>26907</v>
+      </c>
+      <c r="F176" t="s">
+        <v>21</v>
+      </c>
+      <c r="G176" t="s">
+        <v>22</v>
+      </c>
+      <c r="H176" t="s">
+        <v>23</v>
+      </c>
+      <c r="I176">
+        <v>7.7322329323263883E-3</v>
+      </c>
+      <c r="J176">
+        <v>3.5774048540143433E-2</v>
+      </c>
+      <c r="K176">
+        <v>0.1195348020082803</v>
+      </c>
+      <c r="L176">
+        <v>0.26321577968373289</v>
+      </c>
+    </row>
+    <row r="177" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A177" s="2">
+        <v>45733</v>
+      </c>
+      <c r="B177">
+        <v>3.1842359999999998</v>
+      </c>
+      <c r="C177">
+        <v>6834562265</v>
+      </c>
+      <c r="D177">
+        <v>21762862045.240002</v>
+      </c>
+      <c r="E177">
+        <v>26845</v>
+      </c>
+      <c r="F177" t="s">
+        <v>21</v>
+      </c>
+      <c r="G177" t="s">
+        <v>22</v>
+      </c>
+      <c r="H177" t="s">
+        <v>23</v>
+      </c>
+      <c r="I177">
+        <v>7.610630390309403E-3</v>
+      </c>
+      <c r="J177">
+        <v>3.6778826273622833E-2</v>
+      </c>
+      <c r="K177">
+        <v>0.11733067589285071</v>
+      </c>
+      <c r="L177">
+        <v>0.25923386202208309</v>
+      </c>
+    </row>
+    <row r="178" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A178" s="2">
+        <v>45734</v>
+      </c>
+      <c r="B178">
+        <v>3.187967</v>
+      </c>
+      <c r="C178">
+        <v>6815254016</v>
+      </c>
+      <c r="D178">
+        <v>21726803245.66</v>
+      </c>
+      <c r="E178">
+        <v>26862</v>
+      </c>
+      <c r="F178" t="s">
+        <v>21</v>
+      </c>
+      <c r="G178" t="s">
+        <v>22</v>
+      </c>
+      <c r="H178" t="s">
+        <v>23</v>
+      </c>
+      <c r="I178">
+        <v>7.5815926717592852E-3</v>
+      </c>
+      <c r="J178">
+        <v>3.7993630013303907E-2</v>
+      </c>
+      <c r="K178">
+        <v>0.1171541709740158</v>
+      </c>
+      <c r="L178">
+        <v>0.25910749366292701</v>
+      </c>
+    </row>
+    <row r="179" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A179" s="2">
+        <v>45735</v>
+      </c>
+      <c r="B179">
+        <v>3.1915840000000002</v>
+      </c>
+      <c r="C179">
+        <v>6793379070</v>
+      </c>
+      <c r="D179">
+        <v>21681639020.27</v>
+      </c>
+      <c r="E179">
+        <v>26851</v>
+      </c>
+      <c r="F179" t="s">
+        <v>21</v>
+      </c>
+      <c r="G179" t="s">
+        <v>22</v>
+      </c>
+      <c r="H179" t="s">
+        <v>23</v>
+      </c>
+      <c r="I179">
+        <v>7.7151406517343979E-3</v>
+      </c>
+      <c r="J179">
+        <v>3.5363303524911238E-2</v>
+      </c>
+      <c r="K179">
+        <v>0.11693198425452581</v>
+      </c>
+      <c r="L179">
+        <v>0.2589225736646561</v>
+      </c>
+    </row>
+    <row r="180" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A180" s="2">
+        <v>45736</v>
+      </c>
+      <c r="B180">
+        <v>3.1944620000000001</v>
+      </c>
+      <c r="C180">
+        <v>6693998490</v>
+      </c>
+      <c r="D180">
+        <v>21383722204.32</v>
+      </c>
+      <c r="E180">
+        <v>26462</v>
+      </c>
+      <c r="F180" t="s">
+        <v>21</v>
+      </c>
+      <c r="G180" t="s">
+        <v>22</v>
+      </c>
+      <c r="H180" t="s">
+        <v>23</v>
+      </c>
+      <c r="I180">
+        <v>7.5400024475202887E-3</v>
+      </c>
+      <c r="J180">
+        <v>3.5164246177915581E-2</v>
+      </c>
+      <c r="K180">
+        <v>0.11643767393760671</v>
+      </c>
+      <c r="L180">
+        <v>0.2600578028069902</v>
+      </c>
+    </row>
+    <row r="181" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A181" s="2">
+        <v>45737</v>
+      </c>
+      <c r="B181">
+        <v>3.195767</v>
+      </c>
+      <c r="C181">
+        <v>6463992890</v>
+      </c>
+      <c r="D181">
+        <v>20657412746.439999</v>
+      </c>
+      <c r="E181">
+        <v>26238</v>
+      </c>
+      <c r="F181" t="s">
+        <v>21</v>
+      </c>
+      <c r="G181" t="s">
+        <v>22</v>
+      </c>
+      <c r="H181" t="s">
+        <v>23</v>
+      </c>
+      <c r="I181">
+        <v>7.0149566488788562E-3</v>
+      </c>
+      <c r="J181">
+        <v>3.4329892436089297E-2</v>
+      </c>
+      <c r="K181">
+        <v>0.1168937604913014</v>
+      </c>
+      <c r="L181">
+        <v>0.2605725609830658</v>
+      </c>
+    </row>
+    <row r="182" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A182" s="2">
+        <v>45740</v>
+      </c>
+      <c r="B182">
+        <v>3.2052830000000001</v>
+      </c>
+      <c r="C182">
+        <v>6123325776</v>
+      </c>
+      <c r="D182">
+        <v>19626992436.419998</v>
+      </c>
+      <c r="E182">
+        <v>25920</v>
+      </c>
+      <c r="F182" t="s">
+        <v>21</v>
+      </c>
+      <c r="G182" t="s">
+        <v>22</v>
+      </c>
+      <c r="H182" t="s">
+        <v>23</v>
+      </c>
+      <c r="I182">
+        <v>6.6097487749023909E-3</v>
+      </c>
+      <c r="J182">
+        <v>3.4983553125487399E-2</v>
+      </c>
+      <c r="K182">
+        <v>0.1142562848239526</v>
+      </c>
+      <c r="L182">
+        <v>0.25591629322292181</v>
+      </c>
+    </row>
+    <row r="183" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A183" s="2">
+        <v>45741</v>
+      </c>
+      <c r="B183">
+        <v>3.2062200000000001</v>
+      </c>
+      <c r="C183">
+        <v>5694069060</v>
+      </c>
+      <c r="D183">
+        <v>18256435434.299999</v>
+      </c>
+      <c r="E183">
+        <v>25502</v>
+      </c>
+      <c r="F183" t="s">
+        <v>21</v>
+      </c>
+      <c r="G183" t="s">
+        <v>22</v>
+      </c>
+      <c r="H183" t="s">
+        <v>23</v>
+      </c>
+      <c r="I183">
+        <v>5.7255925171120206E-3</v>
+      </c>
+      <c r="J183">
+        <v>3.5286109745067851E-2</v>
+      </c>
+      <c r="K183">
+        <v>0.1130903426423564</v>
+      </c>
+      <c r="L183">
+        <v>0.25466652265992978</v>
+      </c>
+    </row>
+    <row r="184" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A184" s="2">
+        <v>45742</v>
+      </c>
+      <c r="B184">
+        <v>3.2056900000000002</v>
+      </c>
+      <c r="C184">
+        <v>5474474139</v>
+      </c>
+      <c r="D184">
+        <v>17549467681.16</v>
+      </c>
+      <c r="E184">
+        <v>24831</v>
+      </c>
+      <c r="F184" t="s">
+        <v>21</v>
+      </c>
+      <c r="G184" t="s">
+        <v>22</v>
+      </c>
+      <c r="H184" t="s">
+        <v>23</v>
+      </c>
+      <c r="I184">
+        <v>4.4197489397115319E-3</v>
+      </c>
+      <c r="J184">
+        <v>3.1235363148332199E-2</v>
+      </c>
+      <c r="K184">
+        <v>0.1114196760414934</v>
+      </c>
+      <c r="L184">
+        <v>0.25284957042957829</v>
+      </c>
+    </row>
+    <row r="185" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A185" s="2">
+        <v>45743</v>
+      </c>
+      <c r="B185">
+        <v>3.2042380000000001</v>
+      </c>
+      <c r="C185">
+        <v>4992284264</v>
+      </c>
+      <c r="D185">
+        <v>15996466747.879999</v>
+      </c>
+      <c r="E185">
+        <v>23578</v>
+      </c>
+      <c r="F185" t="s">
+        <v>21</v>
+      </c>
+      <c r="G185" t="s">
+        <v>22</v>
+      </c>
+      <c r="H185" t="s">
+        <v>23</v>
+      </c>
+      <c r="I185">
+        <v>3.060296225154691E-3</v>
+      </c>
+      <c r="J185">
+        <v>2.959975836407347E-2</v>
+      </c>
+      <c r="K185">
+        <v>0.1094223261237781</v>
+      </c>
+      <c r="L185">
+        <v>0.25228209897218101</v>
+      </c>
+    </row>
+    <row r="186" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A186" s="2">
+        <v>45744</v>
+      </c>
+      <c r="B186">
+        <v>3.206601</v>
+      </c>
+      <c r="C186">
+        <v>4278315694</v>
+      </c>
+      <c r="D186">
+        <v>13718853275.6</v>
+      </c>
+      <c r="E186">
+        <v>21667</v>
+      </c>
+      <c r="F186" t="s">
+        <v>21</v>
+      </c>
+      <c r="G186" t="s">
+        <v>22</v>
+      </c>
+      <c r="H186" t="s">
+        <v>23</v>
+      </c>
+      <c r="I186">
+        <v>3.3901094791954911E-3</v>
+      </c>
+      <c r="J186">
+        <v>2.9079361615409471E-2</v>
+      </c>
+      <c r="K186">
+        <v>0.1102404816280291</v>
+      </c>
+      <c r="L186">
+        <v>0.25320560796242192</v>
+      </c>
+    </row>
+    <row r="187" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A187" s="2">
+        <v>45749</v>
+      </c>
+      <c r="B187">
+        <v>3.2296070000000001</v>
+      </c>
+      <c r="C187">
+        <v>3965173639</v>
+      </c>
+      <c r="D187">
+        <v>12805952493.92</v>
+      </c>
+      <c r="E187">
+        <v>20914</v>
+      </c>
+      <c r="F187" t="s">
+        <v>21</v>
+      </c>
+      <c r="G187" t="s">
+        <v>22</v>
+      </c>
+      <c r="H187" t="s">
+        <v>23</v>
+      </c>
+      <c r="I187">
+        <v>7.460796271629544E-3</v>
+      </c>
+      <c r="J187">
+        <v>3.0406102788337549E-2</v>
+      </c>
+      <c r="K187">
+        <v>0.10950459572874641</v>
+      </c>
+      <c r="L187">
+        <v>0.25046201094887549</v>
+      </c>
+    </row>
+    <row r="188" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A188" s="2">
+        <v>45750</v>
+      </c>
+      <c r="B188">
+        <v>3.2409340000000002</v>
+      </c>
+      <c r="C188">
+        <v>3966530421</v>
+      </c>
+      <c r="D188">
+        <v>12855261491.68</v>
+      </c>
+      <c r="E188">
+        <v>20836</v>
+      </c>
+      <c r="F188" t="s">
+        <v>21</v>
+      </c>
+      <c r="G188" t="s">
+        <v>22</v>
+      </c>
+      <c r="H188" t="s">
+        <v>23</v>
+      </c>
+      <c r="I188">
+        <v>1.1452332816725971E-2</v>
+      </c>
+      <c r="J188">
+        <v>3.2852780903594107E-2</v>
+      </c>
+      <c r="K188">
+        <v>0.1119614631117027</v>
+      </c>
+      <c r="L188">
+        <v>0.25484767867811259</v>
+      </c>
+    </row>
+    <row r="189" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A189" s="2">
+        <v>45751</v>
+      </c>
+      <c r="B189">
+        <v>3.2510819999999998</v>
+      </c>
+      <c r="C189">
+        <v>4059859885</v>
+      </c>
+      <c r="D189">
+        <v>13198938726.860001</v>
+      </c>
+      <c r="E189">
+        <v>21125</v>
+      </c>
+      <c r="F189" t="s">
+        <v>21</v>
+      </c>
+      <c r="G189" t="s">
+        <v>22</v>
+      </c>
+      <c r="H189" t="s">
+        <v>23</v>
+      </c>
+      <c r="I189">
+        <v>1.387169778840569E-2</v>
+      </c>
+      <c r="J189">
+        <v>3.4863615354938648E-2</v>
+      </c>
+      <c r="K189">
+        <v>0.1154432325422612</v>
+      </c>
+      <c r="L189">
+        <v>0.25877685287395402</v>
+      </c>
+    </row>
+    <row r="190" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A190" s="2">
+        <v>45754</v>
+      </c>
+      <c r="B190">
+        <v>3.2651400000000002</v>
+      </c>
+      <c r="C190">
+        <v>4328900629</v>
+      </c>
+      <c r="D190">
+        <v>14134465525.459999</v>
+      </c>
+      <c r="E190">
+        <v>21903</v>
+      </c>
+      <c r="F190" t="s">
+        <v>21</v>
+      </c>
+      <c r="G190" t="s">
+        <v>22</v>
+      </c>
+      <c r="H190" t="s">
+        <v>23</v>
+      </c>
+      <c r="I190">
+        <v>1.8255779250365031E-2</v>
+      </c>
+      <c r="J190">
+        <v>3.6830514852397078E-2</v>
+      </c>
+      <c r="K190">
+        <v>0.11444425065285201</v>
+      </c>
+      <c r="L190">
+        <v>0.25573372663868138</v>
+      </c>
+    </row>
+    <row r="191" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A191" s="2">
+        <v>45755</v>
+      </c>
+      <c r="B191">
+        <v>3.266251</v>
+      </c>
+      <c r="C191">
+        <v>4449121451</v>
+      </c>
+      <c r="D191">
+        <v>14531948706.23</v>
+      </c>
+      <c r="E191">
+        <v>22349</v>
+      </c>
+      <c r="F191" t="s">
+        <v>21</v>
+      </c>
+      <c r="G191" t="s">
+        <v>22</v>
+      </c>
+      <c r="H191" t="s">
+        <v>23</v>
+      </c>
+      <c r="I191">
+        <v>1.8602252041959751E-2</v>
+      </c>
+      <c r="J191">
+        <v>3.7183307903231322E-2</v>
+      </c>
+      <c r="K191">
+        <v>0.1133664954250153</v>
+      </c>
+      <c r="L191">
+        <v>0.25447241121717878</v>
+      </c>
+    </row>
+    <row r="192" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A192" s="2">
+        <v>45756</v>
+      </c>
+      <c r="B192">
+        <v>3.2682790000000002</v>
+      </c>
+      <c r="C192">
+        <v>3949867647</v>
+      </c>
+      <c r="D192">
+        <v>12909268335.74</v>
+      </c>
+      <c r="E192">
+        <v>22138</v>
+      </c>
+      <c r="F192" t="s">
+        <v>21</v>
+      </c>
+      <c r="G192" t="s">
+        <v>22</v>
+      </c>
+      <c r="H192" t="s">
+        <v>23</v>
+      </c>
+      <c r="I192">
+        <v>1.1974212342244829E-2</v>
+      </c>
+      <c r="J192">
+        <v>3.4204959519775091E-2</v>
+      </c>
+      <c r="K192">
+        <v>0.1126313732539173</v>
+      </c>
+      <c r="L192">
+        <v>0.25356235614317768</v>
+      </c>
+    </row>
+    <row r="193" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A193" s="2">
+        <v>45757</v>
+      </c>
+      <c r="B193">
+        <v>3.2703760000000002</v>
+      </c>
+      <c r="C193">
+        <v>3825191132</v>
+      </c>
+      <c r="D193">
+        <v>12509813912.290001</v>
+      </c>
+      <c r="E193">
+        <v>21881</v>
+      </c>
+      <c r="F193" t="s">
+        <v>21</v>
+      </c>
+      <c r="G193" t="s">
+        <v>22</v>
+      </c>
+      <c r="H193" t="s">
+        <v>23</v>
+      </c>
+      <c r="I193">
+        <v>9.0844182572060728E-3</v>
+      </c>
+      <c r="J193">
+        <v>3.3627593609186553E-2</v>
+      </c>
+      <c r="K193">
+        <v>0.11192007879785</v>
+      </c>
+      <c r="L193">
+        <v>0.25436666944104253</v>
+      </c>
+    </row>
+    <row r="194" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A194" s="2">
+        <v>45758</v>
+      </c>
+      <c r="B194">
+        <v>3.2715010000000002</v>
+      </c>
+      <c r="C194">
+        <v>3773281569</v>
+      </c>
+      <c r="D194">
+        <v>12344293736.43</v>
+      </c>
+      <c r="E194">
+        <v>21681</v>
+      </c>
+      <c r="F194" t="s">
+        <v>21</v>
+      </c>
+      <c r="G194" t="s">
+        <v>22</v>
+      </c>
+      <c r="H194" t="s">
+        <v>23</v>
+      </c>
+      <c r="I194">
+        <v>6.2806782480417933E-3</v>
+      </c>
+      <c r="J194">
+        <v>3.2948244620003557E-2</v>
+      </c>
+      <c r="K194">
+        <v>0.11230257612801869</v>
+      </c>
+      <c r="L194">
+        <v>0.25479816799139932</v>
+      </c>
+    </row>
+    <row r="195" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A195" s="2">
+        <v>45761</v>
+      </c>
+      <c r="B195">
+        <v>3.2842699999999998</v>
+      </c>
+      <c r="C195">
+        <v>3691038360</v>
+      </c>
+      <c r="D195">
+        <v>12122366262.790001</v>
+      </c>
+      <c r="E195">
+        <v>21402</v>
+      </c>
+      <c r="F195" t="s">
+        <v>21</v>
+      </c>
+      <c r="G195" t="s">
+        <v>22</v>
+      </c>
+      <c r="H195" t="s">
+        <v>23</v>
+      </c>
+      <c r="I195">
+        <v>5.8588605695313323E-3</v>
+      </c>
+      <c r="J195">
+        <v>3.4903048837168882E-2</v>
+      </c>
+      <c r="K195">
+        <v>0.1110100023273812</v>
+      </c>
+      <c r="L195">
+        <v>0.25145606984410279</v>
+      </c>
+    </row>
+    <row r="196" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A196" s="2">
+        <v>45762</v>
+      </c>
+      <c r="B196">
+        <v>3.2874910000000002</v>
+      </c>
+      <c r="C196">
+        <v>3653613731</v>
+      </c>
+      <c r="D196">
+        <v>12011220560.889999</v>
+      </c>
+      <c r="E196">
+        <v>21238</v>
+      </c>
+      <c r="F196" t="s">
+        <v>21</v>
+      </c>
+      <c r="G196" t="s">
+        <v>22</v>
+      </c>
+      <c r="H196" t="s">
+        <v>23</v>
+      </c>
+      <c r="I196">
+        <v>6.5028682731365084E-3</v>
+      </c>
+      <c r="J196">
+        <v>3.5918014939317899E-2</v>
+      </c>
+      <c r="K196">
+        <v>0.1106992643856641</v>
+      </c>
+      <c r="L196">
+        <v>0.251038793154297</v>
+      </c>
+    </row>
+    <row r="197" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A197" s="2">
+        <v>45763</v>
+      </c>
+      <c r="B197">
+        <v>3.2910509999999999</v>
+      </c>
+      <c r="C197">
+        <v>3382871299</v>
+      </c>
+      <c r="D197">
+        <v>11133202853.58</v>
+      </c>
+      <c r="E197">
+        <v>21198</v>
+      </c>
+      <c r="F197" t="s">
+        <v>21</v>
+      </c>
+      <c r="G197" t="s">
+        <v>22</v>
+      </c>
+      <c r="H197" t="s">
+        <v>23</v>
+      </c>
+      <c r="I197">
+        <v>6.9675814090535138E-3</v>
+      </c>
+      <c r="J197">
+        <v>3.3544938252064282E-2</v>
+      </c>
+      <c r="K197">
+        <v>0.1104598568740314</v>
+      </c>
+      <c r="L197">
+        <v>0.25073671089085581</v>
+      </c>
+    </row>
+    <row r="198" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A198" s="2">
+        <v>45764</v>
+      </c>
+      <c r="B198">
+        <v>3.2950810000000001</v>
+      </c>
+      <c r="C198">
+        <v>3356103923</v>
+      </c>
+      <c r="D198">
+        <v>11058634043.18</v>
+      </c>
+      <c r="E198">
+        <v>21124</v>
+      </c>
+      <c r="F198" t="s">
+        <v>21</v>
+      </c>
+      <c r="G198" t="s">
+        <v>22</v>
+      </c>
+      <c r="H198" t="s">
+        <v>23</v>
+      </c>
+      <c r="I198">
+        <v>7.5541772566825038E-3</v>
+      </c>
+      <c r="J198">
+        <v>3.3599469505173778E-2</v>
+      </c>
+      <c r="K198">
+        <v>0.11034203422465171</v>
+      </c>
+      <c r="L198">
+        <v>0.25226827905704052</v>
+      </c>
+    </row>
+    <row r="199" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A199" s="2">
+        <v>45765</v>
+      </c>
+      <c r="B199">
+        <v>3.3013910000000002</v>
+      </c>
+      <c r="C199">
+        <v>3348492329</v>
+      </c>
+      <c r="D199">
+        <v>11054681529.85</v>
+      </c>
+      <c r="E199">
+        <v>21075</v>
+      </c>
+      <c r="F199" t="s">
+        <v>21</v>
+      </c>
+      <c r="G199" t="s">
+        <v>22</v>
+      </c>
+      <c r="H199" t="s">
+        <v>23</v>
+      </c>
+      <c r="I199">
+        <v>9.1364789434573712E-3</v>
+      </c>
+      <c r="J199">
+        <v>3.4405173105266813E-2</v>
+      </c>
+      <c r="K199">
+        <v>0.1124683122238745</v>
+      </c>
+      <c r="L199">
+        <v>0.25466634236439178</v>
+      </c>
+    </row>
+    <row r="200" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A200" s="2">
+        <v>45768</v>
+      </c>
+      <c r="B200">
+        <v>3.3161719999999999</v>
+      </c>
+      <c r="C200">
+        <v>3415691052</v>
+      </c>
+      <c r="D200">
+        <v>11327018534.209999</v>
+      </c>
+      <c r="E200">
+        <v>21523</v>
+      </c>
+      <c r="F200" t="s">
+        <v>21</v>
+      </c>
+      <c r="G200" t="s">
+        <v>22</v>
+      </c>
+      <c r="H200" t="s">
+        <v>23</v>
+      </c>
+      <c r="I200">
+        <v>9.713574097135691E-3</v>
+      </c>
+      <c r="J200">
+        <v>3.7676401314614028E-2</v>
+      </c>
+      <c r="K200">
+        <v>0.11157249181782961</v>
+      </c>
+      <c r="L200">
+        <v>0.25193793035493761</v>
+      </c>
+    </row>
+    <row r="201" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A201" s="2">
+        <v>45769</v>
+      </c>
+      <c r="B201">
+        <v>3.3252030000000001</v>
+      </c>
+      <c r="C201">
+        <v>3455890820</v>
+      </c>
+      <c r="D201">
+        <v>11491536835.75</v>
+      </c>
+      <c r="E201">
+        <v>21699</v>
+      </c>
+      <c r="F201" t="s">
+        <v>21</v>
+      </c>
+      <c r="G201" t="s">
+        <v>22</v>
+      </c>
+      <c r="H201" t="s">
+        <v>23</v>
+      </c>
+      <c r="I201">
+        <v>1.147136220296874E-2</v>
+      </c>
+      <c r="J201">
+        <v>4.0502326984414028E-2</v>
+      </c>
+      <c r="K201">
+        <v>0.11316385708986849</v>
+      </c>
+      <c r="L201">
+        <v>0.25367946598400293</v>
+      </c>
+    </row>
+    <row r="202" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A202" s="2">
+        <v>45771</v>
+      </c>
+      <c r="B202">
+        <v>3.3339750000000001</v>
+      </c>
+      <c r="C202">
+        <v>3538117721</v>
+      </c>
+      <c r="D202">
+        <v>11795996750.950001</v>
+      </c>
+      <c r="E202">
+        <v>22216</v>
+      </c>
+      <c r="F202" t="s">
+        <v>21</v>
+      </c>
+      <c r="G202" t="s">
+        <v>22</v>
+      </c>
+      <c r="H202" t="s">
+        <v>23</v>
+      </c>
+      <c r="I202">
+        <v>1.180365520604809E-2</v>
+      </c>
+      <c r="J202">
+        <v>3.9845986863034977E-2</v>
+      </c>
+      <c r="K202">
+        <v>0.11316543351674779</v>
+      </c>
+      <c r="L202">
+        <v>0.25534438451328678</v>
+      </c>
+    </row>
+    <row r="203" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A203" s="2">
+        <v>45772</v>
+      </c>
+      <c r="B203">
+        <v>3.3386119999999999</v>
+      </c>
+      <c r="C203">
+        <v>3595786402</v>
+      </c>
+      <c r="D203">
+        <v>12004935688.32</v>
+      </c>
+      <c r="E203">
+        <v>22516</v>
+      </c>
+      <c r="F203" t="s">
+        <v>21</v>
+      </c>
+      <c r="G203" t="s">
+        <v>22</v>
+      </c>
+      <c r="H203" t="s">
+        <v>23</v>
+      </c>
+      <c r="I203">
+        <v>1.127433860454574E-2</v>
+      </c>
+      <c r="J203">
+        <v>4.1464396120648013E-2</v>
+      </c>
+      <c r="K203">
+        <v>0.11471365991773071</v>
+      </c>
+      <c r="L203">
+        <v>0.25709035798668939</v>
+      </c>
+    </row>
+    <row r="204" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A204" s="2">
+        <v>45775</v>
+      </c>
+      <c r="B204">
+        <v>3.350994</v>
+      </c>
+      <c r="C204">
+        <v>3638366298</v>
+      </c>
+      <c r="D204">
+        <v>12192144383.120001</v>
+      </c>
+      <c r="E204">
+        <v>22941</v>
+      </c>
+      <c r="F204" t="s">
+        <v>21</v>
+      </c>
+      <c r="G204" t="s">
+        <v>22</v>
+      </c>
+      <c r="H204" t="s">
+        <v>23</v>
+      </c>
+      <c r="I204">
+        <v>1.050066160621355E-2</v>
+      </c>
+      <c r="J204">
+        <v>4.5029924209466721E-2</v>
+      </c>
+      <c r="K204">
+        <v>0.1130718246505162</v>
+      </c>
+      <c r="L204">
+        <v>0.25347136630119799</v>
+      </c>
+    </row>
+    <row r="205" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A205" s="2">
+        <v>45776</v>
+      </c>
+      <c r="B205">
+        <v>3.354222</v>
+      </c>
+      <c r="C205">
+        <v>3676525235</v>
+      </c>
+      <c r="D205">
+        <v>12331880660.74</v>
+      </c>
+      <c r="E205">
+        <v>23238</v>
+      </c>
+      <c r="F205" t="s">
+        <v>21</v>
+      </c>
+      <c r="G205" t="s">
+        <v>22</v>
+      </c>
+      <c r="H205" t="s">
+        <v>23</v>
+      </c>
+      <c r="I205">
+        <v>8.7269859915319881E-3</v>
+      </c>
+      <c r="J205">
+        <v>4.6036597630949361E-2</v>
+      </c>
+      <c r="K205">
+        <v>0.1127018753458304</v>
+      </c>
+      <c r="L205">
+        <v>0.25307438674772881</v>
+      </c>
+    </row>
+    <row r="206" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A206" s="2">
+        <v>45777</v>
+      </c>
+      <c r="B206">
+        <v>3.3586939999999998</v>
+      </c>
+      <c r="C206">
+        <v>3581288861</v>
+      </c>
+      <c r="D206">
+        <v>12028453049.450001</v>
+      </c>
+      <c r="E206">
+        <v>23324</v>
+      </c>
+      <c r="F206" t="s">
+        <v>21</v>
+      </c>
+      <c r="G206" t="s">
+        <v>22</v>
+      </c>
+      <c r="H206" t="s">
+        <v>23</v>
+      </c>
+      <c r="I206">
+        <v>1.0071866289065531E-2</v>
+      </c>
+      <c r="J206">
+        <v>4.7431220784874613E-2</v>
+      </c>
+      <c r="K206">
+        <v>0.1123639639400944</v>
+      </c>
+      <c r="L206">
+        <v>0.25311544524349178</v>
+      </c>
+    </row>
+    <row r="207" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A207" s="2">
+        <v>45779</v>
+      </c>
+      <c r="B207">
+        <v>3.3682609999999999</v>
+      </c>
+      <c r="C207">
+        <v>3619959646</v>
+      </c>
+      <c r="D207">
+        <v>12192967737.379999</v>
+      </c>
+      <c r="E207">
+        <v>23626</v>
+      </c>
+      <c r="F207" t="s">
+        <v>21</v>
+      </c>
+      <c r="G207" t="s">
+        <v>22</v>
+      </c>
+      <c r="H207" t="s">
+        <v>23</v>
+      </c>
+      <c r="I207">
+        <v>8.8806366238425305E-3</v>
+      </c>
+      <c r="J207">
+        <v>4.2932158618680161E-2</v>
+      </c>
+      <c r="K207">
+        <v>0.1138182454290859</v>
+      </c>
+      <c r="L207">
+        <v>0.25668485509882388</v>
+      </c>
+    </row>
+    <row r="208" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A208" s="2">
+        <v>45782</v>
+      </c>
+      <c r="B208">
+        <v>3.381923</v>
+      </c>
+      <c r="C208">
+        <v>3742784820</v>
+      </c>
+      <c r="D208">
+        <v>12657810321.08</v>
+      </c>
+      <c r="E208">
+        <v>24125</v>
+      </c>
+      <c r="F208" t="s">
+        <v>21</v>
+      </c>
+      <c r="G208" t="s">
+        <v>22</v>
+      </c>
+      <c r="H208" t="s">
+        <v>23</v>
+      </c>
+      <c r="I208">
+        <v>9.2297986806302301E-3</v>
+      </c>
+      <c r="J208">
+        <v>4.0245370618151137E-2</v>
+      </c>
+      <c r="K208">
+        <v>0.1132162048733121</v>
+      </c>
+      <c r="L208">
+        <v>0.25347028666650862</v>
+      </c>
+    </row>
+    <row r="209" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A209" s="2">
+        <v>45783</v>
+      </c>
+      <c r="B209">
+        <v>3.3865759999999998</v>
+      </c>
+      <c r="C209">
+        <v>3736728358</v>
+      </c>
+      <c r="D209">
+        <v>12654715892.75</v>
+      </c>
+      <c r="E209">
+        <v>24156</v>
+      </c>
+      <c r="F209" t="s">
+        <v>21</v>
+      </c>
+      <c r="G209" t="s">
+        <v>22</v>
+      </c>
+      <c r="H209" t="s">
+        <v>23</v>
+      </c>
+      <c r="I209">
+        <v>9.6457539184942043E-3</v>
+      </c>
+      <c r="J209">
+        <v>4.1676586441067982E-2</v>
+      </c>
+      <c r="K209">
+        <v>0.113621356848034</v>
+      </c>
+      <c r="L209">
+        <v>0.25350791119152188</v>
+      </c>
+    </row>
+    <row r="210" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A210" s="2">
+        <v>45784</v>
+      </c>
+      <c r="B210">
+        <v>3.3914960000000001</v>
+      </c>
+      <c r="C210">
+        <v>3749198871</v>
+      </c>
+      <c r="D210">
+        <v>12715394578.629999</v>
+      </c>
+      <c r="E210">
+        <v>24316</v>
+      </c>
+      <c r="F210" t="s">
+        <v>21</v>
+      </c>
+      <c r="G210" t="s">
+        <v>22</v>
+      </c>
+      <c r="H210" t="s">
+        <v>23</v>
+      </c>
+      <c r="I210">
+        <v>9.7662960662687759E-3</v>
+      </c>
+      <c r="J210">
+        <v>3.8698493785871417E-2</v>
+      </c>
+      <c r="K210">
+        <v>0.1141203547055913</v>
+      </c>
+      <c r="L210">
+        <v>0.25364737332564968</v>
+      </c>
+    </row>
+    <row r="211" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A211" s="2">
+        <v>45785</v>
+      </c>
+      <c r="B211">
+        <v>3.3963649999999999</v>
+      </c>
+      <c r="C211">
+        <v>3795481335</v>
+      </c>
+      <c r="D211">
+        <v>12890839937.25</v>
+      </c>
+      <c r="E211">
+        <v>24488</v>
+      </c>
+      <c r="F211" t="s">
+        <v>21</v>
+      </c>
+      <c r="G211" t="s">
+        <v>22</v>
+      </c>
+      <c r="H211" t="s">
+        <v>23</v>
+      </c>
+      <c r="I211">
+        <v>1.121596668228775E-2</v>
+      </c>
+      <c r="J211">
+        <v>3.9835885239682962E-2</v>
+      </c>
+      <c r="K211">
+        <v>0.1147545341936196</v>
+      </c>
+      <c r="L211">
+        <v>0.25544717172161491</v>
+      </c>
+    </row>
+    <row r="212" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A212" s="2">
+        <v>45786</v>
+      </c>
+      <c r="B212">
+        <v>3.4008919999999998</v>
+      </c>
+      <c r="C212">
+        <v>3866766576</v>
+      </c>
+      <c r="D212">
+        <v>13150454317.040001</v>
+      </c>
+      <c r="E212">
+        <v>24690</v>
+      </c>
+      <c r="F212" t="s">
+        <v>21</v>
+      </c>
+      <c r="G212" t="s">
+        <v>22</v>
+      </c>
+      <c r="H212" t="s">
+        <v>23</v>
+      </c>
+      <c r="I212">
+        <v>9.687788446322898E-3</v>
+      </c>
+      <c r="J212">
+        <v>4.0575789276251939E-2</v>
+      </c>
+      <c r="K212">
+        <v>0.11624038561897999</v>
+      </c>
+      <c r="L212">
+        <v>0.25712055174595982</v>
+      </c>
+    </row>
+    <row r="213" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A213" s="2">
+        <v>45789</v>
+      </c>
+      <c r="B213">
+        <v>3.41439</v>
+      </c>
+      <c r="C213">
+        <v>3940333666</v>
+      </c>
+      <c r="D213">
+        <v>13453834347.690001</v>
+      </c>
+      <c r="E213">
+        <v>24840</v>
+      </c>
+      <c r="F213" t="s">
+        <v>21</v>
+      </c>
+      <c r="G213" t="s">
+        <v>22</v>
+      </c>
+      <c r="H213" t="s">
+        <v>23</v>
+      </c>
+      <c r="I213">
+        <v>9.6001594359185205E-3</v>
+      </c>
+      <c r="J213">
+        <v>4.3676893267035499E-2</v>
+      </c>
+      <c r="K213">
+        <v>0.11536940022912461</v>
+      </c>
+      <c r="L213">
+        <v>0.25373617706284718</v>
+      </c>
+    </row>
+    <row r="214" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A214" s="2">
+        <v>45790</v>
+      </c>
+      <c r="B214">
+        <v>3.4189729999999998</v>
+      </c>
+      <c r="C214">
+        <v>3975961733</v>
+      </c>
+      <c r="D214">
+        <v>13593707404.549999</v>
+      </c>
+      <c r="E214">
+        <v>25012</v>
+      </c>
+      <c r="F214" t="s">
+        <v>21</v>
+      </c>
+      <c r="G214" t="s">
+        <v>22</v>
+      </c>
+      <c r="H214" t="s">
+        <v>23</v>
+      </c>
+      <c r="I214">
+        <v>9.5662994127401202E-3</v>
+      </c>
+      <c r="J214">
+        <v>4.5077779282353792E-2</v>
+      </c>
+      <c r="K214">
+        <v>0.11589031876724309</v>
+      </c>
+      <c r="L214">
+        <v>0.25376581933821618</v>
+      </c>
+    </row>
+    <row r="215" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A215" s="2">
+        <v>45791</v>
+      </c>
+      <c r="B215">
+        <v>3.4235000000000002</v>
+      </c>
+      <c r="C215">
+        <v>4017604087</v>
+      </c>
+      <c r="D215">
+        <v>13754268249.530001</v>
+      </c>
+      <c r="E215">
+        <v>25245</v>
+      </c>
+      <c r="F215" t="s">
+        <v>21</v>
+      </c>
+      <c r="G215" t="s">
+        <v>22</v>
+      </c>
+      <c r="H215" t="s">
+        <v>23</v>
+      </c>
+      <c r="I215">
+        <v>9.4365436373802236E-3</v>
+      </c>
+      <c r="J215">
+        <v>4.2392982306570508E-2</v>
+      </c>
+      <c r="K215">
+        <v>0.1160652432800551</v>
+      </c>
+      <c r="L215">
+        <v>0.25375513120390902</v>
+      </c>
+    </row>
+    <row r="216" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A216" s="2">
+        <v>45792</v>
+      </c>
+      <c r="B216">
+        <v>3.4268519999999998</v>
+      </c>
+      <c r="C216">
+        <v>4053160747</v>
+      </c>
+      <c r="D216">
+        <v>13889580892.290001</v>
+      </c>
+      <c r="E216">
+        <v>25505</v>
+      </c>
+      <c r="F216" t="s">
+        <v>21</v>
+      </c>
+      <c r="G216" t="s">
+        <v>22</v>
+      </c>
+      <c r="H216" t="s">
+        <v>23</v>
+      </c>
+      <c r="I216">
+        <v>8.9763614923601409E-3</v>
+      </c>
+      <c r="J216">
+        <v>4.2391294759438043E-2</v>
+      </c>
+      <c r="K216">
+        <v>0.1157739546859646</v>
+      </c>
+      <c r="L216">
+        <v>0.25498270158503789</v>
+      </c>
+    </row>
+    <row r="217" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A217" s="2">
+        <v>45793</v>
+      </c>
+      <c r="B217">
+        <v>3.4321389999999998</v>
+      </c>
+      <c r="C217">
+        <v>3987656861</v>
+      </c>
+      <c r="D217">
+        <v>13686191813.75</v>
+      </c>
+      <c r="E217">
+        <v>25918</v>
+      </c>
+      <c r="F217" t="s">
+        <v>21</v>
+      </c>
+      <c r="G217" t="s">
+        <v>22</v>
+      </c>
+      <c r="H217" t="s">
+        <v>23</v>
+      </c>
+      <c r="I217">
+        <v>9.1878836493484162E-3</v>
+      </c>
+      <c r="J217">
+        <v>4.2870195569743468E-2</v>
+      </c>
+      <c r="K217">
+        <v>0.11749538791343531</v>
+      </c>
+      <c r="L217">
+        <v>0.25691890820945013</v>
+      </c>
+    </row>
+    <row r="218" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A218" s="2">
+        <v>45797</v>
+      </c>
+      <c r="B218">
+        <v>3.450882</v>
+      </c>
+      <c r="C218">
+        <v>4144493964</v>
+      </c>
+      <c r="D218">
+        <v>14302158158.379999</v>
+      </c>
+      <c r="E218">
+        <v>26451</v>
+      </c>
+      <c r="F218" t="s">
+        <v>21</v>
+      </c>
+      <c r="G218" t="s">
+        <v>22</v>
+      </c>
+      <c r="H218" t="s">
+        <v>23</v>
+      </c>
+      <c r="I218">
+        <v>9.3329195638574003E-3</v>
+      </c>
+      <c r="J218">
+        <v>4.5281216311548578E-2</v>
+      </c>
+      <c r="K218">
+        <v>0.1168994510143062</v>
+      </c>
+      <c r="L218">
+        <v>0.25378655761148222</v>
+      </c>
+    </row>
+    <row r="219" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A219" s="2">
+        <v>45798</v>
+      </c>
+      <c r="B219">
+        <v>3.4554520000000002</v>
+      </c>
+      <c r="C219">
+        <v>4239021557</v>
+      </c>
+      <c r="D219">
+        <v>14647734889.540001</v>
+      </c>
+      <c r="E219">
+        <v>26799</v>
+      </c>
+      <c r="F219" t="s">
+        <v>21</v>
+      </c>
+      <c r="G219" t="s">
+        <v>22</v>
+      </c>
+      <c r="H219" t="s">
+        <v>23</v>
+      </c>
+      <c r="I219">
+        <v>9.3331386008470574E-3</v>
+      </c>
+      <c r="J219">
+        <v>4.2000234004750059E-2</v>
+      </c>
+      <c r="K219">
+        <v>0.1169982634646143</v>
+      </c>
+      <c r="L219">
+        <v>0.25377880502026468</v>
+      </c>
+    </row>
+    <row r="220" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A220" s="2">
+        <v>45799</v>
+      </c>
+      <c r="B220">
+        <v>3.460375</v>
+      </c>
+      <c r="C220">
+        <v>4306219358</v>
+      </c>
+      <c r="D220">
+        <v>14901134647.219999</v>
+      </c>
+      <c r="E220">
+        <v>27206</v>
+      </c>
+      <c r="F220" t="s">
+        <v>21</v>
+      </c>
+      <c r="G220" t="s">
+        <v>22</v>
+      </c>
+      <c r="H220" t="s">
+        <v>23</v>
+      </c>
+      <c r="I220">
+        <v>9.7824475641201669E-3</v>
+      </c>
+      <c r="J220">
+        <v>4.06507512473675E-2</v>
+      </c>
+      <c r="K220">
+        <v>0.1173525746857946</v>
+      </c>
+      <c r="L220">
+        <v>0.25556507004640738</v>
+      </c>
+    </row>
+    <row r="221" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A221" s="2">
+        <v>45800</v>
+      </c>
+      <c r="B221">
+        <v>3.4655269999999998</v>
+      </c>
+      <c r="C221">
+        <v>4353934695</v>
+      </c>
+      <c r="D221">
+        <v>15088676635.25</v>
+      </c>
+      <c r="E221">
+        <v>27404</v>
+      </c>
+      <c r="F221" t="s">
+        <v>21</v>
+      </c>
+      <c r="G221" t="s">
+        <v>22</v>
+      </c>
+      <c r="H221" t="s">
+        <v>23</v>
+      </c>
+      <c r="I221">
+        <v>9.7280442313087967E-3</v>
+      </c>
+      <c r="J221">
+        <v>4.2200130337907149E-2</v>
+      </c>
+      <c r="K221">
+        <v>0.11901615174457621</v>
+      </c>
+      <c r="L221">
+        <v>0.25743442560494612</v>
+      </c>
+    </row>
+    <row r="222" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A222" s="2">
+        <v>45803</v>
+      </c>
+      <c r="B222">
+        <v>3.481239</v>
+      </c>
+      <c r="C222">
+        <v>4421244027</v>
+      </c>
+      <c r="D222">
+        <v>15391405301.360001</v>
+      </c>
+      <c r="E222">
+        <v>27540</v>
+      </c>
+      <c r="F222" t="s">
+        <v>21</v>
+      </c>
+      <c r="G222" t="s">
+        <v>22</v>
+      </c>
+      <c r="H222" t="s">
+        <v>23</v>
+      </c>
+      <c r="I222">
+        <v>1.43059473989835E-2</v>
+      </c>
+      <c r="J222">
+        <v>4.2720447898707548E-2</v>
+      </c>
+      <c r="K222">
+        <v>0.1186069303240236</v>
+      </c>
+      <c r="L222">
+        <v>0.25476324953080282</v>
+      </c>
+    </row>
+    <row r="223" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A223" s="2">
+        <v>45804</v>
+      </c>
+      <c r="B223">
+        <v>3.4874100000000001</v>
+      </c>
+      <c r="C223">
+        <v>4574137028</v>
+      </c>
+      <c r="D223">
+        <v>15951889973.059999</v>
+      </c>
+      <c r="E223">
+        <v>27633</v>
+      </c>
+      <c r="F223" t="s">
+        <v>21</v>
+      </c>
+      <c r="G223" t="s">
+        <v>22</v>
+      </c>
+      <c r="H223" t="s">
+        <v>23</v>
+      </c>
+      <c r="I223">
+        <v>1.058511997802314E-2</v>
+      </c>
+      <c r="J223">
+        <v>4.4568820815356958E-2</v>
+      </c>
+      <c r="K223">
+        <v>0.119198071880847</v>
+      </c>
+      <c r="L223">
+        <v>0.25531927147488243</v>
+      </c>
+    </row>
+    <row r="224" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A224" s="2">
+        <v>45805</v>
+      </c>
+      <c r="B224">
+        <v>3.4926080000000002</v>
+      </c>
+      <c r="C224">
+        <v>4865986308</v>
+      </c>
+      <c r="D224">
+        <v>16994983282.459999</v>
+      </c>
+      <c r="E224">
+        <v>27921</v>
+      </c>
+      <c r="F224" t="s">
+        <v>21</v>
+      </c>
+      <c r="G224" t="s">
+        <v>22</v>
+      </c>
+      <c r="H224" t="s">
+        <v>23</v>
+      </c>
+      <c r="I224">
+        <v>1.075286243304774E-2</v>
+      </c>
+      <c r="J224">
+        <v>4.2260296497099059E-2</v>
+      </c>
+      <c r="K224">
+        <v>0.11973392674457491</v>
+      </c>
+      <c r="L224">
+        <v>0.25551366445516172</v>
+      </c>
+    </row>
+    <row r="225" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A225" s="2">
+        <v>45806</v>
+      </c>
+      <c r="B225">
+        <v>3.498294</v>
+      </c>
+      <c r="C225">
+        <v>5012758043</v>
+      </c>
+      <c r="D225">
+        <v>17536099863.439999</v>
+      </c>
+      <c r="E225">
+        <v>28093</v>
+      </c>
+      <c r="F225" t="s">
+        <v>21</v>
+      </c>
+      <c r="G225" t="s">
+        <v>22</v>
+      </c>
+      <c r="H225" t="s">
+        <v>23</v>
+      </c>
+      <c r="I225">
+        <v>1.09580609038038E-2</v>
+      </c>
+      <c r="J225">
+        <v>4.2952434275369988E-2</v>
+      </c>
+      <c r="K225">
+        <v>0.1202427308825413</v>
+      </c>
+      <c r="L225">
+        <v>0.25755765298639449</v>
+      </c>
+    </row>
+    <row r="226" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A226" s="2">
+        <v>45807</v>
+      </c>
+      <c r="B226">
+        <v>3.5026549999999999</v>
+      </c>
+      <c r="C226">
+        <v>5343545329</v>
+      </c>
+      <c r="D226">
+        <v>18716593984.57</v>
+      </c>
+      <c r="E226">
+        <v>28423</v>
+      </c>
+      <c r="F226" t="s">
+        <v>21</v>
+      </c>
+      <c r="G226" t="s">
+        <v>22</v>
+      </c>
+      <c r="H226" t="s">
+        <v>23</v>
+      </c>
+      <c r="I226">
+        <v>1.071352207038068E-2</v>
+      </c>
+      <c r="J226">
+        <v>4.2862195841598012E-2</v>
+      </c>
+      <c r="K226">
+        <v>0.12163923402075059</v>
+      </c>
+      <c r="L226">
+        <v>0.25912533395451032</v>
+      </c>
+    </row>
+    <row r="227" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A227" s="2">
+        <v>45810</v>
+      </c>
+      <c r="B227">
+        <v>3.5157850000000002</v>
+      </c>
+      <c r="C227">
+        <v>5193325433</v>
+      </c>
+      <c r="D227">
+        <v>18258617355.09</v>
+      </c>
+      <c r="E227">
+        <v>28778</v>
+      </c>
+      <c r="F227" t="s">
+        <v>21</v>
+      </c>
+      <c r="G227" t="s">
+        <v>22</v>
+      </c>
+      <c r="H227" t="s">
+        <v>23</v>
+      </c>
+      <c r="I227">
+        <v>9.9234783937558468E-3</v>
+      </c>
+      <c r="J227">
+        <v>4.379826860210656E-2</v>
+      </c>
+      <c r="K227">
+        <v>0.120445005763506</v>
+      </c>
+      <c r="L227">
+        <v>0.2554164570309585</v>
+      </c>
+    </row>
+    <row r="228" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A228" s="2">
+        <v>45811</v>
+      </c>
+      <c r="B228">
+        <v>3.519787</v>
+      </c>
+      <c r="C228">
+        <v>5112598965</v>
+      </c>
+      <c r="D228">
+        <v>17995257308.73</v>
+      </c>
+      <c r="E228">
+        <v>28869</v>
+      </c>
+      <c r="F228" t="s">
+        <v>21</v>
+      </c>
+      <c r="G228" t="s">
+        <v>22</v>
+      </c>
+      <c r="H228" t="s">
+        <v>23</v>
+      </c>
+      <c r="I228">
+        <v>9.2839671848161665E-3</v>
+      </c>
+      <c r="J228">
+        <v>4.4986418807806183E-2</v>
+      </c>
+      <c r="K228">
+        <v>0.1203960712462233</v>
+      </c>
+      <c r="L228">
+        <v>0.25516655320748338</v>
+      </c>
+    </row>
+    <row r="229" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A229" s="2">
+        <v>45812</v>
+      </c>
+      <c r="B229">
+        <v>3.5235210000000001</v>
+      </c>
+      <c r="C229">
+        <v>5043982956</v>
+      </c>
+      <c r="D229">
+        <v>17772580044.060001</v>
+      </c>
+      <c r="E229">
+        <v>28856</v>
+      </c>
+      <c r="F229" t="s">
+        <v>21</v>
+      </c>
+      <c r="G229" t="s">
+        <v>22</v>
+      </c>
+      <c r="H229" t="s">
+        <v>23</v>
+      </c>
+      <c r="I229">
+        <v>8.8509789818955742E-3</v>
+      </c>
+      <c r="J229">
+        <v>4.1869078627751133E-2</v>
+      </c>
+      <c r="K229">
+        <v>0.120231770709142</v>
+      </c>
+      <c r="L229">
+        <v>0.2548232146787266</v>
+      </c>
+    </row>
+    <row r="230" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A230" s="2">
+        <v>45813</v>
+      </c>
+      <c r="B230">
+        <v>3.5270519999999999</v>
+      </c>
+      <c r="C230">
+        <v>4930924852</v>
+      </c>
+      <c r="D230">
+        <v>17391627543.619999</v>
+      </c>
+      <c r="E230">
+        <v>28777</v>
+      </c>
+      <c r="F230" t="s">
+        <v>21</v>
+      </c>
+      <c r="G230" t="s">
+        <v>22</v>
+      </c>
+      <c r="H230" t="s">
+        <v>23</v>
+      </c>
+      <c r="I230">
+        <v>8.2205783733442228E-3</v>
+      </c>
+      <c r="J230">
+        <v>4.1480244352998463E-2</v>
+      </c>
+      <c r="K230">
+        <v>0.11999949192719959</v>
+      </c>
+      <c r="L230">
+        <v>0.25608070137201722</v>
+      </c>
+    </row>
+    <row r="231" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A231" s="2">
+        <v>45818</v>
+      </c>
+      <c r="B231">
+        <v>3.5502189999999998</v>
+      </c>
+      <c r="C231">
+        <v>4933608137</v>
+      </c>
+      <c r="D231">
+        <v>17515390651.470001</v>
+      </c>
+      <c r="E231">
+        <v>28874</v>
+      </c>
+      <c r="F231" t="s">
+        <v>21</v>
+      </c>
+      <c r="G231" t="s">
+        <v>22</v>
+      </c>
+      <c r="H231" t="s">
+        <v>23</v>
+      </c>
+      <c r="I231">
+        <v>8.6459777253566905E-3</v>
+      </c>
+      <c r="J231">
+        <v>4.3908186440498653E-2</v>
+      </c>
+      <c r="K231">
+        <v>0.12095105092940051</v>
+      </c>
+      <c r="L231">
+        <v>0.25412830036180251</v>
+      </c>
+    </row>
+    <row r="232" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A232" s="2">
+        <v>45819</v>
+      </c>
+      <c r="B232">
+        <v>3.5544060000000002</v>
+      </c>
+      <c r="C232">
+        <v>4894079223</v>
+      </c>
+      <c r="D232">
+        <v>17395543381.990002</v>
+      </c>
+      <c r="E232">
+        <v>28757</v>
+      </c>
+      <c r="F232" t="s">
+        <v>21</v>
+      </c>
+      <c r="G232" t="s">
+        <v>22</v>
+      </c>
+      <c r="H232" t="s">
+        <v>23</v>
+      </c>
+      <c r="I232">
+        <v>8.7653798572506769E-3</v>
+      </c>
+      <c r="J232">
+        <v>4.1007617758955561E-2</v>
+      </c>
+      <c r="K232">
+        <v>0.1210670935949405</v>
+      </c>
+      <c r="L232">
+        <v>0.25390734139919241</v>
+      </c>
+    </row>
+    <row r="233" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A233" s="2">
+        <v>45820</v>
+      </c>
+      <c r="B233">
+        <v>3.5582410000000002</v>
+      </c>
+      <c r="C233">
+        <v>4835726067</v>
+      </c>
+      <c r="D233">
+        <v>17206676408.98</v>
+      </c>
+      <c r="E233">
+        <v>28727</v>
+      </c>
+      <c r="F233" t="s">
+        <v>21</v>
+      </c>
+      <c r="G233" t="s">
+        <v>22</v>
+      </c>
+      <c r="H233" t="s">
+        <v>23</v>
+      </c>
+      <c r="I233">
+        <v>8.8427956264893748E-3</v>
+      </c>
+      <c r="J233">
+        <v>4.0733869498238429E-2</v>
+      </c>
+      <c r="K233">
+        <v>0.12123377779458359</v>
+      </c>
+      <c r="L233">
+        <v>0.25526023542825538</v>
+      </c>
+    </row>
+    <row r="234" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A234" s="2">
+        <v>45821</v>
+      </c>
+      <c r="B234">
+        <v>3.563059</v>
+      </c>
+      <c r="C234">
+        <v>4730157811</v>
+      </c>
+      <c r="D234">
+        <v>16853830270.139999</v>
+      </c>
+      <c r="E234">
+        <v>28686</v>
+      </c>
+      <c r="F234" t="s">
+        <v>21</v>
+      </c>
+      <c r="G234" t="s">
+        <v>22</v>
+      </c>
+      <c r="H234" t="s">
+        <v>23</v>
+      </c>
+      <c r="I234">
+        <v>1.020880894299259E-2</v>
+      </c>
+      <c r="J234">
+        <v>4.0765006572221367E-2</v>
+      </c>
+      <c r="K234">
+        <v>0.1227519729762518</v>
+      </c>
+      <c r="L234">
+        <v>0.25695990777037409</v>
+      </c>
+    </row>
+    <row r="235" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A235" s="2">
+        <v>45824</v>
+      </c>
+      <c r="B235">
+        <v>3.5760890000000001</v>
+      </c>
+      <c r="C235">
+        <v>4709360342</v>
+      </c>
+      <c r="D235">
+        <v>16841092446.049999</v>
+      </c>
+      <c r="E235">
+        <v>28625</v>
+      </c>
+      <c r="F235" t="s">
+        <v>21</v>
+      </c>
+      <c r="G235" t="s">
+        <v>22</v>
+      </c>
+      <c r="H235" t="s">
+        <v>23</v>
+      </c>
+      <c r="I235">
+        <v>1.390311228754215E-2</v>
+      </c>
+      <c r="J235">
+        <v>4.1941774502722629E-2</v>
+      </c>
+      <c r="K235">
+        <v>0.1217459277338819</v>
+      </c>
+      <c r="L235">
+        <v>0.25316314194102302</v>
+      </c>
+    </row>
+    <row r="236" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A236" s="2">
+        <v>45825</v>
+      </c>
+      <c r="B236">
+        <v>3.5803910000000001</v>
+      </c>
+      <c r="C236">
+        <v>4662453769</v>
+      </c>
+      <c r="D236">
+        <v>16693405315.34</v>
+      </c>
+      <c r="E236">
+        <v>28622</v>
+      </c>
+      <c r="F236" t="s">
+        <v>21</v>
+      </c>
+      <c r="G236" t="s">
+        <v>22</v>
+      </c>
+      <c r="H236" t="s">
+        <v>23</v>
+      </c>
+      <c r="I236">
+        <v>8.4986306478558316E-3</v>
+      </c>
+      <c r="J236">
+        <v>4.3195220240205938E-2</v>
+      </c>
+      <c r="K236">
+        <v>0.1218225808877347</v>
+      </c>
+      <c r="L236">
+        <v>0.25299952125247072</v>
+      </c>
+    </row>
+    <row r="237" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A237" s="2">
+        <v>45826</v>
+      </c>
+      <c r="B237">
+        <v>3.5847060000000002</v>
+      </c>
+      <c r="C237">
+        <v>4653355210</v>
+      </c>
+      <c r="D237">
+        <v>16680910346.370001</v>
+      </c>
+      <c r="E237">
+        <v>28650</v>
+      </c>
+      <c r="F237" t="s">
+        <v>21</v>
+      </c>
+      <c r="G237" t="s">
+        <v>22</v>
+      </c>
+      <c r="H237" t="s">
+        <v>23</v>
+      </c>
+      <c r="I237">
+        <v>8.5246311197988422E-3</v>
+      </c>
+      <c r="J237">
+        <v>4.4452453703069723E-2</v>
+      </c>
+      <c r="K237">
+        <v>0.1221626677669041</v>
+      </c>
+      <c r="L237">
+        <v>0.25282467858130181</v>
+      </c>
+    </row>
+    <row r="238" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A238" s="2">
+        <v>45827</v>
+      </c>
+      <c r="B238">
+        <v>3.590036</v>
+      </c>
+      <c r="C238">
+        <v>4528882702</v>
+      </c>
+      <c r="D238">
+        <v>16258852048.98</v>
+      </c>
+      <c r="E238">
+        <v>28656</v>
+      </c>
+      <c r="F238" t="s">
+        <v>21</v>
+      </c>
+      <c r="G238" t="s">
+        <v>22</v>
+      </c>
+      <c r="H238" t="s">
+        <v>23</v>
+      </c>
+      <c r="I238">
+        <v>8.9355948627425352E-3</v>
+      </c>
+      <c r="J238">
+        <v>4.0324183788376322E-2</v>
+      </c>
+      <c r="K238">
+        <v>0.1233722608688306</v>
+      </c>
+      <c r="L238">
+        <v>0.25468746887340332</v>
+      </c>
+    </row>
+    <row r="239" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A239" s="2">
+        <v>45828</v>
+      </c>
+      <c r="B239">
+        <v>3.5947209999999998</v>
+      </c>
+      <c r="C239">
+        <v>4555889107</v>
+      </c>
+      <c r="D239">
+        <v>16377148412.34</v>
+      </c>
+      <c r="E239">
+        <v>28763</v>
+      </c>
+      <c r="F239" t="s">
+        <v>21</v>
+      </c>
+      <c r="G239" t="s">
+        <v>22</v>
+      </c>
+      <c r="H239" t="s">
+        <v>23</v>
+      </c>
+      <c r="I239">
+        <v>8.886184595876756E-3</v>
+      </c>
+      <c r="J239">
+        <v>4.0304133873079413E-2</v>
+      </c>
+      <c r="K239">
+        <v>0.1248382626142643</v>
+      </c>
+      <c r="L239">
+        <v>0.25632483707574782</v>
+      </c>
+    </row>
+    <row r="240" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A240" s="2">
+        <v>45831</v>
+      </c>
+      <c r="B240">
+        <v>3.6086429999999998</v>
+      </c>
+      <c r="C240">
+        <v>4768444668</v>
+      </c>
+      <c r="D240">
+        <v>17207615064.330002</v>
+      </c>
+      <c r="E240">
+        <v>28840</v>
+      </c>
+      <c r="F240" t="s">
+        <v>21</v>
+      </c>
+      <c r="G240" t="s">
+        <v>22</v>
+      </c>
+      <c r="H240" t="s">
+        <v>23</v>
+      </c>
+      <c r="I240">
+        <v>9.1032409987559237E-3</v>
+      </c>
+      <c r="J240">
+        <v>4.12970379396842E-2</v>
+      </c>
+      <c r="K240">
+        <v>0.12551322117633831</v>
+      </c>
+      <c r="L240">
+        <v>0.25279789700767269</v>
+      </c>
+    </row>
+    <row r="241" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A241" s="2">
+        <v>45832</v>
+      </c>
+      <c r="B241">
+        <v>3.6136849999999998</v>
+      </c>
+      <c r="C241">
+        <v>4590882201</v>
+      </c>
+      <c r="D241">
+        <v>16590000942.52</v>
+      </c>
+      <c r="E241">
+        <v>28725</v>
+      </c>
+      <c r="F241" t="s">
+        <v>21</v>
+      </c>
+      <c r="G241" t="s">
+        <v>22</v>
+      </c>
+      <c r="H241" t="s">
+        <v>23</v>
+      </c>
+      <c r="I241">
+        <v>9.2989843846662534E-3</v>
+      </c>
+      <c r="J241">
+        <v>4.2751939315434528E-2</v>
+      </c>
+      <c r="K241">
+        <v>0.12727213174074839</v>
+      </c>
+      <c r="L241">
+        <v>0.25287242746990612</v>
+      </c>
+    </row>
+    <row r="242" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A242" s="2">
+        <v>45833</v>
+      </c>
+      <c r="B242">
+        <v>3.618868</v>
+      </c>
+      <c r="C242">
+        <v>4649709719</v>
+      </c>
+      <c r="D242">
+        <v>16826684859.940001</v>
+      </c>
+      <c r="E242">
+        <v>28785</v>
+      </c>
+      <c r="F242" t="s">
+        <v>21</v>
+      </c>
+      <c r="G242" t="s">
+        <v>22</v>
+      </c>
+      <c r="H242" t="s">
+        <v>23</v>
+      </c>
+      <c r="I242">
+        <v>9.52993076698605E-3</v>
+      </c>
+      <c r="J242">
+        <v>3.9534487577554962E-2</v>
+      </c>
+      <c r="K242">
+        <v>0.12940050021253091</v>
+      </c>
+      <c r="L242">
+        <v>0.25298213007114462</v>
+      </c>
+    </row>
+    <row r="243" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A243" s="2">
+        <v>45834</v>
+      </c>
+      <c r="B243">
+        <v>3.6236640000000002</v>
+      </c>
+      <c r="C243">
+        <v>4792785970</v>
+      </c>
+      <c r="D243">
+        <v>17367445543.970001</v>
+      </c>
+      <c r="E243">
+        <v>28782</v>
+      </c>
+      <c r="F243" t="s">
+        <v>21</v>
+      </c>
+      <c r="G243" t="s">
+        <v>22</v>
+      </c>
+      <c r="H243" t="s">
+        <v>23</v>
+      </c>
+      <c r="I243">
+        <v>9.3670369879299553E-3</v>
+      </c>
+      <c r="J243">
+        <v>3.9070255576487911E-2</v>
+      </c>
+      <c r="K243">
+        <v>0.1300638900817408</v>
+      </c>
+      <c r="L243">
+        <v>0.25464267759479609</v>
+      </c>
+    </row>
+    <row r="244" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A244" s="2">
+        <v>45835</v>
+      </c>
+      <c r="B244">
+        <v>3.6282169999999998</v>
+      </c>
+      <c r="C244">
+        <v>4773489112</v>
+      </c>
+      <c r="D244">
+        <v>17319256564.41</v>
+      </c>
+      <c r="E244">
+        <v>28737</v>
+      </c>
+      <c r="F244" t="s">
+        <v>21</v>
+      </c>
+      <c r="G244" t="s">
+        <v>22</v>
+      </c>
+      <c r="H244" t="s">
+        <v>23</v>
+      </c>
+      <c r="I244">
+        <v>9.318108415089732E-3</v>
+      </c>
+      <c r="J244">
+        <v>3.8827432108040627E-2</v>
+      </c>
+      <c r="K244">
+        <v>0.1314837736282124</v>
+      </c>
+      <c r="L244">
+        <v>0.25621908978728652</v>
+      </c>
+    </row>
+    <row r="245" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A245" s="2">
+        <v>45838</v>
+      </c>
+      <c r="B245">
+        <v>3.6420340000000002</v>
+      </c>
+      <c r="C245">
+        <v>4742150588</v>
+      </c>
+      <c r="D245">
+        <v>17271073896.209999</v>
+      </c>
+      <c r="E245">
+        <v>28733</v>
+      </c>
+      <c r="F245" t="s">
+        <v>21</v>
+      </c>
+      <c r="G245" t="s">
+        <v>22</v>
+      </c>
+      <c r="H245" t="s">
+        <v>23</v>
+      </c>
+      <c r="I245">
+        <v>9.2530627163729395E-3</v>
+      </c>
+      <c r="J245">
+        <v>3.9792386061430651E-2</v>
+      </c>
+      <c r="K245">
+        <v>0.13579269762592849</v>
+      </c>
+      <c r="L245">
+        <v>0.25450897385775151</v>
+      </c>
+    </row>
+    <row r="246" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A246" s="2">
+        <v>45839</v>
+      </c>
+      <c r="B246">
+        <v>3.6470220000000002</v>
+      </c>
+      <c r="C246">
+        <v>4529013404</v>
+      </c>
+      <c r="D246">
+        <v>16517411645.91</v>
+      </c>
+      <c r="E246">
+        <v>28613</v>
+      </c>
+      <c r="F246" t="s">
+        <v>21</v>
+      </c>
+      <c r="G246" t="s">
+        <v>22</v>
+      </c>
+      <c r="H246" t="s">
+        <v>23</v>
+      </c>
+      <c r="I246">
+        <v>9.2252091701408023E-3</v>
+      </c>
+      <c r="J246">
+        <v>4.1216448665369658E-2</v>
+      </c>
+      <c r="K246">
+        <v>0.1292463757974267</v>
+      </c>
+      <c r="L246">
+        <v>0.25290404365727598</v>
+      </c>
+    </row>
+    <row r="247" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A247" s="2">
+        <v>45840</v>
+      </c>
+      <c r="B247">
+        <v>3.6516820000000001</v>
+      </c>
+      <c r="C247">
+        <v>4704019307</v>
+      </c>
+      <c r="D247">
+        <v>17177583461.08</v>
+      </c>
+      <c r="E247">
+        <v>28790</v>
+      </c>
+      <c r="F247" t="s">
+        <v>21</v>
+      </c>
+      <c r="G247" t="s">
+        <v>22</v>
+      </c>
+      <c r="H247" t="s">
+        <v>23</v>
+      </c>
+      <c r="I247">
+        <v>9.0674763489577703E-3</v>
+      </c>
+      <c r="J247">
+        <v>3.8653387508053028E-2</v>
+      </c>
+      <c r="K247">
+        <v>0.12673753924023121</v>
+      </c>
+      <c r="L247">
+        <v>0.25288872267644741</v>
+      </c>
+    </row>
+    <row r="248" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A248" s="2">
+        <v>45841</v>
+      </c>
+      <c r="B248">
+        <v>3.6576590000000002</v>
+      </c>
+      <c r="C248">
+        <v>4697908011</v>
+      </c>
+      <c r="D248">
+        <v>17183346457.77</v>
+      </c>
+      <c r="E248">
+        <v>28794</v>
+      </c>
+      <c r="F248" t="s">
+        <v>21</v>
+      </c>
+      <c r="G248" t="s">
+        <v>22</v>
+      </c>
+      <c r="H248" t="s">
+        <v>23</v>
+      </c>
+      <c r="I248">
+        <v>9.3813885614117964E-3</v>
+      </c>
+      <c r="J248">
+        <v>3.9170552081702732E-2</v>
+      </c>
+      <c r="K248">
+        <v>0.12505898036407581</v>
+      </c>
+      <c r="L248">
+        <v>0.25493942585800511</v>
+      </c>
+    </row>
+    <row r="249" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A249" s="2">
+        <v>45842</v>
+      </c>
+      <c r="B249">
+        <v>3.6627369999999999</v>
+      </c>
+      <c r="C249">
+        <v>4707998501</v>
+      </c>
+      <c r="D249">
+        <v>17244161899.09</v>
+      </c>
+      <c r="E249">
+        <v>28885</v>
+      </c>
+      <c r="F249" t="s">
+        <v>21</v>
+      </c>
+      <c r="G249" t="s">
+        <v>22</v>
+      </c>
+      <c r="H249" t="s">
+        <v>23</v>
+      </c>
+      <c r="I249">
+        <v>9.5143151581065233E-3</v>
+      </c>
+      <c r="J249">
+        <v>3.9510478297135172E-2</v>
+      </c>
+      <c r="K249">
+        <v>0.12662092189615651</v>
+      </c>
+      <c r="L249">
+        <v>0.25668168296959099</v>
+      </c>
+    </row>
+    <row r="250" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A250" s="2">
+        <v>45845</v>
+      </c>
+      <c r="B250">
+        <v>3.6764009999999998</v>
+      </c>
+      <c r="C250">
+        <v>5099318354</v>
+      </c>
+      <c r="D250">
+        <v>18747137384.900002</v>
+      </c>
+      <c r="E250">
+        <v>29099</v>
+      </c>
+      <c r="F250" t="s">
+        <v>21</v>
+      </c>
+      <c r="G250" t="s">
+        <v>22</v>
+      </c>
+      <c r="H250" t="s">
+        <v>23</v>
+      </c>
+      <c r="I250">
+        <v>9.4362106449306093E-3</v>
+      </c>
+      <c r="J250">
+        <v>4.2343861105535119E-2</v>
+      </c>
+      <c r="K250">
+        <v>0.12557210085813961</v>
+      </c>
+      <c r="L250">
+        <v>0.25317426528059878</v>
+      </c>
+    </row>
+    <row r="251" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A251" s="2">
+        <v>45846</v>
+      </c>
+      <c r="B251">
+        <v>3.6810049999999999</v>
+      </c>
+      <c r="C251">
+        <v>5055299951</v>
+      </c>
+      <c r="D251">
+        <v>18608582595.240002</v>
+      </c>
+      <c r="E251">
+        <v>29011</v>
+      </c>
+      <c r="F251" t="s">
+        <v>21</v>
+      </c>
+      <c r="G251" t="s">
+        <v>22</v>
+      </c>
+      <c r="H251" t="s">
+        <v>23</v>
+      </c>
+      <c r="I251">
+        <v>9.3180134367161216E-3</v>
+      </c>
+      <c r="J251">
+        <v>4.3649200522135827E-2</v>
+      </c>
+      <c r="K251">
+        <v>0.12628236451049599</v>
+      </c>
+      <c r="L251">
+        <v>0.25313709389698208</v>
+      </c>
+    </row>
+    <row r="252" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A252" s="2">
+        <v>45847</v>
+      </c>
+      <c r="B252">
+        <v>3.6860369999999998</v>
+      </c>
+      <c r="C252">
+        <v>4977238877</v>
+      </c>
+      <c r="D252">
+        <v>18346285524.41</v>
+      </c>
+      <c r="E252">
+        <v>29037</v>
+      </c>
+      <c r="F252" t="s">
+        <v>21</v>
+      </c>
+      <c r="G252" t="s">
+        <v>22</v>
+      </c>
+      <c r="H252" t="s">
+        <v>23</v>
+      </c>
+      <c r="I252">
+        <v>9.4079933575814678E-3</v>
+      </c>
+      <c r="J252">
+        <v>4.5075887738541993E-2</v>
+      </c>
+      <c r="K252">
+        <v>0.1270988412341576</v>
+      </c>
+      <c r="L252">
+        <v>0.25324383235805009</v>
+      </c>
+      <c r="M252">
+        <v>0.606145033527832</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>